--- a/TARJETAS  DE  MATARA/matara ok/TARJETA DE LIQUIDACION 2011 MATARA.xlsx
+++ b/TARJETAS  DE  MATARA/matara ok/TARJETA DE LIQUIDACION 2011 MATARA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUPERVISION2020\TARJETAS  DE  MATARA\Nueva carpeta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SUPERVISION2020\TARJETAS  DE  MATARA\matara ok\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3443,6 +3443,24 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3482,36 +3500,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3521,13 +3509,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3567,6 +3558,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7906,34 +7906,34 @@
     <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="206" t="s">
+      <c r="B3" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
     </row>
     <row r="4" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="194"/>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
@@ -7949,19 +7949,19 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="208"/>
-      <c r="K6" s="208"/>
-      <c r="L6" s="208"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="195"/>
+      <c r="L6" s="195"/>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -8004,30 +8004,30 @@
       <c r="D9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="209" t="s">
+      <c r="E9" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F9" s="210"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="210"/>
-      <c r="I9" s="210"/>
-      <c r="J9" s="210"/>
-      <c r="K9" s="210"/>
-      <c r="L9" s="210"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="197"/>
       <c r="M9" s="184"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="210"/>
-      <c r="L10" s="210"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="197"/>
       <c r="M10" s="184"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8038,30 +8038,30 @@
       <c r="D11" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="209" t="s">
+      <c r="E11" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F11" s="210"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="210"/>
-      <c r="L11" s="210"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="197"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="197"/>
+      <c r="L11" s="197"/>
       <c r="M11" s="184"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="38"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="210"/>
-      <c r="G12" s="210"/>
-      <c r="H12" s="210"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="210"/>
-      <c r="K12" s="210"/>
-      <c r="L12" s="210"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="197"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="197"/>
       <c r="M12" s="184"/>
     </row>
     <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -8085,11 +8085,11 @@
       <c r="M13" s="24"/>
     </row>
     <row r="14" spans="2:13" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="205" t="s">
+      <c r="B14" s="192" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="205"/>
-      <c r="D14" s="205"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="192"/>
       <c r="E14" s="185" t="s">
         <v>496</v>
       </c>
@@ -8118,34 +8118,34 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="197" t="s">
+      <c r="B16" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="199" t="s">
+      <c r="C16" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="200" t="s">
+      <c r="D16" s="205"/>
+      <c r="E16" s="205"/>
+      <c r="F16" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="200" t="s">
+      <c r="G16" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="195" t="s">
+      <c r="H16" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="203" t="s">
+      <c r="I16" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="204"/>
-      <c r="K16" s="204"/>
-      <c r="L16" s="195" t="s">
+      <c r="J16" s="210"/>
+      <c r="K16" s="210"/>
+      <c r="L16" s="201" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="198"/>
+      <c r="B17" s="204"/>
       <c r="C17" s="186" t="s">
         <v>12</v>
       </c>
@@ -8155,9 +8155,9 @@
       <c r="E17" s="186" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="201"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="196"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="202"/>
       <c r="I17" s="186" t="s">
         <v>42</v>
       </c>
@@ -8167,7 +8167,7 @@
       <c r="K17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="196"/>
+      <c r="L17" s="202"/>
     </row>
     <row r="18" spans="2:12" s="16" customFormat="1" ht="47.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="187" t="s">
@@ -15523,14 +15523,14 @@
       </c>
     </row>
     <row r="255" spans="2:12" ht="16.5" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="192" t="s">
+      <c r="B255" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C255" s="193"/>
-      <c r="D255" s="193"/>
-      <c r="E255" s="193"/>
-      <c r="F255" s="193"/>
-      <c r="G255" s="194"/>
+      <c r="C255" s="199"/>
+      <c r="D255" s="199"/>
+      <c r="E255" s="199"/>
+      <c r="F255" s="199"/>
+      <c r="G255" s="200"/>
       <c r="H255" s="51">
         <f t="shared" ref="H255:J255" si="0">SUM(H18:H254)</f>
         <v>553307.67999999993</v>
@@ -15558,12 +15558,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="14">
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="E11:L12"/>
     <mergeCell ref="B255:G255"/>
     <mergeCell ref="L16:L17"/>
     <mergeCell ref="B16:B17"/>
@@ -15572,6 +15566,12 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="I16:K16"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="E11:L12"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.62992125984251968" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15586,8 +15586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M134"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A83" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="P91" sqref="P91"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A95" zoomScale="55" zoomScaleNormal="80" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="O105" sqref="O105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15606,34 +15606,34 @@
     <row r="1" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="206" t="s">
+      <c r="B3" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
     </row>
     <row r="4" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="207" t="s">
+      <c r="B4" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="207"/>
-      <c r="E4" s="207"/>
-      <c r="F4" s="207"/>
-      <c r="G4" s="207"/>
-      <c r="H4" s="207"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="207"/>
-      <c r="K4" s="207"/>
-      <c r="L4" s="207"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+      <c r="J4" s="194"/>
+      <c r="K4" s="194"/>
+      <c r="L4" s="194"/>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
@@ -15649,19 +15649,19 @@
       <c r="L5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="208"/>
-      <c r="G6" s="208"/>
-      <c r="H6" s="208"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="208"/>
-      <c r="K6" s="208"/>
-      <c r="L6" s="208"/>
+      <c r="C6" s="195"/>
+      <c r="D6" s="195"/>
+      <c r="E6" s="195"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="195"/>
+      <c r="L6" s="195"/>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -15704,30 +15704,30 @@
       <c r="D9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="209" t="s">
+      <c r="E9" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F9" s="210"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="210"/>
-      <c r="I9" s="210"/>
-      <c r="J9" s="210"/>
-      <c r="K9" s="210"/>
-      <c r="L9" s="210"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="197"/>
       <c r="M9" s="53"/>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="210"/>
-      <c r="L10" s="210"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="197"/>
       <c r="M10" s="53"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -15738,30 +15738,30 @@
       <c r="D11" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="209" t="s">
+      <c r="E11" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F11" s="210"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="210"/>
-      <c r="L11" s="210"/>
+      <c r="F11" s="197"/>
+      <c r="G11" s="197"/>
+      <c r="H11" s="197"/>
+      <c r="I11" s="197"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="197"/>
+      <c r="L11" s="197"/>
       <c r="M11" s="53"/>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="38"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="210"/>
-      <c r="G12" s="210"/>
-      <c r="H12" s="210"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="210"/>
-      <c r="K12" s="210"/>
-      <c r="L12" s="210"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="197"/>
+      <c r="G12" s="197"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="197"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
+      <c r="L12" s="197"/>
       <c r="M12" s="53"/>
     </row>
     <row r="13" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -15785,11 +15785,11 @@
       <c r="M13" s="24"/>
     </row>
     <row r="14" spans="2:13" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="205" t="s">
+      <c r="B14" s="192" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="205"/>
-      <c r="D14" s="205"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="192"/>
       <c r="E14" s="73" t="s">
         <v>496</v>
       </c>
@@ -15818,34 +15818,34 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="197" t="s">
+      <c r="B16" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="199" t="s">
+      <c r="C16" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="199"/>
-      <c r="E16" s="199"/>
-      <c r="F16" s="200" t="s">
+      <c r="D16" s="205"/>
+      <c r="E16" s="205"/>
+      <c r="F16" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="200" t="s">
+      <c r="G16" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="195" t="s">
+      <c r="H16" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="I16" s="203" t="s">
+      <c r="I16" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="204"/>
-      <c r="K16" s="204"/>
-      <c r="L16" s="195" t="s">
+      <c r="J16" s="210"/>
+      <c r="K16" s="210"/>
+      <c r="L16" s="201" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="198"/>
+      <c r="B17" s="204"/>
       <c r="C17" s="12" t="s">
         <v>12</v>
       </c>
@@ -15855,9 +15855,9 @@
       <c r="E17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="201"/>
-      <c r="G17" s="202"/>
-      <c r="H17" s="196"/>
+      <c r="F17" s="207"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="202"/>
       <c r="I17" s="74" t="s">
         <v>42</v>
       </c>
@@ -15867,7 +15867,7 @@
       <c r="K17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="196"/>
+      <c r="L17" s="202"/>
     </row>
     <row r="18" spans="2:12" s="16" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="179" t="s">
@@ -16118,14 +16118,14 @@
       </c>
     </row>
     <row r="26" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="211" t="s">
+      <c r="B26" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="212"/>
-      <c r="D26" s="212"/>
-      <c r="E26" s="212"/>
-      <c r="F26" s="212"/>
-      <c r="G26" s="213"/>
+      <c r="C26" s="216"/>
+      <c r="D26" s="216"/>
+      <c r="E26" s="216"/>
+      <c r="F26" s="216"/>
+      <c r="G26" s="217"/>
       <c r="H26" s="51">
         <f>SUM(H18:H25)</f>
         <v>12794.380000000001</v>
@@ -16184,34 +16184,34 @@
       <c r="L29" s="47"/>
     </row>
     <row r="30" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="206" t="s">
+      <c r="B30" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="206"/>
-      <c r="D30" s="206"/>
-      <c r="E30" s="206"/>
-      <c r="F30" s="206"/>
-      <c r="G30" s="206"/>
-      <c r="H30" s="206"/>
-      <c r="I30" s="206"/>
-      <c r="J30" s="206"/>
-      <c r="K30" s="206"/>
-      <c r="L30" s="206"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="193"/>
+      <c r="K30" s="193"/>
+      <c r="L30" s="193"/>
     </row>
     <row r="31" spans="2:12" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="207" t="s">
+      <c r="B31" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="207"/>
-      <c r="D31" s="207"/>
-      <c r="E31" s="207"/>
-      <c r="F31" s="207"/>
-      <c r="G31" s="207"/>
-      <c r="H31" s="207"/>
-      <c r="I31" s="207"/>
-      <c r="J31" s="207"/>
-      <c r="K31" s="207"/>
-      <c r="L31" s="207"/>
+      <c r="C31" s="194"/>
+      <c r="D31" s="194"/>
+      <c r="E31" s="194"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="194"/>
+      <c r="I31" s="194"/>
+      <c r="J31" s="194"/>
+      <c r="K31" s="194"/>
+      <c r="L31" s="194"/>
     </row>
     <row r="32" spans="2:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
@@ -16227,19 +16227,19 @@
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="2:13" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="208" t="s">
+      <c r="B33" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="208"/>
-      <c r="D33" s="208"/>
-      <c r="E33" s="208"/>
-      <c r="F33" s="208"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="208"/>
-      <c r="I33" s="208"/>
-      <c r="J33" s="208"/>
-      <c r="K33" s="208"/>
-      <c r="L33" s="208"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="195"/>
+      <c r="F33" s="195"/>
+      <c r="G33" s="195"/>
+      <c r="H33" s="195"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="195"/>
+      <c r="K33" s="195"/>
+      <c r="L33" s="195"/>
     </row>
     <row r="34" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
@@ -16282,30 +16282,30 @@
       <c r="D36" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="209" t="s">
+      <c r="E36" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F36" s="210"/>
-      <c r="G36" s="210"/>
-      <c r="H36" s="210"/>
-      <c r="I36" s="210"/>
-      <c r="J36" s="210"/>
-      <c r="K36" s="210"/>
-      <c r="L36" s="210"/>
+      <c r="F36" s="197"/>
+      <c r="G36" s="197"/>
+      <c r="H36" s="197"/>
+      <c r="I36" s="197"/>
+      <c r="J36" s="197"/>
+      <c r="K36" s="197"/>
+      <c r="L36" s="197"/>
       <c r="M36" s="77"/>
     </row>
     <row r="37" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="37"/>
-      <c r="E37" s="210"/>
-      <c r="F37" s="210"/>
-      <c r="G37" s="210"/>
-      <c r="H37" s="210"/>
-      <c r="I37" s="210"/>
-      <c r="J37" s="210"/>
-      <c r="K37" s="210"/>
-      <c r="L37" s="210"/>
+      <c r="E37" s="197"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="197"/>
+      <c r="H37" s="197"/>
+      <c r="I37" s="197"/>
+      <c r="J37" s="197"/>
+      <c r="K37" s="197"/>
+      <c r="L37" s="197"/>
       <c r="M37" s="77"/>
     </row>
     <row r="38" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -16316,30 +16316,30 @@
       <c r="D38" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="209" t="s">
+      <c r="E38" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F38" s="210"/>
-      <c r="G38" s="210"/>
-      <c r="H38" s="210"/>
-      <c r="I38" s="210"/>
-      <c r="J38" s="210"/>
-      <c r="K38" s="210"/>
-      <c r="L38" s="210"/>
+      <c r="F38" s="197"/>
+      <c r="G38" s="197"/>
+      <c r="H38" s="197"/>
+      <c r="I38" s="197"/>
+      <c r="J38" s="197"/>
+      <c r="K38" s="197"/>
+      <c r="L38" s="197"/>
       <c r="M38" s="77"/>
     </row>
     <row r="39" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
       <c r="D39" s="38"/>
-      <c r="E39" s="210"/>
-      <c r="F39" s="210"/>
-      <c r="G39" s="210"/>
-      <c r="H39" s="210"/>
-      <c r="I39" s="210"/>
-      <c r="J39" s="210"/>
-      <c r="K39" s="210"/>
-      <c r="L39" s="210"/>
+      <c r="E39" s="197"/>
+      <c r="F39" s="197"/>
+      <c r="G39" s="197"/>
+      <c r="H39" s="197"/>
+      <c r="I39" s="197"/>
+      <c r="J39" s="197"/>
+      <c r="K39" s="197"/>
+      <c r="L39" s="197"/>
       <c r="M39" s="77"/>
     </row>
     <row r="40" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -16363,11 +16363,11 @@
       <c r="M40" s="24"/>
     </row>
     <row r="41" spans="2:13" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="205" t="s">
+      <c r="B41" s="192" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="205"/>
-      <c r="D41" s="205"/>
+      <c r="C41" s="192"/>
+      <c r="D41" s="192"/>
       <c r="E41" s="76" t="s">
         <v>496</v>
       </c>
@@ -16396,29 +16396,29 @@
       </c>
     </row>
     <row r="43" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="197" t="s">
+      <c r="B43" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="199" t="s">
+      <c r="C43" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="199"/>
-      <c r="E43" s="199"/>
-      <c r="F43" s="200" t="s">
+      <c r="D43" s="205"/>
+      <c r="E43" s="205"/>
+      <c r="F43" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="200" t="s">
+      <c r="G43" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="H43" s="195" t="s">
+      <c r="H43" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="I43" s="203" t="s">
+      <c r="I43" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="J43" s="204"/>
-      <c r="K43" s="204"/>
-      <c r="L43" s="195" t="s">
+      <c r="J43" s="210"/>
+      <c r="K43" s="210"/>
+      <c r="L43" s="201" t="s">
         <v>11</v>
       </c>
     </row>
@@ -16433,9 +16433,9 @@
       <c r="E44" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="201"/>
-      <c r="G44" s="202"/>
-      <c r="H44" s="196"/>
+      <c r="F44" s="207"/>
+      <c r="G44" s="208"/>
+      <c r="H44" s="202"/>
       <c r="I44" s="74" t="s">
         <v>42</v>
       </c>
@@ -16445,17 +16445,17 @@
       <c r="K44" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L44" s="196"/>
+      <c r="L44" s="202"/>
     </row>
     <row r="45" spans="2:13" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="192" t="s">
+      <c r="B45" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C45" s="193"/>
-      <c r="D45" s="193"/>
-      <c r="E45" s="193"/>
-      <c r="F45" s="193"/>
-      <c r="G45" s="194"/>
+      <c r="C45" s="199"/>
+      <c r="D45" s="199"/>
+      <c r="E45" s="199"/>
+      <c r="F45" s="199"/>
+      <c r="G45" s="200"/>
       <c r="H45" s="51">
         <f>H26</f>
         <v>12794.380000000001</v>
@@ -16754,14 +16754,14 @@
       </c>
     </row>
     <row r="55" spans="2:13" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="211" t="s">
+      <c r="B55" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="212"/>
-      <c r="D55" s="212"/>
-      <c r="E55" s="212"/>
-      <c r="F55" s="212"/>
-      <c r="G55" s="213"/>
+      <c r="C55" s="216"/>
+      <c r="D55" s="216"/>
+      <c r="E55" s="216"/>
+      <c r="F55" s="216"/>
+      <c r="G55" s="217"/>
       <c r="H55" s="51">
         <f>SUM(H45:H54)</f>
         <v>36022.380000000005</v>
@@ -16807,34 +16807,34 @@
       <c r="L57" s="47"/>
     </row>
     <row r="58" spans="2:13" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="206" t="s">
+      <c r="B58" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="206"/>
-      <c r="D58" s="206"/>
-      <c r="E58" s="206"/>
-      <c r="F58" s="206"/>
-      <c r="G58" s="206"/>
-      <c r="H58" s="206"/>
-      <c r="I58" s="206"/>
-      <c r="J58" s="206"/>
-      <c r="K58" s="206"/>
-      <c r="L58" s="206"/>
+      <c r="C58" s="193"/>
+      <c r="D58" s="193"/>
+      <c r="E58" s="193"/>
+      <c r="F58" s="193"/>
+      <c r="G58" s="193"/>
+      <c r="H58" s="193"/>
+      <c r="I58" s="193"/>
+      <c r="J58" s="193"/>
+      <c r="K58" s="193"/>
+      <c r="L58" s="193"/>
     </row>
     <row r="59" spans="2:13" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="207" t="s">
+      <c r="B59" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="C59" s="207"/>
-      <c r="D59" s="207"/>
-      <c r="E59" s="207"/>
-      <c r="F59" s="207"/>
-      <c r="G59" s="207"/>
-      <c r="H59" s="207"/>
-      <c r="I59" s="207"/>
-      <c r="J59" s="207"/>
-      <c r="K59" s="207"/>
-      <c r="L59" s="207"/>
+      <c r="C59" s="194"/>
+      <c r="D59" s="194"/>
+      <c r="E59" s="194"/>
+      <c r="F59" s="194"/>
+      <c r="G59" s="194"/>
+      <c r="H59" s="194"/>
+      <c r="I59" s="194"/>
+      <c r="J59" s="194"/>
+      <c r="K59" s="194"/>
+      <c r="L59" s="194"/>
     </row>
     <row r="60" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
@@ -16850,19 +16850,19 @@
       <c r="L60" s="2"/>
     </row>
     <row r="61" spans="2:13" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="208" t="s">
+      <c r="B61" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="208"/>
-      <c r="D61" s="208"/>
-      <c r="E61" s="208"/>
-      <c r="F61" s="208"/>
-      <c r="G61" s="208"/>
-      <c r="H61" s="208"/>
-      <c r="I61" s="208"/>
-      <c r="J61" s="208"/>
-      <c r="K61" s="208"/>
-      <c r="L61" s="208"/>
+      <c r="C61" s="195"/>
+      <c r="D61" s="195"/>
+      <c r="E61" s="195"/>
+      <c r="F61" s="195"/>
+      <c r="G61" s="195"/>
+      <c r="H61" s="195"/>
+      <c r="I61" s="195"/>
+      <c r="J61" s="195"/>
+      <c r="K61" s="195"/>
+      <c r="L61" s="195"/>
     </row>
     <row r="62" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
@@ -16905,30 +16905,30 @@
       <c r="D64" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="209" t="s">
+      <c r="E64" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F64" s="210"/>
-      <c r="G64" s="210"/>
-      <c r="H64" s="210"/>
-      <c r="I64" s="210"/>
-      <c r="J64" s="210"/>
-      <c r="K64" s="210"/>
-      <c r="L64" s="210"/>
+      <c r="F64" s="197"/>
+      <c r="G64" s="197"/>
+      <c r="H64" s="197"/>
+      <c r="I64" s="197"/>
+      <c r="J64" s="197"/>
+      <c r="K64" s="197"/>
+      <c r="L64" s="197"/>
       <c r="M64" s="77"/>
     </row>
     <row r="65" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
       <c r="D65" s="37"/>
-      <c r="E65" s="210"/>
-      <c r="F65" s="210"/>
-      <c r="G65" s="210"/>
-      <c r="H65" s="210"/>
-      <c r="I65" s="210"/>
-      <c r="J65" s="210"/>
-      <c r="K65" s="210"/>
-      <c r="L65" s="210"/>
+      <c r="E65" s="197"/>
+      <c r="F65" s="197"/>
+      <c r="G65" s="197"/>
+      <c r="H65" s="197"/>
+      <c r="I65" s="197"/>
+      <c r="J65" s="197"/>
+      <c r="K65" s="197"/>
+      <c r="L65" s="197"/>
       <c r="M65" s="77"/>
     </row>
     <row r="66" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -16939,30 +16939,30 @@
       <c r="D66" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="209" t="s">
+      <c r="E66" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F66" s="210"/>
-      <c r="G66" s="210"/>
-      <c r="H66" s="210"/>
-      <c r="I66" s="210"/>
-      <c r="J66" s="210"/>
-      <c r="K66" s="210"/>
-      <c r="L66" s="210"/>
+      <c r="F66" s="197"/>
+      <c r="G66" s="197"/>
+      <c r="H66" s="197"/>
+      <c r="I66" s="197"/>
+      <c r="J66" s="197"/>
+      <c r="K66" s="197"/>
+      <c r="L66" s="197"/>
       <c r="M66" s="77"/>
     </row>
     <row r="67" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="7"/>
       <c r="D67" s="38"/>
-      <c r="E67" s="210"/>
-      <c r="F67" s="210"/>
-      <c r="G67" s="210"/>
-      <c r="H67" s="210"/>
-      <c r="I67" s="210"/>
-      <c r="J67" s="210"/>
-      <c r="K67" s="210"/>
-      <c r="L67" s="210"/>
+      <c r="E67" s="197"/>
+      <c r="F67" s="197"/>
+      <c r="G67" s="197"/>
+      <c r="H67" s="197"/>
+      <c r="I67" s="197"/>
+      <c r="J67" s="197"/>
+      <c r="K67" s="197"/>
+      <c r="L67" s="197"/>
       <c r="M67" s="77"/>
     </row>
     <row r="68" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -16986,11 +16986,11 @@
       <c r="M68" s="24"/>
     </row>
     <row r="69" spans="2:13" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="205" t="s">
+      <c r="B69" s="192" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
+      <c r="C69" s="192"/>
+      <c r="D69" s="192"/>
       <c r="E69" s="76" t="s">
         <v>496</v>
       </c>
@@ -17019,29 +17019,29 @@
       </c>
     </row>
     <row r="71" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="197" t="s">
+      <c r="B71" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="C71" s="199" t="s">
+      <c r="C71" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="D71" s="199"/>
-      <c r="E71" s="199"/>
-      <c r="F71" s="200" t="s">
+      <c r="D71" s="205"/>
+      <c r="E71" s="205"/>
+      <c r="F71" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="200" t="s">
+      <c r="G71" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="H71" s="195" t="s">
+      <c r="H71" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="I71" s="203" t="s">
+      <c r="I71" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="J71" s="204"/>
-      <c r="K71" s="204"/>
-      <c r="L71" s="195" t="s">
+      <c r="J71" s="210"/>
+      <c r="K71" s="210"/>
+      <c r="L71" s="201" t="s">
         <v>11</v>
       </c>
     </row>
@@ -17056,9 +17056,9 @@
       <c r="E72" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="201"/>
-      <c r="G72" s="202"/>
-      <c r="H72" s="196"/>
+      <c r="F72" s="207"/>
+      <c r="G72" s="208"/>
+      <c r="H72" s="202"/>
       <c r="I72" s="74" t="s">
         <v>42</v>
       </c>
@@ -17068,17 +17068,17 @@
       <c r="K72" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L72" s="196"/>
+      <c r="L72" s="202"/>
     </row>
     <row r="73" spans="2:13" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="192" t="s">
+      <c r="B73" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C73" s="193"/>
-      <c r="D73" s="193"/>
-      <c r="E73" s="193"/>
-      <c r="F73" s="193"/>
-      <c r="G73" s="194"/>
+      <c r="C73" s="199"/>
+      <c r="D73" s="199"/>
+      <c r="E73" s="199"/>
+      <c r="F73" s="199"/>
+      <c r="G73" s="200"/>
       <c r="H73" s="51">
         <f>H55</f>
         <v>36022.380000000005</v>
@@ -17381,14 +17381,14 @@
       </c>
     </row>
     <row r="83" spans="2:13" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="211" t="s">
+      <c r="B83" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C83" s="212"/>
-      <c r="D83" s="212"/>
-      <c r="E83" s="212"/>
-      <c r="F83" s="212"/>
-      <c r="G83" s="213"/>
+      <c r="C83" s="216"/>
+      <c r="D83" s="216"/>
+      <c r="E83" s="216"/>
+      <c r="F83" s="216"/>
+      <c r="G83" s="217"/>
       <c r="H83" s="51">
         <f>SUM(H73:H82)</f>
         <v>57225.880000000005</v>
@@ -17434,34 +17434,34 @@
       <c r="L85" s="90"/>
     </row>
     <row r="86" spans="2:13" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="206" t="s">
+      <c r="B86" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="206"/>
-      <c r="D86" s="206"/>
-      <c r="E86" s="206"/>
-      <c r="F86" s="206"/>
-      <c r="G86" s="206"/>
-      <c r="H86" s="206"/>
-      <c r="I86" s="206"/>
-      <c r="J86" s="206"/>
-      <c r="K86" s="206"/>
-      <c r="L86" s="206"/>
+      <c r="C86" s="193"/>
+      <c r="D86" s="193"/>
+      <c r="E86" s="193"/>
+      <c r="F86" s="193"/>
+      <c r="G86" s="193"/>
+      <c r="H86" s="193"/>
+      <c r="I86" s="193"/>
+      <c r="J86" s="193"/>
+      <c r="K86" s="193"/>
+      <c r="L86" s="193"/>
     </row>
     <row r="87" spans="2:13" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="207" t="s">
+      <c r="B87" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="207"/>
-      <c r="D87" s="207"/>
-      <c r="E87" s="207"/>
-      <c r="F87" s="207"/>
-      <c r="G87" s="207"/>
-      <c r="H87" s="207"/>
-      <c r="I87" s="207"/>
-      <c r="J87" s="207"/>
-      <c r="K87" s="207"/>
-      <c r="L87" s="207"/>
+      <c r="C87" s="194"/>
+      <c r="D87" s="194"/>
+      <c r="E87" s="194"/>
+      <c r="F87" s="194"/>
+      <c r="G87" s="194"/>
+      <c r="H87" s="194"/>
+      <c r="I87" s="194"/>
+      <c r="J87" s="194"/>
+      <c r="K87" s="194"/>
+      <c r="L87" s="194"/>
     </row>
     <row r="88" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="2"/>
@@ -17477,19 +17477,19 @@
       <c r="L88" s="2"/>
     </row>
     <row r="89" spans="2:13" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="208" t="s">
+      <c r="B89" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="C89" s="208"/>
-      <c r="D89" s="208"/>
-      <c r="E89" s="208"/>
-      <c r="F89" s="208"/>
-      <c r="G89" s="208"/>
-      <c r="H89" s="208"/>
-      <c r="I89" s="208"/>
-      <c r="J89" s="208"/>
-      <c r="K89" s="208"/>
-      <c r="L89" s="208"/>
+      <c r="C89" s="195"/>
+      <c r="D89" s="195"/>
+      <c r="E89" s="195"/>
+      <c r="F89" s="195"/>
+      <c r="G89" s="195"/>
+      <c r="H89" s="195"/>
+      <c r="I89" s="195"/>
+      <c r="J89" s="195"/>
+      <c r="K89" s="195"/>
+      <c r="L89" s="195"/>
     </row>
     <row r="90" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="2"/>
@@ -17532,30 +17532,30 @@
       <c r="D92" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="209" t="s">
+      <c r="E92" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F92" s="210"/>
-      <c r="G92" s="210"/>
-      <c r="H92" s="210"/>
-      <c r="I92" s="210"/>
-      <c r="J92" s="210"/>
-      <c r="K92" s="210"/>
-      <c r="L92" s="210"/>
+      <c r="F92" s="197"/>
+      <c r="G92" s="197"/>
+      <c r="H92" s="197"/>
+      <c r="I92" s="197"/>
+      <c r="J92" s="197"/>
+      <c r="K92" s="197"/>
+      <c r="L92" s="197"/>
       <c r="M92" s="77"/>
     </row>
     <row r="93" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="37"/>
-      <c r="E93" s="210"/>
-      <c r="F93" s="210"/>
-      <c r="G93" s="210"/>
-      <c r="H93" s="210"/>
-      <c r="I93" s="210"/>
-      <c r="J93" s="210"/>
-      <c r="K93" s="210"/>
-      <c r="L93" s="210"/>
+      <c r="E93" s="197"/>
+      <c r="F93" s="197"/>
+      <c r="G93" s="197"/>
+      <c r="H93" s="197"/>
+      <c r="I93" s="197"/>
+      <c r="J93" s="197"/>
+      <c r="K93" s="197"/>
+      <c r="L93" s="197"/>
       <c r="M93" s="77"/>
     </row>
     <row r="94" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17566,30 +17566,30 @@
       <c r="D94" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="209" t="s">
+      <c r="E94" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F94" s="210"/>
-      <c r="G94" s="210"/>
-      <c r="H94" s="210"/>
-      <c r="I94" s="210"/>
-      <c r="J94" s="210"/>
-      <c r="K94" s="210"/>
-      <c r="L94" s="210"/>
+      <c r="F94" s="197"/>
+      <c r="G94" s="197"/>
+      <c r="H94" s="197"/>
+      <c r="I94" s="197"/>
+      <c r="J94" s="197"/>
+      <c r="K94" s="197"/>
+      <c r="L94" s="197"/>
       <c r="M94" s="77"/>
     </row>
     <row r="95" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="7"/>
       <c r="D95" s="38"/>
-      <c r="E95" s="210"/>
-      <c r="F95" s="210"/>
-      <c r="G95" s="210"/>
-      <c r="H95" s="210"/>
-      <c r="I95" s="210"/>
-      <c r="J95" s="210"/>
-      <c r="K95" s="210"/>
-      <c r="L95" s="210"/>
+      <c r="E95" s="197"/>
+      <c r="F95" s="197"/>
+      <c r="G95" s="197"/>
+      <c r="H95" s="197"/>
+      <c r="I95" s="197"/>
+      <c r="J95" s="197"/>
+      <c r="K95" s="197"/>
+      <c r="L95" s="197"/>
       <c r="M95" s="77"/>
     </row>
     <row r="96" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17613,11 +17613,11 @@
       <c r="M96" s="24"/>
     </row>
     <row r="97" spans="2:13" s="16" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="205" t="s">
+      <c r="B97" s="192" t="s">
         <v>29</v>
       </c>
-      <c r="C97" s="205"/>
-      <c r="D97" s="205"/>
+      <c r="C97" s="192"/>
+      <c r="D97" s="192"/>
       <c r="E97" s="76" t="s">
         <v>496</v>
       </c>
@@ -17646,29 +17646,29 @@
       </c>
     </row>
     <row r="99" spans="2:13" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="197" t="s">
+      <c r="B99" s="203" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="199" t="s">
+      <c r="C99" s="205" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="199"/>
-      <c r="E99" s="199"/>
-      <c r="F99" s="200" t="s">
+      <c r="D99" s="205"/>
+      <c r="E99" s="205"/>
+      <c r="F99" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="200" t="s">
+      <c r="G99" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="H99" s="195" t="s">
+      <c r="H99" s="201" t="s">
         <v>10</v>
       </c>
-      <c r="I99" s="203" t="s">
+      <c r="I99" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="J99" s="204"/>
-      <c r="K99" s="204"/>
-      <c r="L99" s="195" t="s">
+      <c r="J99" s="210"/>
+      <c r="K99" s="210"/>
+      <c r="L99" s="201" t="s">
         <v>11</v>
       </c>
     </row>
@@ -17683,9 +17683,9 @@
       <c r="E100" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="F100" s="201"/>
-      <c r="G100" s="202"/>
-      <c r="H100" s="196"/>
+      <c r="F100" s="207"/>
+      <c r="G100" s="208"/>
+      <c r="H100" s="202"/>
       <c r="I100" s="74" t="s">
         <v>42</v>
       </c>
@@ -17695,17 +17695,17 @@
       <c r="K100" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L100" s="196"/>
+      <c r="L100" s="202"/>
     </row>
     <row r="101" spans="2:13" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="215" t="s">
+      <c r="B101" s="211" t="s">
         <v>39</v>
       </c>
-      <c r="C101" s="216"/>
-      <c r="D101" s="216"/>
-      <c r="E101" s="216"/>
-      <c r="F101" s="216"/>
-      <c r="G101" s="217"/>
+      <c r="C101" s="212"/>
+      <c r="D101" s="212"/>
+      <c r="E101" s="212"/>
+      <c r="F101" s="212"/>
+      <c r="G101" s="213"/>
       <c r="H101" s="79">
         <f>H83</f>
         <v>57225.880000000005</v>
@@ -17975,14 +17975,14 @@
       </c>
     </row>
     <row r="110" spans="2:13" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="211" t="s">
+      <c r="B110" s="215" t="s">
         <v>498</v>
       </c>
-      <c r="C110" s="212"/>
-      <c r="D110" s="212"/>
-      <c r="E110" s="212"/>
-      <c r="F110" s="212"/>
-      <c r="G110" s="213"/>
+      <c r="C110" s="216"/>
+      <c r="D110" s="216"/>
+      <c r="E110" s="216"/>
+      <c r="F110" s="216"/>
+      <c r="G110" s="217"/>
       <c r="H110" s="41">
         <f>SUM(H101:H109)</f>
         <v>72614.880000000005</v>
@@ -18031,49 +18031,6 @@
     <row r="134" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:K99"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="B101:G101"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="B86:L86"/>
-    <mergeCell ref="B87:L87"/>
-    <mergeCell ref="B89:L89"/>
-    <mergeCell ref="E92:L93"/>
-    <mergeCell ref="E94:L95"/>
-    <mergeCell ref="B73:G73"/>
-    <mergeCell ref="B58:L58"/>
-    <mergeCell ref="B59:L59"/>
-    <mergeCell ref="B61:L61"/>
-    <mergeCell ref="B83:G83"/>
-    <mergeCell ref="E64:L65"/>
-    <mergeCell ref="E66:L67"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="I71:K71"/>
-    <mergeCell ref="L71:L72"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B55:G55"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="E36:L37"/>
-    <mergeCell ref="E38:L39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="L43:L44"/>
     <mergeCell ref="B30:L30"/>
     <mergeCell ref="B110:G110"/>
     <mergeCell ref="B3:L3"/>
@@ -18090,6 +18047,49 @@
     <mergeCell ref="E9:L10"/>
     <mergeCell ref="E11:L12"/>
     <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="E36:L37"/>
+    <mergeCell ref="E38:L39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="B73:G73"/>
+    <mergeCell ref="B58:L58"/>
+    <mergeCell ref="B59:L59"/>
+    <mergeCell ref="B61:L61"/>
+    <mergeCell ref="B83:G83"/>
+    <mergeCell ref="E64:L65"/>
+    <mergeCell ref="E66:L67"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="L71:L72"/>
+    <mergeCell ref="B86:L86"/>
+    <mergeCell ref="B87:L87"/>
+    <mergeCell ref="B89:L89"/>
+    <mergeCell ref="E92:L93"/>
+    <mergeCell ref="E94:L95"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="B101:G101"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -18130,34 +18130,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="221" t="s">
+      <c r="B1" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
+      <c r="C1" s="218"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="218"/>
     </row>
     <row r="2" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B2" s="222" t="s">
+      <c r="B2" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
     </row>
     <row r="3" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
@@ -18173,19 +18173,19 @@
       <c r="L3" s="19"/>
     </row>
     <row r="4" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="208" t="s">
+      <c r="B4" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="208"/>
-      <c r="D4" s="208"/>
-      <c r="E4" s="208"/>
-      <c r="F4" s="208"/>
-      <c r="G4" s="208"/>
-      <c r="H4" s="208"/>
-      <c r="I4" s="208"/>
-      <c r="J4" s="208"/>
-      <c r="K4" s="208"/>
-      <c r="L4" s="208"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
     </row>
     <row r="5" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
@@ -18227,29 +18227,29 @@
       <c r="D7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="209" t="s">
+      <c r="E7" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="210"/>
-      <c r="L7" s="210"/>
+      <c r="F7" s="197"/>
+      <c r="G7" s="197"/>
+      <c r="H7" s="197"/>
+      <c r="I7" s="197"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="197"/>
+      <c r="L7" s="197"/>
     </row>
     <row r="8" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="37"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="210"/>
-      <c r="J8" s="210"/>
-      <c r="K8" s="210"/>
-      <c r="L8" s="210"/>
+      <c r="E8" s="197"/>
+      <c r="F8" s="197"/>
+      <c r="G8" s="197"/>
+      <c r="H8" s="197"/>
+      <c r="I8" s="197"/>
+      <c r="J8" s="197"/>
+      <c r="K8" s="197"/>
+      <c r="L8" s="197"/>
     </row>
     <row r="9" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
@@ -18259,29 +18259,29 @@
       <c r="D9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="209" t="s">
+      <c r="E9" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F9" s="210"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="210"/>
-      <c r="I9" s="210"/>
-      <c r="J9" s="210"/>
-      <c r="K9" s="210"/>
-      <c r="L9" s="210"/>
+      <c r="F9" s="197"/>
+      <c r="G9" s="197"/>
+      <c r="H9" s="197"/>
+      <c r="I9" s="197"/>
+      <c r="J9" s="197"/>
+      <c r="K9" s="197"/>
+      <c r="L9" s="197"/>
     </row>
     <row r="10" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="210"/>
-      <c r="L10" s="210"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="197"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="197"/>
+      <c r="I10" s="197"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
+      <c r="L10" s="197"/>
     </row>
     <row r="11" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
@@ -18303,11 +18303,11 @@
       <c r="L11" s="24"/>
     </row>
     <row r="12" spans="2:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="205" t="s">
+      <c r="B12" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="205"/>
-      <c r="D12" s="205"/>
+      <c r="C12" s="192"/>
+      <c r="D12" s="192"/>
       <c r="E12" s="73" t="s">
         <v>496</v>
       </c>
@@ -18335,34 +18335,34 @@
       </c>
     </row>
     <row r="14" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="223" t="s">
+      <c r="B14" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="225" t="s">
+      <c r="C14" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="226"/>
-      <c r="E14" s="227"/>
-      <c r="F14" s="228" t="s">
+      <c r="D14" s="223"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="228" t="s">
+      <c r="G14" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="230" t="s">
+      <c r="H14" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="232" t="s">
+      <c r="I14" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="233"/>
-      <c r="K14" s="233"/>
-      <c r="L14" s="223" t="s">
+      <c r="J14" s="230"/>
+      <c r="K14" s="230"/>
+      <c r="L14" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="224"/>
+      <c r="B15" s="221"/>
       <c r="C15" s="49" t="s">
         <v>12</v>
       </c>
@@ -18372,9 +18372,9 @@
       <c r="E15" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="229"/>
-      <c r="G15" s="229"/>
-      <c r="H15" s="231"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="226"/>
+      <c r="H15" s="228"/>
       <c r="I15" s="74" t="s">
         <v>42</v>
       </c>
@@ -18384,7 +18384,7 @@
       <c r="K15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="224"/>
+      <c r="L15" s="221"/>
     </row>
     <row r="16" spans="2:12" s="16" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="175" t="s">
@@ -18635,14 +18635,14 @@
       </c>
     </row>
     <row r="24" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="218" t="s">
+      <c r="B24" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="219"/>
-      <c r="D24" s="219"/>
-      <c r="E24" s="219"/>
-      <c r="F24" s="219"/>
-      <c r="G24" s="220"/>
+      <c r="C24" s="232"/>
+      <c r="D24" s="232"/>
+      <c r="E24" s="232"/>
+      <c r="F24" s="232"/>
+      <c r="G24" s="233"/>
       <c r="H24" s="44">
         <f>SUM(H16:H23)</f>
         <v>27653.319999999996</v>
@@ -18688,34 +18688,34 @@
       <c r="L26" s="47"/>
     </row>
     <row r="27" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="221" t="s">
+      <c r="B27" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="221"/>
-      <c r="D27" s="221"/>
-      <c r="E27" s="221"/>
-      <c r="F27" s="221"/>
-      <c r="G27" s="221"/>
-      <c r="H27" s="221"/>
-      <c r="I27" s="221"/>
-      <c r="J27" s="221"/>
-      <c r="K27" s="221"/>
-      <c r="L27" s="221"/>
+      <c r="C27" s="218"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="218"/>
+      <c r="F27" s="218"/>
+      <c r="G27" s="218"/>
+      <c r="H27" s="218"/>
+      <c r="I27" s="218"/>
+      <c r="J27" s="218"/>
+      <c r="K27" s="218"/>
+      <c r="L27" s="218"/>
     </row>
     <row r="28" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B28" s="222" t="s">
+      <c r="B28" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="222"/>
-      <c r="D28" s="222"/>
-      <c r="E28" s="222"/>
-      <c r="F28" s="222"/>
-      <c r="G28" s="222"/>
-      <c r="H28" s="222"/>
-      <c r="I28" s="222"/>
-      <c r="J28" s="222"/>
-      <c r="K28" s="222"/>
-      <c r="L28" s="222"/>
+      <c r="C28" s="219"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="219"/>
+      <c r="F28" s="219"/>
+      <c r="G28" s="219"/>
+      <c r="H28" s="219"/>
+      <c r="I28" s="219"/>
+      <c r="J28" s="219"/>
+      <c r="K28" s="219"/>
+      <c r="L28" s="219"/>
     </row>
     <row r="29" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
@@ -18731,19 +18731,19 @@
       <c r="L29" s="19"/>
     </row>
     <row r="30" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="208" t="s">
+      <c r="B30" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="208"/>
-      <c r="D30" s="208"/>
-      <c r="E30" s="208"/>
-      <c r="F30" s="208"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="208"/>
-      <c r="J30" s="208"/>
-      <c r="K30" s="208"/>
-      <c r="L30" s="208"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="195"/>
+      <c r="H30" s="195"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="195"/>
+      <c r="K30" s="195"/>
+      <c r="L30" s="195"/>
     </row>
     <row r="31" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
@@ -18785,29 +18785,29 @@
       <c r="D33" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="209" t="s">
+      <c r="E33" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F33" s="210"/>
-      <c r="G33" s="210"/>
-      <c r="H33" s="210"/>
-      <c r="I33" s="210"/>
-      <c r="J33" s="210"/>
-      <c r="K33" s="210"/>
-      <c r="L33" s="210"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="197"/>
+      <c r="L33" s="197"/>
     </row>
     <row r="34" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="37"/>
-      <c r="E34" s="210"/>
-      <c r="F34" s="210"/>
-      <c r="G34" s="210"/>
-      <c r="H34" s="210"/>
-      <c r="I34" s="210"/>
-      <c r="J34" s="210"/>
-      <c r="K34" s="210"/>
-      <c r="L34" s="210"/>
+      <c r="E34" s="197"/>
+      <c r="F34" s="197"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="197"/>
+      <c r="J34" s="197"/>
+      <c r="K34" s="197"/>
+      <c r="L34" s="197"/>
     </row>
     <row r="35" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
@@ -18817,29 +18817,29 @@
       <c r="D35" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="209" t="s">
+      <c r="E35" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F35" s="210"/>
-      <c r="G35" s="210"/>
-      <c r="H35" s="210"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="210"/>
-      <c r="K35" s="210"/>
-      <c r="L35" s="210"/>
+      <c r="F35" s="197"/>
+      <c r="G35" s="197"/>
+      <c r="H35" s="197"/>
+      <c r="I35" s="197"/>
+      <c r="J35" s="197"/>
+      <c r="K35" s="197"/>
+      <c r="L35" s="197"/>
     </row>
     <row r="36" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="7"/>
       <c r="D36" s="38"/>
-      <c r="E36" s="210"/>
-      <c r="F36" s="210"/>
-      <c r="G36" s="210"/>
-      <c r="H36" s="210"/>
-      <c r="I36" s="210"/>
-      <c r="J36" s="210"/>
-      <c r="K36" s="210"/>
-      <c r="L36" s="210"/>
+      <c r="E36" s="197"/>
+      <c r="F36" s="197"/>
+      <c r="G36" s="197"/>
+      <c r="H36" s="197"/>
+      <c r="I36" s="197"/>
+      <c r="J36" s="197"/>
+      <c r="K36" s="197"/>
+      <c r="L36" s="197"/>
     </row>
     <row r="37" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
@@ -18861,11 +18861,11 @@
       <c r="L37" s="24"/>
     </row>
     <row r="38" spans="2:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="205" t="s">
+      <c r="B38" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="205"/>
-      <c r="D38" s="205"/>
+      <c r="C38" s="192"/>
+      <c r="D38" s="192"/>
       <c r="E38" s="76" t="s">
         <v>496</v>
       </c>
@@ -18893,34 +18893,34 @@
       </c>
     </row>
     <row r="40" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="223" t="s">
+      <c r="B40" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="225" t="s">
+      <c r="C40" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="226"/>
-      <c r="E40" s="227"/>
-      <c r="F40" s="228" t="s">
+      <c r="D40" s="223"/>
+      <c r="E40" s="224"/>
+      <c r="F40" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="228" t="s">
+      <c r="G40" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="230" t="s">
+      <c r="H40" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I40" s="232" t="s">
+      <c r="I40" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J40" s="233"/>
-      <c r="K40" s="233"/>
-      <c r="L40" s="223" t="s">
+      <c r="J40" s="230"/>
+      <c r="K40" s="230"/>
+      <c r="L40" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="41" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="224"/>
+      <c r="B41" s="221"/>
       <c r="C41" s="75" t="s">
         <v>12</v>
       </c>
@@ -18930,9 +18930,9 @@
       <c r="E41" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="229"/>
-      <c r="G41" s="229"/>
-      <c r="H41" s="231"/>
+      <c r="F41" s="226"/>
+      <c r="G41" s="226"/>
+      <c r="H41" s="228"/>
       <c r="I41" s="74" t="s">
         <v>42</v>
       </c>
@@ -18942,17 +18942,17 @@
       <c r="K41" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L41" s="224"/>
+      <c r="L41" s="221"/>
     </row>
     <row r="42" spans="2:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="192" t="s">
+      <c r="B42" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="193"/>
-      <c r="D42" s="193"/>
-      <c r="E42" s="193"/>
-      <c r="F42" s="193"/>
-      <c r="G42" s="194"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="199"/>
+      <c r="G42" s="200"/>
       <c r="H42" s="51">
         <f>H24</f>
         <v>27653.319999999996</v>
@@ -19251,14 +19251,14 @@
       </c>
     </row>
     <row r="52" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="211" t="s">
+      <c r="B52" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="212"/>
-      <c r="D52" s="212"/>
-      <c r="E52" s="212"/>
-      <c r="F52" s="212"/>
-      <c r="G52" s="213"/>
+      <c r="C52" s="216"/>
+      <c r="D52" s="216"/>
+      <c r="E52" s="216"/>
+      <c r="F52" s="216"/>
+      <c r="G52" s="217"/>
       <c r="H52" s="51">
         <f>SUM(H42:H51)</f>
         <v>27975.019999999997</v>
@@ -19317,34 +19317,34 @@
       <c r="L55" s="89"/>
     </row>
     <row r="56" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="221" t="s">
+      <c r="B56" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="221"/>
-      <c r="D56" s="221"/>
-      <c r="E56" s="221"/>
-      <c r="F56" s="221"/>
-      <c r="G56" s="221"/>
-      <c r="H56" s="221"/>
-      <c r="I56" s="221"/>
-      <c r="J56" s="221"/>
-      <c r="K56" s="221"/>
-      <c r="L56" s="221"/>
+      <c r="C56" s="218"/>
+      <c r="D56" s="218"/>
+      <c r="E56" s="218"/>
+      <c r="F56" s="218"/>
+      <c r="G56" s="218"/>
+      <c r="H56" s="218"/>
+      <c r="I56" s="218"/>
+      <c r="J56" s="218"/>
+      <c r="K56" s="218"/>
+      <c r="L56" s="218"/>
     </row>
     <row r="57" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B57" s="222" t="s">
+      <c r="B57" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="222"/>
-      <c r="D57" s="222"/>
-      <c r="E57" s="222"/>
-      <c r="F57" s="222"/>
-      <c r="G57" s="222"/>
-      <c r="H57" s="222"/>
-      <c r="I57" s="222"/>
-      <c r="J57" s="222"/>
-      <c r="K57" s="222"/>
-      <c r="L57" s="222"/>
+      <c r="C57" s="219"/>
+      <c r="D57" s="219"/>
+      <c r="E57" s="219"/>
+      <c r="F57" s="219"/>
+      <c r="G57" s="219"/>
+      <c r="H57" s="219"/>
+      <c r="I57" s="219"/>
+      <c r="J57" s="219"/>
+      <c r="K57" s="219"/>
+      <c r="L57" s="219"/>
     </row>
     <row r="58" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B58" s="17"/>
@@ -19360,19 +19360,19 @@
       <c r="L58" s="19"/>
     </row>
     <row r="59" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="208" t="s">
+      <c r="B59" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="208"/>
-      <c r="D59" s="208"/>
-      <c r="E59" s="208"/>
-      <c r="F59" s="208"/>
-      <c r="G59" s="208"/>
-      <c r="H59" s="208"/>
-      <c r="I59" s="208"/>
-      <c r="J59" s="208"/>
-      <c r="K59" s="208"/>
-      <c r="L59" s="208"/>
+      <c r="C59" s="195"/>
+      <c r="D59" s="195"/>
+      <c r="E59" s="195"/>
+      <c r="F59" s="195"/>
+      <c r="G59" s="195"/>
+      <c r="H59" s="195"/>
+      <c r="I59" s="195"/>
+      <c r="J59" s="195"/>
+      <c r="K59" s="195"/>
+      <c r="L59" s="195"/>
     </row>
     <row r="60" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B60" s="17"/>
@@ -19414,29 +19414,29 @@
       <c r="D62" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="209" t="s">
+      <c r="E62" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F62" s="210"/>
-      <c r="G62" s="210"/>
-      <c r="H62" s="210"/>
-      <c r="I62" s="210"/>
-      <c r="J62" s="210"/>
-      <c r="K62" s="210"/>
-      <c r="L62" s="210"/>
+      <c r="F62" s="197"/>
+      <c r="G62" s="197"/>
+      <c r="H62" s="197"/>
+      <c r="I62" s="197"/>
+      <c r="J62" s="197"/>
+      <c r="K62" s="197"/>
+      <c r="L62" s="197"/>
     </row>
     <row r="63" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
       <c r="D63" s="37"/>
-      <c r="E63" s="210"/>
-      <c r="F63" s="210"/>
-      <c r="G63" s="210"/>
-      <c r="H63" s="210"/>
-      <c r="I63" s="210"/>
-      <c r="J63" s="210"/>
-      <c r="K63" s="210"/>
-      <c r="L63" s="210"/>
+      <c r="E63" s="197"/>
+      <c r="F63" s="197"/>
+      <c r="G63" s="197"/>
+      <c r="H63" s="197"/>
+      <c r="I63" s="197"/>
+      <c r="J63" s="197"/>
+      <c r="K63" s="197"/>
+      <c r="L63" s="197"/>
     </row>
     <row r="64" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
@@ -19446,29 +19446,29 @@
       <c r="D64" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="209" t="s">
+      <c r="E64" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F64" s="210"/>
-      <c r="G64" s="210"/>
-      <c r="H64" s="210"/>
-      <c r="I64" s="210"/>
-      <c r="J64" s="210"/>
-      <c r="K64" s="210"/>
-      <c r="L64" s="210"/>
+      <c r="F64" s="197"/>
+      <c r="G64" s="197"/>
+      <c r="H64" s="197"/>
+      <c r="I64" s="197"/>
+      <c r="J64" s="197"/>
+      <c r="K64" s="197"/>
+      <c r="L64" s="197"/>
     </row>
     <row r="65" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="7"/>
       <c r="D65" s="38"/>
-      <c r="E65" s="210"/>
-      <c r="F65" s="210"/>
-      <c r="G65" s="210"/>
-      <c r="H65" s="210"/>
-      <c r="I65" s="210"/>
-      <c r="J65" s="210"/>
-      <c r="K65" s="210"/>
-      <c r="L65" s="210"/>
+      <c r="E65" s="197"/>
+      <c r="F65" s="197"/>
+      <c r="G65" s="197"/>
+      <c r="H65" s="197"/>
+      <c r="I65" s="197"/>
+      <c r="J65" s="197"/>
+      <c r="K65" s="197"/>
+      <c r="L65" s="197"/>
     </row>
     <row r="66" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
@@ -19490,11 +19490,11 @@
       <c r="L66" s="24"/>
     </row>
     <row r="67" spans="2:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="205" t="s">
+      <c r="B67" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="205"/>
-      <c r="D67" s="205"/>
+      <c r="C67" s="192"/>
+      <c r="D67" s="192"/>
       <c r="E67" s="76" t="s">
         <v>496</v>
       </c>
@@ -19522,34 +19522,34 @@
       </c>
     </row>
     <row r="69" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="223" t="s">
+      <c r="B69" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C69" s="225" t="s">
+      <c r="C69" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="226"/>
-      <c r="E69" s="227"/>
-      <c r="F69" s="228" t="s">
+      <c r="D69" s="223"/>
+      <c r="E69" s="224"/>
+      <c r="F69" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="228" t="s">
+      <c r="G69" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="230" t="s">
+      <c r="H69" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I69" s="232" t="s">
+      <c r="I69" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J69" s="233"/>
-      <c r="K69" s="233"/>
-      <c r="L69" s="223" t="s">
+      <c r="J69" s="230"/>
+      <c r="K69" s="230"/>
+      <c r="L69" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="224"/>
+      <c r="B70" s="221"/>
       <c r="C70" s="75" t="s">
         <v>12</v>
       </c>
@@ -19559,9 +19559,9 @@
       <c r="E70" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F70" s="229"/>
-      <c r="G70" s="229"/>
-      <c r="H70" s="231"/>
+      <c r="F70" s="226"/>
+      <c r="G70" s="226"/>
+      <c r="H70" s="228"/>
       <c r="I70" s="74" t="s">
         <v>42</v>
       </c>
@@ -19571,17 +19571,17 @@
       <c r="K70" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L70" s="224"/>
+      <c r="L70" s="221"/>
     </row>
     <row r="71" spans="2:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="192" t="s">
+      <c r="B71" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C71" s="193"/>
-      <c r="D71" s="193"/>
-      <c r="E71" s="193"/>
-      <c r="F71" s="193"/>
-      <c r="G71" s="194"/>
+      <c r="C71" s="199"/>
+      <c r="D71" s="199"/>
+      <c r="E71" s="199"/>
+      <c r="F71" s="199"/>
+      <c r="G71" s="200"/>
       <c r="H71" s="51">
         <f>H52</f>
         <v>27975.019999999997</v>
@@ -19911,14 +19911,14 @@
       </c>
     </row>
     <row r="82" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="211" t="s">
+      <c r="B82" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="212"/>
-      <c r="D82" s="212"/>
-      <c r="E82" s="212"/>
-      <c r="F82" s="212"/>
-      <c r="G82" s="213"/>
+      <c r="C82" s="216"/>
+      <c r="D82" s="216"/>
+      <c r="E82" s="216"/>
+      <c r="F82" s="216"/>
+      <c r="G82" s="217"/>
       <c r="H82" s="51">
         <f>SUM(H71:H81)</f>
         <v>68391.62</v>
@@ -19977,34 +19977,34 @@
       <c r="L85" s="47"/>
     </row>
     <row r="86" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="221" t="s">
+      <c r="B86" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C86" s="221"/>
-      <c r="D86" s="221"/>
-      <c r="E86" s="221"/>
-      <c r="F86" s="221"/>
-      <c r="G86" s="221"/>
-      <c r="H86" s="221"/>
-      <c r="I86" s="221"/>
-      <c r="J86" s="221"/>
-      <c r="K86" s="221"/>
-      <c r="L86" s="221"/>
+      <c r="C86" s="218"/>
+      <c r="D86" s="218"/>
+      <c r="E86" s="218"/>
+      <c r="F86" s="218"/>
+      <c r="G86" s="218"/>
+      <c r="H86" s="218"/>
+      <c r="I86" s="218"/>
+      <c r="J86" s="218"/>
+      <c r="K86" s="218"/>
+      <c r="L86" s="218"/>
     </row>
     <row r="87" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B87" s="222" t="s">
+      <c r="B87" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="222"/>
-      <c r="D87" s="222"/>
-      <c r="E87" s="222"/>
-      <c r="F87" s="222"/>
-      <c r="G87" s="222"/>
-      <c r="H87" s="222"/>
-      <c r="I87" s="222"/>
-      <c r="J87" s="222"/>
-      <c r="K87" s="222"/>
-      <c r="L87" s="222"/>
+      <c r="C87" s="219"/>
+      <c r="D87" s="219"/>
+      <c r="E87" s="219"/>
+      <c r="F87" s="219"/>
+      <c r="G87" s="219"/>
+      <c r="H87" s="219"/>
+      <c r="I87" s="219"/>
+      <c r="J87" s="219"/>
+      <c r="K87" s="219"/>
+      <c r="L87" s="219"/>
     </row>
     <row r="88" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B88" s="17"/>
@@ -20020,19 +20020,19 @@
       <c r="L88" s="19"/>
     </row>
     <row r="89" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B89" s="208" t="s">
+      <c r="B89" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C89" s="208"/>
-      <c r="D89" s="208"/>
-      <c r="E89" s="208"/>
-      <c r="F89" s="208"/>
-      <c r="G89" s="208"/>
-      <c r="H89" s="208"/>
-      <c r="I89" s="208"/>
-      <c r="J89" s="208"/>
-      <c r="K89" s="208"/>
-      <c r="L89" s="208"/>
+      <c r="C89" s="195"/>
+      <c r="D89" s="195"/>
+      <c r="E89" s="195"/>
+      <c r="F89" s="195"/>
+      <c r="G89" s="195"/>
+      <c r="H89" s="195"/>
+      <c r="I89" s="195"/>
+      <c r="J89" s="195"/>
+      <c r="K89" s="195"/>
+      <c r="L89" s="195"/>
     </row>
     <row r="90" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B90" s="17"/>
@@ -20074,29 +20074,29 @@
       <c r="D92" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="209" t="s">
+      <c r="E92" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F92" s="210"/>
-      <c r="G92" s="210"/>
-      <c r="H92" s="210"/>
-      <c r="I92" s="210"/>
-      <c r="J92" s="210"/>
-      <c r="K92" s="210"/>
-      <c r="L92" s="210"/>
+      <c r="F92" s="197"/>
+      <c r="G92" s="197"/>
+      <c r="H92" s="197"/>
+      <c r="I92" s="197"/>
+      <c r="J92" s="197"/>
+      <c r="K92" s="197"/>
+      <c r="L92" s="197"/>
     </row>
     <row r="93" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
       <c r="D93" s="37"/>
-      <c r="E93" s="210"/>
-      <c r="F93" s="210"/>
-      <c r="G93" s="210"/>
-      <c r="H93" s="210"/>
-      <c r="I93" s="210"/>
-      <c r="J93" s="210"/>
-      <c r="K93" s="210"/>
-      <c r="L93" s="210"/>
+      <c r="E93" s="197"/>
+      <c r="F93" s="197"/>
+      <c r="G93" s="197"/>
+      <c r="H93" s="197"/>
+      <c r="I93" s="197"/>
+      <c r="J93" s="197"/>
+      <c r="K93" s="197"/>
+      <c r="L93" s="197"/>
     </row>
     <row r="94" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="5" t="s">
@@ -20106,29 +20106,29 @@
       <c r="D94" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="209" t="s">
+      <c r="E94" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F94" s="210"/>
-      <c r="G94" s="210"/>
-      <c r="H94" s="210"/>
-      <c r="I94" s="210"/>
-      <c r="J94" s="210"/>
-      <c r="K94" s="210"/>
-      <c r="L94" s="210"/>
+      <c r="F94" s="197"/>
+      <c r="G94" s="197"/>
+      <c r="H94" s="197"/>
+      <c r="I94" s="197"/>
+      <c r="J94" s="197"/>
+      <c r="K94" s="197"/>
+      <c r="L94" s="197"/>
     </row>
     <row r="95" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="7"/>
       <c r="D95" s="38"/>
-      <c r="E95" s="210"/>
-      <c r="F95" s="210"/>
-      <c r="G95" s="210"/>
-      <c r="H95" s="210"/>
-      <c r="I95" s="210"/>
-      <c r="J95" s="210"/>
-      <c r="K95" s="210"/>
-      <c r="L95" s="210"/>
+      <c r="E95" s="197"/>
+      <c r="F95" s="197"/>
+      <c r="G95" s="197"/>
+      <c r="H95" s="197"/>
+      <c r="I95" s="197"/>
+      <c r="J95" s="197"/>
+      <c r="K95" s="197"/>
+      <c r="L95" s="197"/>
     </row>
     <row r="96" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
@@ -20150,11 +20150,11 @@
       <c r="L96" s="24"/>
     </row>
     <row r="97" spans="1:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="205" t="s">
+      <c r="B97" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C97" s="205"/>
-      <c r="D97" s="205"/>
+      <c r="C97" s="192"/>
+      <c r="D97" s="192"/>
       <c r="E97" s="76" t="s">
         <v>496</v>
       </c>
@@ -20182,34 +20182,34 @@
       </c>
     </row>
     <row r="99" spans="1:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="223" t="s">
+      <c r="B99" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C99" s="225" t="s">
+      <c r="C99" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D99" s="226"/>
-      <c r="E99" s="227"/>
-      <c r="F99" s="228" t="s">
+      <c r="D99" s="223"/>
+      <c r="E99" s="224"/>
+      <c r="F99" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="228" t="s">
+      <c r="G99" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H99" s="230" t="s">
+      <c r="H99" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I99" s="232" t="s">
+      <c r="I99" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J99" s="233"/>
-      <c r="K99" s="233"/>
-      <c r="L99" s="223" t="s">
+      <c r="J99" s="230"/>
+      <c r="K99" s="230"/>
+      <c r="L99" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="224"/>
+      <c r="B100" s="221"/>
       <c r="C100" s="75" t="s">
         <v>12</v>
       </c>
@@ -20219,9 +20219,9 @@
       <c r="E100" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F100" s="229"/>
-      <c r="G100" s="229"/>
-      <c r="H100" s="231"/>
+      <c r="F100" s="226"/>
+      <c r="G100" s="226"/>
+      <c r="H100" s="228"/>
       <c r="I100" s="74" t="s">
         <v>42</v>
       </c>
@@ -20231,17 +20231,17 @@
       <c r="K100" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L100" s="224"/>
+      <c r="L100" s="221"/>
     </row>
     <row r="101" spans="1:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="192" t="s">
+      <c r="B101" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C101" s="193"/>
-      <c r="D101" s="193"/>
-      <c r="E101" s="193"/>
-      <c r="F101" s="193"/>
-      <c r="G101" s="194"/>
+      <c r="C101" s="199"/>
+      <c r="D101" s="199"/>
+      <c r="E101" s="199"/>
+      <c r="F101" s="199"/>
+      <c r="G101" s="200"/>
       <c r="H101" s="51">
         <f>H82</f>
         <v>68391.62</v>
@@ -20540,14 +20540,14 @@
       </c>
     </row>
     <row r="111" spans="1:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="211" t="s">
+      <c r="B111" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C111" s="212"/>
-      <c r="D111" s="212"/>
-      <c r="E111" s="212"/>
-      <c r="F111" s="212"/>
-      <c r="G111" s="213"/>
+      <c r="C111" s="216"/>
+      <c r="D111" s="216"/>
+      <c r="E111" s="216"/>
+      <c r="F111" s="216"/>
+      <c r="G111" s="217"/>
       <c r="H111" s="51">
         <f>SUM(H101:H110)</f>
         <v>71036.189999999988</v>
@@ -20595,34 +20595,34 @@
       <c r="L113" s="89"/>
     </row>
     <row r="114" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="221" t="s">
+      <c r="B114" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C114" s="221"/>
-      <c r="D114" s="221"/>
-      <c r="E114" s="221"/>
-      <c r="F114" s="221"/>
-      <c r="G114" s="221"/>
-      <c r="H114" s="221"/>
-      <c r="I114" s="221"/>
-      <c r="J114" s="221"/>
-      <c r="K114" s="221"/>
-      <c r="L114" s="221"/>
+      <c r="C114" s="218"/>
+      <c r="D114" s="218"/>
+      <c r="E114" s="218"/>
+      <c r="F114" s="218"/>
+      <c r="G114" s="218"/>
+      <c r="H114" s="218"/>
+      <c r="I114" s="218"/>
+      <c r="J114" s="218"/>
+      <c r="K114" s="218"/>
+      <c r="L114" s="218"/>
     </row>
     <row r="115" spans="1:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B115" s="222" t="s">
+      <c r="B115" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="222"/>
-      <c r="D115" s="222"/>
-      <c r="E115" s="222"/>
-      <c r="F115" s="222"/>
-      <c r="G115" s="222"/>
-      <c r="H115" s="222"/>
-      <c r="I115" s="222"/>
-      <c r="J115" s="222"/>
-      <c r="K115" s="222"/>
-      <c r="L115" s="222"/>
+      <c r="C115" s="219"/>
+      <c r="D115" s="219"/>
+      <c r="E115" s="219"/>
+      <c r="F115" s="219"/>
+      <c r="G115" s="219"/>
+      <c r="H115" s="219"/>
+      <c r="I115" s="219"/>
+      <c r="J115" s="219"/>
+      <c r="K115" s="219"/>
+      <c r="L115" s="219"/>
     </row>
     <row r="116" spans="1:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B116" s="17"/>
@@ -20638,19 +20638,19 @@
       <c r="L116" s="19"/>
     </row>
     <row r="117" spans="1:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B117" s="208" t="s">
+      <c r="B117" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C117" s="208"/>
-      <c r="D117" s="208"/>
-      <c r="E117" s="208"/>
-      <c r="F117" s="208"/>
-      <c r="G117" s="208"/>
-      <c r="H117" s="208"/>
-      <c r="I117" s="208"/>
-      <c r="J117" s="208"/>
-      <c r="K117" s="208"/>
-      <c r="L117" s="208"/>
+      <c r="C117" s="195"/>
+      <c r="D117" s="195"/>
+      <c r="E117" s="195"/>
+      <c r="F117" s="195"/>
+      <c r="G117" s="195"/>
+      <c r="H117" s="195"/>
+      <c r="I117" s="195"/>
+      <c r="J117" s="195"/>
+      <c r="K117" s="195"/>
+      <c r="L117" s="195"/>
     </row>
     <row r="118" spans="1:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B118" s="17"/>
@@ -20692,29 +20692,29 @@
       <c r="D120" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E120" s="209" t="s">
+      <c r="E120" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F120" s="210"/>
-      <c r="G120" s="210"/>
-      <c r="H120" s="210"/>
-      <c r="I120" s="210"/>
-      <c r="J120" s="210"/>
-      <c r="K120" s="210"/>
-      <c r="L120" s="210"/>
+      <c r="F120" s="197"/>
+      <c r="G120" s="197"/>
+      <c r="H120" s="197"/>
+      <c r="I120" s="197"/>
+      <c r="J120" s="197"/>
+      <c r="K120" s="197"/>
+      <c r="L120" s="197"/>
     </row>
     <row r="121" spans="1:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="5"/>
       <c r="C121" s="6"/>
       <c r="D121" s="37"/>
-      <c r="E121" s="210"/>
-      <c r="F121" s="210"/>
-      <c r="G121" s="210"/>
-      <c r="H121" s="210"/>
-      <c r="I121" s="210"/>
-      <c r="J121" s="210"/>
-      <c r="K121" s="210"/>
-      <c r="L121" s="210"/>
+      <c r="E121" s="197"/>
+      <c r="F121" s="197"/>
+      <c r="G121" s="197"/>
+      <c r="H121" s="197"/>
+      <c r="I121" s="197"/>
+      <c r="J121" s="197"/>
+      <c r="K121" s="197"/>
+      <c r="L121" s="197"/>
     </row>
     <row r="122" spans="1:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="5" t="s">
@@ -20724,29 +20724,29 @@
       <c r="D122" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E122" s="209" t="s">
+      <c r="E122" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F122" s="210"/>
-      <c r="G122" s="210"/>
-      <c r="H122" s="210"/>
-      <c r="I122" s="210"/>
-      <c r="J122" s="210"/>
-      <c r="K122" s="210"/>
-      <c r="L122" s="210"/>
+      <c r="F122" s="197"/>
+      <c r="G122" s="197"/>
+      <c r="H122" s="197"/>
+      <c r="I122" s="197"/>
+      <c r="J122" s="197"/>
+      <c r="K122" s="197"/>
+      <c r="L122" s="197"/>
     </row>
     <row r="123" spans="1:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B123" s="5"/>
       <c r="C123" s="7"/>
       <c r="D123" s="38"/>
-      <c r="E123" s="210"/>
-      <c r="F123" s="210"/>
-      <c r="G123" s="210"/>
-      <c r="H123" s="210"/>
-      <c r="I123" s="210"/>
-      <c r="J123" s="210"/>
-      <c r="K123" s="210"/>
-      <c r="L123" s="210"/>
+      <c r="E123" s="197"/>
+      <c r="F123" s="197"/>
+      <c r="G123" s="197"/>
+      <c r="H123" s="197"/>
+      <c r="I123" s="197"/>
+      <c r="J123" s="197"/>
+      <c r="K123" s="197"/>
+      <c r="L123" s="197"/>
     </row>
     <row r="124" spans="1:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B124" s="3" t="s">
@@ -20768,11 +20768,11 @@
       <c r="L124" s="24"/>
     </row>
     <row r="125" spans="1:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="205" t="s">
+      <c r="B125" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C125" s="205"/>
-      <c r="D125" s="205"/>
+      <c r="C125" s="192"/>
+      <c r="D125" s="192"/>
       <c r="E125" s="76" t="s">
         <v>496</v>
       </c>
@@ -20800,34 +20800,34 @@
       </c>
     </row>
     <row r="127" spans="1:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="223" t="s">
+      <c r="B127" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C127" s="225" t="s">
+      <c r="C127" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D127" s="226"/>
-      <c r="E127" s="227"/>
-      <c r="F127" s="228" t="s">
+      <c r="D127" s="223"/>
+      <c r="E127" s="224"/>
+      <c r="F127" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G127" s="228" t="s">
+      <c r="G127" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H127" s="230" t="s">
+      <c r="H127" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I127" s="232" t="s">
+      <c r="I127" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J127" s="233"/>
-      <c r="K127" s="233"/>
-      <c r="L127" s="223" t="s">
+      <c r="J127" s="230"/>
+      <c r="K127" s="230"/>
+      <c r="L127" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="224"/>
+      <c r="B128" s="221"/>
       <c r="C128" s="75" t="s">
         <v>12</v>
       </c>
@@ -20837,9 +20837,9 @@
       <c r="E128" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F128" s="229"/>
-      <c r="G128" s="229"/>
-      <c r="H128" s="231"/>
+      <c r="F128" s="226"/>
+      <c r="G128" s="226"/>
+      <c r="H128" s="228"/>
       <c r="I128" s="74" t="s">
         <v>42</v>
       </c>
@@ -20849,17 +20849,17 @@
       <c r="K128" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L128" s="224"/>
+      <c r="L128" s="221"/>
     </row>
     <row r="129" spans="1:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="192" t="s">
+      <c r="B129" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C129" s="193"/>
-      <c r="D129" s="193"/>
-      <c r="E129" s="193"/>
-      <c r="F129" s="193"/>
-      <c r="G129" s="194"/>
+      <c r="C129" s="199"/>
+      <c r="D129" s="199"/>
+      <c r="E129" s="199"/>
+      <c r="F129" s="199"/>
+      <c r="G129" s="200"/>
       <c r="H129" s="51">
         <f>H111</f>
         <v>71036.189999999988</v>
@@ -21158,14 +21158,14 @@
       </c>
     </row>
     <row r="139" spans="1:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="211" t="s">
+      <c r="B139" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C139" s="212"/>
-      <c r="D139" s="212"/>
-      <c r="E139" s="212"/>
-      <c r="F139" s="212"/>
-      <c r="G139" s="213"/>
+      <c r="C139" s="216"/>
+      <c r="D139" s="216"/>
+      <c r="E139" s="216"/>
+      <c r="F139" s="216"/>
+      <c r="G139" s="217"/>
       <c r="H139" s="51">
         <f>SUM(H129:H138)</f>
         <v>79934.59</v>
@@ -21213,34 +21213,34 @@
       <c r="L141" s="89"/>
     </row>
     <row r="142" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="221" t="s">
+      <c r="B142" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C142" s="221"/>
-      <c r="D142" s="221"/>
-      <c r="E142" s="221"/>
-      <c r="F142" s="221"/>
-      <c r="G142" s="221"/>
-      <c r="H142" s="221"/>
-      <c r="I142" s="221"/>
-      <c r="J142" s="221"/>
-      <c r="K142" s="221"/>
-      <c r="L142" s="221"/>
+      <c r="C142" s="218"/>
+      <c r="D142" s="218"/>
+      <c r="E142" s="218"/>
+      <c r="F142" s="218"/>
+      <c r="G142" s="218"/>
+      <c r="H142" s="218"/>
+      <c r="I142" s="218"/>
+      <c r="J142" s="218"/>
+      <c r="K142" s="218"/>
+      <c r="L142" s="218"/>
     </row>
     <row r="143" spans="1:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B143" s="222" t="s">
+      <c r="B143" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C143" s="222"/>
-      <c r="D143" s="222"/>
-      <c r="E143" s="222"/>
-      <c r="F143" s="222"/>
-      <c r="G143" s="222"/>
-      <c r="H143" s="222"/>
-      <c r="I143" s="222"/>
-      <c r="J143" s="222"/>
-      <c r="K143" s="222"/>
-      <c r="L143" s="222"/>
+      <c r="C143" s="219"/>
+      <c r="D143" s="219"/>
+      <c r="E143" s="219"/>
+      <c r="F143" s="219"/>
+      <c r="G143" s="219"/>
+      <c r="H143" s="219"/>
+      <c r="I143" s="219"/>
+      <c r="J143" s="219"/>
+      <c r="K143" s="219"/>
+      <c r="L143" s="219"/>
     </row>
     <row r="144" spans="1:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B144" s="17"/>
@@ -21256,19 +21256,19 @@
       <c r="L144" s="19"/>
     </row>
     <row r="145" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B145" s="208" t="s">
+      <c r="B145" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C145" s="208"/>
-      <c r="D145" s="208"/>
-      <c r="E145" s="208"/>
-      <c r="F145" s="208"/>
-      <c r="G145" s="208"/>
-      <c r="H145" s="208"/>
-      <c r="I145" s="208"/>
-      <c r="J145" s="208"/>
-      <c r="K145" s="208"/>
-      <c r="L145" s="208"/>
+      <c r="C145" s="195"/>
+      <c r="D145" s="195"/>
+      <c r="E145" s="195"/>
+      <c r="F145" s="195"/>
+      <c r="G145" s="195"/>
+      <c r="H145" s="195"/>
+      <c r="I145" s="195"/>
+      <c r="J145" s="195"/>
+      <c r="K145" s="195"/>
+      <c r="L145" s="195"/>
     </row>
     <row r="146" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B146" s="17"/>
@@ -21310,29 +21310,29 @@
       <c r="D148" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E148" s="209" t="s">
+      <c r="E148" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F148" s="210"/>
-      <c r="G148" s="210"/>
-      <c r="H148" s="210"/>
-      <c r="I148" s="210"/>
-      <c r="J148" s="210"/>
-      <c r="K148" s="210"/>
-      <c r="L148" s="210"/>
+      <c r="F148" s="197"/>
+      <c r="G148" s="197"/>
+      <c r="H148" s="197"/>
+      <c r="I148" s="197"/>
+      <c r="J148" s="197"/>
+      <c r="K148" s="197"/>
+      <c r="L148" s="197"/>
     </row>
     <row r="149" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="5"/>
       <c r="C149" s="6"/>
       <c r="D149" s="37"/>
-      <c r="E149" s="210"/>
-      <c r="F149" s="210"/>
-      <c r="G149" s="210"/>
-      <c r="H149" s="210"/>
-      <c r="I149" s="210"/>
-      <c r="J149" s="210"/>
-      <c r="K149" s="210"/>
-      <c r="L149" s="210"/>
+      <c r="E149" s="197"/>
+      <c r="F149" s="197"/>
+      <c r="G149" s="197"/>
+      <c r="H149" s="197"/>
+      <c r="I149" s="197"/>
+      <c r="J149" s="197"/>
+      <c r="K149" s="197"/>
+      <c r="L149" s="197"/>
     </row>
     <row r="150" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="5" t="s">
@@ -21342,29 +21342,29 @@
       <c r="D150" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E150" s="209" t="s">
+      <c r="E150" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F150" s="210"/>
-      <c r="G150" s="210"/>
-      <c r="H150" s="210"/>
-      <c r="I150" s="210"/>
-      <c r="J150" s="210"/>
-      <c r="K150" s="210"/>
-      <c r="L150" s="210"/>
+      <c r="F150" s="197"/>
+      <c r="G150" s="197"/>
+      <c r="H150" s="197"/>
+      <c r="I150" s="197"/>
+      <c r="J150" s="197"/>
+      <c r="K150" s="197"/>
+      <c r="L150" s="197"/>
     </row>
     <row r="151" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B151" s="5"/>
       <c r="C151" s="7"/>
       <c r="D151" s="38"/>
-      <c r="E151" s="210"/>
-      <c r="F151" s="210"/>
-      <c r="G151" s="210"/>
-      <c r="H151" s="210"/>
-      <c r="I151" s="210"/>
-      <c r="J151" s="210"/>
-      <c r="K151" s="210"/>
-      <c r="L151" s="210"/>
+      <c r="E151" s="197"/>
+      <c r="F151" s="197"/>
+      <c r="G151" s="197"/>
+      <c r="H151" s="197"/>
+      <c r="I151" s="197"/>
+      <c r="J151" s="197"/>
+      <c r="K151" s="197"/>
+      <c r="L151" s="197"/>
     </row>
     <row r="152" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B152" s="3" t="s">
@@ -21386,11 +21386,11 @@
       <c r="L152" s="24"/>
     </row>
     <row r="153" spans="2:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="205" t="s">
+      <c r="B153" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C153" s="205"/>
-      <c r="D153" s="205"/>
+      <c r="C153" s="192"/>
+      <c r="D153" s="192"/>
       <c r="E153" s="76" t="s">
         <v>496</v>
       </c>
@@ -21418,34 +21418,34 @@
       </c>
     </row>
     <row r="155" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B155" s="223" t="s">
+      <c r="B155" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C155" s="225" t="s">
+      <c r="C155" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D155" s="226"/>
-      <c r="E155" s="227"/>
-      <c r="F155" s="228" t="s">
+      <c r="D155" s="223"/>
+      <c r="E155" s="224"/>
+      <c r="F155" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G155" s="228" t="s">
+      <c r="G155" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H155" s="230" t="s">
+      <c r="H155" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I155" s="232" t="s">
+      <c r="I155" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J155" s="233"/>
-      <c r="K155" s="233"/>
-      <c r="L155" s="223" t="s">
+      <c r="J155" s="230"/>
+      <c r="K155" s="230"/>
+      <c r="L155" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="156" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B156" s="224"/>
+      <c r="B156" s="221"/>
       <c r="C156" s="75" t="s">
         <v>12</v>
       </c>
@@ -21455,9 +21455,9 @@
       <c r="E156" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F156" s="229"/>
-      <c r="G156" s="229"/>
-      <c r="H156" s="231"/>
+      <c r="F156" s="226"/>
+      <c r="G156" s="226"/>
+      <c r="H156" s="228"/>
       <c r="I156" s="74" t="s">
         <v>42</v>
       </c>
@@ -21467,17 +21467,17 @@
       <c r="K156" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L156" s="224"/>
+      <c r="L156" s="221"/>
     </row>
     <row r="157" spans="2:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B157" s="192" t="s">
+      <c r="B157" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C157" s="193"/>
-      <c r="D157" s="193"/>
-      <c r="E157" s="193"/>
-      <c r="F157" s="193"/>
-      <c r="G157" s="194"/>
+      <c r="C157" s="199"/>
+      <c r="D157" s="199"/>
+      <c r="E157" s="199"/>
+      <c r="F157" s="199"/>
+      <c r="G157" s="200"/>
       <c r="H157" s="51">
         <f>H139</f>
         <v>79934.59</v>
@@ -21807,14 +21807,14 @@
       </c>
     </row>
     <row r="168" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B168" s="211" t="s">
+      <c r="B168" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C168" s="212"/>
-      <c r="D168" s="212"/>
-      <c r="E168" s="212"/>
-      <c r="F168" s="212"/>
-      <c r="G168" s="213"/>
+      <c r="C168" s="216"/>
+      <c r="D168" s="216"/>
+      <c r="E168" s="216"/>
+      <c r="F168" s="216"/>
+      <c r="G168" s="217"/>
       <c r="H168" s="51">
         <f>SUM(H157:H167)</f>
         <v>84181.319999999992</v>
@@ -21860,34 +21860,34 @@
       <c r="L170" s="89"/>
     </row>
     <row r="171" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="221" t="s">
+      <c r="B171" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C171" s="221"/>
-      <c r="D171" s="221"/>
-      <c r="E171" s="221"/>
-      <c r="F171" s="221"/>
-      <c r="G171" s="221"/>
-      <c r="H171" s="221"/>
-      <c r="I171" s="221"/>
-      <c r="J171" s="221"/>
-      <c r="K171" s="221"/>
-      <c r="L171" s="221"/>
+      <c r="C171" s="218"/>
+      <c r="D171" s="218"/>
+      <c r="E171" s="218"/>
+      <c r="F171" s="218"/>
+      <c r="G171" s="218"/>
+      <c r="H171" s="218"/>
+      <c r="I171" s="218"/>
+      <c r="J171" s="218"/>
+      <c r="K171" s="218"/>
+      <c r="L171" s="218"/>
     </row>
     <row r="172" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B172" s="222" t="s">
+      <c r="B172" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C172" s="222"/>
-      <c r="D172" s="222"/>
-      <c r="E172" s="222"/>
-      <c r="F172" s="222"/>
-      <c r="G172" s="222"/>
-      <c r="H172" s="222"/>
-      <c r="I172" s="222"/>
-      <c r="J172" s="222"/>
-      <c r="K172" s="222"/>
-      <c r="L172" s="222"/>
+      <c r="C172" s="219"/>
+      <c r="D172" s="219"/>
+      <c r="E172" s="219"/>
+      <c r="F172" s="219"/>
+      <c r="G172" s="219"/>
+      <c r="H172" s="219"/>
+      <c r="I172" s="219"/>
+      <c r="J172" s="219"/>
+      <c r="K172" s="219"/>
+      <c r="L172" s="219"/>
     </row>
     <row r="173" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B173" s="17"/>
@@ -21903,19 +21903,19 @@
       <c r="L173" s="19"/>
     </row>
     <row r="174" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B174" s="208" t="s">
+      <c r="B174" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C174" s="208"/>
-      <c r="D174" s="208"/>
-      <c r="E174" s="208"/>
-      <c r="F174" s="208"/>
-      <c r="G174" s="208"/>
-      <c r="H174" s="208"/>
-      <c r="I174" s="208"/>
-      <c r="J174" s="208"/>
-      <c r="K174" s="208"/>
-      <c r="L174" s="208"/>
+      <c r="C174" s="195"/>
+      <c r="D174" s="195"/>
+      <c r="E174" s="195"/>
+      <c r="F174" s="195"/>
+      <c r="G174" s="195"/>
+      <c r="H174" s="195"/>
+      <c r="I174" s="195"/>
+      <c r="J174" s="195"/>
+      <c r="K174" s="195"/>
+      <c r="L174" s="195"/>
     </row>
     <row r="175" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B175" s="17"/>
@@ -21957,29 +21957,29 @@
       <c r="D177" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E177" s="209" t="s">
+      <c r="E177" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F177" s="210"/>
-      <c r="G177" s="210"/>
-      <c r="H177" s="210"/>
-      <c r="I177" s="210"/>
-      <c r="J177" s="210"/>
-      <c r="K177" s="210"/>
-      <c r="L177" s="210"/>
+      <c r="F177" s="197"/>
+      <c r="G177" s="197"/>
+      <c r="H177" s="197"/>
+      <c r="I177" s="197"/>
+      <c r="J177" s="197"/>
+      <c r="K177" s="197"/>
+      <c r="L177" s="197"/>
     </row>
     <row r="178" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="5"/>
       <c r="C178" s="6"/>
       <c r="D178" s="37"/>
-      <c r="E178" s="210"/>
-      <c r="F178" s="210"/>
-      <c r="G178" s="210"/>
-      <c r="H178" s="210"/>
-      <c r="I178" s="210"/>
-      <c r="J178" s="210"/>
-      <c r="K178" s="210"/>
-      <c r="L178" s="210"/>
+      <c r="E178" s="197"/>
+      <c r="F178" s="197"/>
+      <c r="G178" s="197"/>
+      <c r="H178" s="197"/>
+      <c r="I178" s="197"/>
+      <c r="J178" s="197"/>
+      <c r="K178" s="197"/>
+      <c r="L178" s="197"/>
     </row>
     <row r="179" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="5" t="s">
@@ -21989,29 +21989,29 @@
       <c r="D179" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E179" s="209" t="s">
+      <c r="E179" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F179" s="210"/>
-      <c r="G179" s="210"/>
-      <c r="H179" s="210"/>
-      <c r="I179" s="210"/>
-      <c r="J179" s="210"/>
-      <c r="K179" s="210"/>
-      <c r="L179" s="210"/>
+      <c r="F179" s="197"/>
+      <c r="G179" s="197"/>
+      <c r="H179" s="197"/>
+      <c r="I179" s="197"/>
+      <c r="J179" s="197"/>
+      <c r="K179" s="197"/>
+      <c r="L179" s="197"/>
     </row>
     <row r="180" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B180" s="5"/>
       <c r="C180" s="7"/>
       <c r="D180" s="38"/>
-      <c r="E180" s="210"/>
-      <c r="F180" s="210"/>
-      <c r="G180" s="210"/>
-      <c r="H180" s="210"/>
-      <c r="I180" s="210"/>
-      <c r="J180" s="210"/>
-      <c r="K180" s="210"/>
-      <c r="L180" s="210"/>
+      <c r="E180" s="197"/>
+      <c r="F180" s="197"/>
+      <c r="G180" s="197"/>
+      <c r="H180" s="197"/>
+      <c r="I180" s="197"/>
+      <c r="J180" s="197"/>
+      <c r="K180" s="197"/>
+      <c r="L180" s="197"/>
     </row>
     <row r="181" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B181" s="3" t="s">
@@ -22033,11 +22033,11 @@
       <c r="L181" s="24"/>
     </row>
     <row r="182" spans="2:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="205" t="s">
+      <c r="B182" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C182" s="205"/>
-      <c r="D182" s="205"/>
+      <c r="C182" s="192"/>
+      <c r="D182" s="192"/>
       <c r="E182" s="76" t="s">
         <v>496</v>
       </c>
@@ -22065,34 +22065,34 @@
       </c>
     </row>
     <row r="184" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B184" s="223" t="s">
+      <c r="B184" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C184" s="225" t="s">
+      <c r="C184" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D184" s="226"/>
-      <c r="E184" s="227"/>
-      <c r="F184" s="228" t="s">
+      <c r="D184" s="223"/>
+      <c r="E184" s="224"/>
+      <c r="F184" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G184" s="228" t="s">
+      <c r="G184" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H184" s="230" t="s">
+      <c r="H184" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I184" s="232" t="s">
+      <c r="I184" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J184" s="233"/>
-      <c r="K184" s="233"/>
-      <c r="L184" s="223" t="s">
+      <c r="J184" s="230"/>
+      <c r="K184" s="230"/>
+      <c r="L184" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="185" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B185" s="224"/>
+      <c r="B185" s="221"/>
       <c r="C185" s="75" t="s">
         <v>12</v>
       </c>
@@ -22102,9 +22102,9 @@
       <c r="E185" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F185" s="229"/>
-      <c r="G185" s="229"/>
-      <c r="H185" s="231"/>
+      <c r="F185" s="226"/>
+      <c r="G185" s="226"/>
+      <c r="H185" s="228"/>
       <c r="I185" s="74" t="s">
         <v>42</v>
       </c>
@@ -22114,17 +22114,17 @@
       <c r="K185" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L185" s="224"/>
+      <c r="L185" s="221"/>
     </row>
     <row r="186" spans="2:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B186" s="192" t="s">
+      <c r="B186" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C186" s="193"/>
-      <c r="D186" s="193"/>
-      <c r="E186" s="193"/>
-      <c r="F186" s="193"/>
-      <c r="G186" s="194"/>
+      <c r="C186" s="199"/>
+      <c r="D186" s="199"/>
+      <c r="E186" s="199"/>
+      <c r="F186" s="199"/>
+      <c r="G186" s="200"/>
       <c r="H186" s="51">
         <f>H168</f>
         <v>84181.319999999992</v>
@@ -22454,14 +22454,14 @@
       </c>
     </row>
     <row r="197" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B197" s="211" t="s">
+      <c r="B197" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C197" s="212"/>
-      <c r="D197" s="212"/>
-      <c r="E197" s="212"/>
-      <c r="F197" s="212"/>
-      <c r="G197" s="213"/>
+      <c r="C197" s="216"/>
+      <c r="D197" s="216"/>
+      <c r="E197" s="216"/>
+      <c r="F197" s="216"/>
+      <c r="G197" s="217"/>
       <c r="H197" s="51">
         <f>SUM(H186:H196)</f>
         <v>89555.319999999992</v>
@@ -22507,34 +22507,34 @@
       <c r="L199" s="89"/>
     </row>
     <row r="200" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="221" t="s">
+      <c r="B200" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C200" s="221"/>
-      <c r="D200" s="221"/>
-      <c r="E200" s="221"/>
-      <c r="F200" s="221"/>
-      <c r="G200" s="221"/>
-      <c r="H200" s="221"/>
-      <c r="I200" s="221"/>
-      <c r="J200" s="221"/>
-      <c r="K200" s="221"/>
-      <c r="L200" s="221"/>
+      <c r="C200" s="218"/>
+      <c r="D200" s="218"/>
+      <c r="E200" s="218"/>
+      <c r="F200" s="218"/>
+      <c r="G200" s="218"/>
+      <c r="H200" s="218"/>
+      <c r="I200" s="218"/>
+      <c r="J200" s="218"/>
+      <c r="K200" s="218"/>
+      <c r="L200" s="218"/>
     </row>
     <row r="201" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B201" s="222" t="s">
+      <c r="B201" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C201" s="222"/>
-      <c r="D201" s="222"/>
-      <c r="E201" s="222"/>
-      <c r="F201" s="222"/>
-      <c r="G201" s="222"/>
-      <c r="H201" s="222"/>
-      <c r="I201" s="222"/>
-      <c r="J201" s="222"/>
-      <c r="K201" s="222"/>
-      <c r="L201" s="222"/>
+      <c r="C201" s="219"/>
+      <c r="D201" s="219"/>
+      <c r="E201" s="219"/>
+      <c r="F201" s="219"/>
+      <c r="G201" s="219"/>
+      <c r="H201" s="219"/>
+      <c r="I201" s="219"/>
+      <c r="J201" s="219"/>
+      <c r="K201" s="219"/>
+      <c r="L201" s="219"/>
     </row>
     <row r="202" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B202" s="17"/>
@@ -22550,19 +22550,19 @@
       <c r="L202" s="19"/>
     </row>
     <row r="203" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B203" s="208" t="s">
+      <c r="B203" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C203" s="208"/>
-      <c r="D203" s="208"/>
-      <c r="E203" s="208"/>
-      <c r="F203" s="208"/>
-      <c r="G203" s="208"/>
-      <c r="H203" s="208"/>
-      <c r="I203" s="208"/>
-      <c r="J203" s="208"/>
-      <c r="K203" s="208"/>
-      <c r="L203" s="208"/>
+      <c r="C203" s="195"/>
+      <c r="D203" s="195"/>
+      <c r="E203" s="195"/>
+      <c r="F203" s="195"/>
+      <c r="G203" s="195"/>
+      <c r="H203" s="195"/>
+      <c r="I203" s="195"/>
+      <c r="J203" s="195"/>
+      <c r="K203" s="195"/>
+      <c r="L203" s="195"/>
     </row>
     <row r="204" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B204" s="17"/>
@@ -22604,29 +22604,29 @@
       <c r="D206" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E206" s="209" t="s">
+      <c r="E206" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F206" s="210"/>
-      <c r="G206" s="210"/>
-      <c r="H206" s="210"/>
-      <c r="I206" s="210"/>
-      <c r="J206" s="210"/>
-      <c r="K206" s="210"/>
-      <c r="L206" s="210"/>
+      <c r="F206" s="197"/>
+      <c r="G206" s="197"/>
+      <c r="H206" s="197"/>
+      <c r="I206" s="197"/>
+      <c r="J206" s="197"/>
+      <c r="K206" s="197"/>
+      <c r="L206" s="197"/>
     </row>
     <row r="207" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="5"/>
       <c r="C207" s="6"/>
       <c r="D207" s="37"/>
-      <c r="E207" s="210"/>
-      <c r="F207" s="210"/>
-      <c r="G207" s="210"/>
-      <c r="H207" s="210"/>
-      <c r="I207" s="210"/>
-      <c r="J207" s="210"/>
-      <c r="K207" s="210"/>
-      <c r="L207" s="210"/>
+      <c r="E207" s="197"/>
+      <c r="F207" s="197"/>
+      <c r="G207" s="197"/>
+      <c r="H207" s="197"/>
+      <c r="I207" s="197"/>
+      <c r="J207" s="197"/>
+      <c r="K207" s="197"/>
+      <c r="L207" s="197"/>
     </row>
     <row r="208" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="5" t="s">
@@ -22636,29 +22636,29 @@
       <c r="D208" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E208" s="209" t="s">
+      <c r="E208" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F208" s="210"/>
-      <c r="G208" s="210"/>
-      <c r="H208" s="210"/>
-      <c r="I208" s="210"/>
-      <c r="J208" s="210"/>
-      <c r="K208" s="210"/>
-      <c r="L208" s="210"/>
+      <c r="F208" s="197"/>
+      <c r="G208" s="197"/>
+      <c r="H208" s="197"/>
+      <c r="I208" s="197"/>
+      <c r="J208" s="197"/>
+      <c r="K208" s="197"/>
+      <c r="L208" s="197"/>
     </row>
     <row r="209" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B209" s="5"/>
       <c r="C209" s="7"/>
       <c r="D209" s="38"/>
-      <c r="E209" s="210"/>
-      <c r="F209" s="210"/>
-      <c r="G209" s="210"/>
-      <c r="H209" s="210"/>
-      <c r="I209" s="210"/>
-      <c r="J209" s="210"/>
-      <c r="K209" s="210"/>
-      <c r="L209" s="210"/>
+      <c r="E209" s="197"/>
+      <c r="F209" s="197"/>
+      <c r="G209" s="197"/>
+      <c r="H209" s="197"/>
+      <c r="I209" s="197"/>
+      <c r="J209" s="197"/>
+      <c r="K209" s="197"/>
+      <c r="L209" s="197"/>
     </row>
     <row r="210" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B210" s="3" t="s">
@@ -22680,11 +22680,11 @@
       <c r="L210" s="24"/>
     </row>
     <row r="211" spans="2:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="205" t="s">
+      <c r="B211" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C211" s="205"/>
-      <c r="D211" s="205"/>
+      <c r="C211" s="192"/>
+      <c r="D211" s="192"/>
       <c r="E211" s="76" t="s">
         <v>496</v>
       </c>
@@ -22712,34 +22712,34 @@
       </c>
     </row>
     <row r="213" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B213" s="223" t="s">
+      <c r="B213" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C213" s="225" t="s">
+      <c r="C213" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D213" s="226"/>
-      <c r="E213" s="227"/>
-      <c r="F213" s="228" t="s">
+      <c r="D213" s="223"/>
+      <c r="E213" s="224"/>
+      <c r="F213" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G213" s="228" t="s">
+      <c r="G213" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H213" s="230" t="s">
+      <c r="H213" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I213" s="232" t="s">
+      <c r="I213" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J213" s="233"/>
-      <c r="K213" s="233"/>
-      <c r="L213" s="223" t="s">
+      <c r="J213" s="230"/>
+      <c r="K213" s="230"/>
+      <c r="L213" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="214" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="224"/>
+      <c r="B214" s="221"/>
       <c r="C214" s="75" t="s">
         <v>12</v>
       </c>
@@ -22749,9 +22749,9 @@
       <c r="E214" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F214" s="229"/>
-      <c r="G214" s="229"/>
-      <c r="H214" s="231"/>
+      <c r="F214" s="226"/>
+      <c r="G214" s="226"/>
+      <c r="H214" s="228"/>
       <c r="I214" s="74" t="s">
         <v>42</v>
       </c>
@@ -22761,17 +22761,17 @@
       <c r="K214" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L214" s="224"/>
+      <c r="L214" s="221"/>
     </row>
     <row r="215" spans="2:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="192" t="s">
+      <c r="B215" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C215" s="193"/>
-      <c r="D215" s="193"/>
-      <c r="E215" s="193"/>
-      <c r="F215" s="193"/>
-      <c r="G215" s="194"/>
+      <c r="C215" s="199"/>
+      <c r="D215" s="199"/>
+      <c r="E215" s="199"/>
+      <c r="F215" s="199"/>
+      <c r="G215" s="200"/>
       <c r="H215" s="51">
         <f>H197</f>
         <v>89555.319999999992</v>
@@ -23132,14 +23132,14 @@
       </c>
     </row>
     <row r="227" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B227" s="211" t="s">
+      <c r="B227" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C227" s="212"/>
-      <c r="D227" s="212"/>
-      <c r="E227" s="212"/>
-      <c r="F227" s="212"/>
-      <c r="G227" s="213"/>
+      <c r="C227" s="216"/>
+      <c r="D227" s="216"/>
+      <c r="E227" s="216"/>
+      <c r="F227" s="216"/>
+      <c r="G227" s="217"/>
       <c r="H227" s="51">
         <f>SUM(H215:H226)</f>
         <v>164847.85999999999</v>
@@ -23185,34 +23185,34 @@
       <c r="L229" s="90"/>
     </row>
     <row r="230" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="221" t="s">
+      <c r="B230" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C230" s="221"/>
-      <c r="D230" s="221"/>
-      <c r="E230" s="221"/>
-      <c r="F230" s="221"/>
-      <c r="G230" s="221"/>
-      <c r="H230" s="221"/>
-      <c r="I230" s="221"/>
-      <c r="J230" s="221"/>
-      <c r="K230" s="221"/>
-      <c r="L230" s="221"/>
+      <c r="C230" s="218"/>
+      <c r="D230" s="218"/>
+      <c r="E230" s="218"/>
+      <c r="F230" s="218"/>
+      <c r="G230" s="218"/>
+      <c r="H230" s="218"/>
+      <c r="I230" s="218"/>
+      <c r="J230" s="218"/>
+      <c r="K230" s="218"/>
+      <c r="L230" s="218"/>
     </row>
     <row r="231" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B231" s="222" t="s">
+      <c r="B231" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C231" s="222"/>
-      <c r="D231" s="222"/>
-      <c r="E231" s="222"/>
-      <c r="F231" s="222"/>
-      <c r="G231" s="222"/>
-      <c r="H231" s="222"/>
-      <c r="I231" s="222"/>
-      <c r="J231" s="222"/>
-      <c r="K231" s="222"/>
-      <c r="L231" s="222"/>
+      <c r="C231" s="219"/>
+      <c r="D231" s="219"/>
+      <c r="E231" s="219"/>
+      <c r="F231" s="219"/>
+      <c r="G231" s="219"/>
+      <c r="H231" s="219"/>
+      <c r="I231" s="219"/>
+      <c r="J231" s="219"/>
+      <c r="K231" s="219"/>
+      <c r="L231" s="219"/>
     </row>
     <row r="232" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B232" s="17"/>
@@ -23228,19 +23228,19 @@
       <c r="L232" s="19"/>
     </row>
     <row r="233" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B233" s="208" t="s">
+      <c r="B233" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C233" s="208"/>
-      <c r="D233" s="208"/>
-      <c r="E233" s="208"/>
-      <c r="F233" s="208"/>
-      <c r="G233" s="208"/>
-      <c r="H233" s="208"/>
-      <c r="I233" s="208"/>
-      <c r="J233" s="208"/>
-      <c r="K233" s="208"/>
-      <c r="L233" s="208"/>
+      <c r="C233" s="195"/>
+      <c r="D233" s="195"/>
+      <c r="E233" s="195"/>
+      <c r="F233" s="195"/>
+      <c r="G233" s="195"/>
+      <c r="H233" s="195"/>
+      <c r="I233" s="195"/>
+      <c r="J233" s="195"/>
+      <c r="K233" s="195"/>
+      <c r="L233" s="195"/>
     </row>
     <row r="234" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B234" s="17"/>
@@ -23282,29 +23282,29 @@
       <c r="D236" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E236" s="209" t="s">
+      <c r="E236" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F236" s="210"/>
-      <c r="G236" s="210"/>
-      <c r="H236" s="210"/>
-      <c r="I236" s="210"/>
-      <c r="J236" s="210"/>
-      <c r="K236" s="210"/>
-      <c r="L236" s="210"/>
+      <c r="F236" s="197"/>
+      <c r="G236" s="197"/>
+      <c r="H236" s="197"/>
+      <c r="I236" s="197"/>
+      <c r="J236" s="197"/>
+      <c r="K236" s="197"/>
+      <c r="L236" s="197"/>
     </row>
     <row r="237" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="5"/>
       <c r="C237" s="6"/>
       <c r="D237" s="37"/>
-      <c r="E237" s="210"/>
-      <c r="F237" s="210"/>
-      <c r="G237" s="210"/>
-      <c r="H237" s="210"/>
-      <c r="I237" s="210"/>
-      <c r="J237" s="210"/>
-      <c r="K237" s="210"/>
-      <c r="L237" s="210"/>
+      <c r="E237" s="197"/>
+      <c r="F237" s="197"/>
+      <c r="G237" s="197"/>
+      <c r="H237" s="197"/>
+      <c r="I237" s="197"/>
+      <c r="J237" s="197"/>
+      <c r="K237" s="197"/>
+      <c r="L237" s="197"/>
     </row>
     <row r="238" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="5" t="s">
@@ -23314,29 +23314,29 @@
       <c r="D238" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E238" s="209" t="s">
+      <c r="E238" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F238" s="210"/>
-      <c r="G238" s="210"/>
-      <c r="H238" s="210"/>
-      <c r="I238" s="210"/>
-      <c r="J238" s="210"/>
-      <c r="K238" s="210"/>
-      <c r="L238" s="210"/>
+      <c r="F238" s="197"/>
+      <c r="G238" s="197"/>
+      <c r="H238" s="197"/>
+      <c r="I238" s="197"/>
+      <c r="J238" s="197"/>
+      <c r="K238" s="197"/>
+      <c r="L238" s="197"/>
     </row>
     <row r="239" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B239" s="5"/>
       <c r="C239" s="7"/>
       <c r="D239" s="38"/>
-      <c r="E239" s="210"/>
-      <c r="F239" s="210"/>
-      <c r="G239" s="210"/>
-      <c r="H239" s="210"/>
-      <c r="I239" s="210"/>
-      <c r="J239" s="210"/>
-      <c r="K239" s="210"/>
-      <c r="L239" s="210"/>
+      <c r="E239" s="197"/>
+      <c r="F239" s="197"/>
+      <c r="G239" s="197"/>
+      <c r="H239" s="197"/>
+      <c r="I239" s="197"/>
+      <c r="J239" s="197"/>
+      <c r="K239" s="197"/>
+      <c r="L239" s="197"/>
     </row>
     <row r="240" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B240" s="3" t="s">
@@ -23358,11 +23358,11 @@
       <c r="L240" s="24"/>
     </row>
     <row r="241" spans="2:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="205" t="s">
+      <c r="B241" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C241" s="205"/>
-      <c r="D241" s="205"/>
+      <c r="C241" s="192"/>
+      <c r="D241" s="192"/>
       <c r="E241" s="76" t="s">
         <v>496</v>
       </c>
@@ -23390,34 +23390,34 @@
       </c>
     </row>
     <row r="243" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="223" t="s">
+      <c r="B243" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C243" s="225" t="s">
+      <c r="C243" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D243" s="226"/>
-      <c r="E243" s="227"/>
-      <c r="F243" s="228" t="s">
+      <c r="D243" s="223"/>
+      <c r="E243" s="224"/>
+      <c r="F243" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G243" s="228" t="s">
+      <c r="G243" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H243" s="230" t="s">
+      <c r="H243" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I243" s="232" t="s">
+      <c r="I243" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J243" s="233"/>
-      <c r="K243" s="233"/>
-      <c r="L243" s="223" t="s">
+      <c r="J243" s="230"/>
+      <c r="K243" s="230"/>
+      <c r="L243" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="244" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B244" s="224"/>
+      <c r="B244" s="221"/>
       <c r="C244" s="75" t="s">
         <v>12</v>
       </c>
@@ -23427,9 +23427,9 @@
       <c r="E244" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F244" s="229"/>
-      <c r="G244" s="229"/>
-      <c r="H244" s="231"/>
+      <c r="F244" s="226"/>
+      <c r="G244" s="226"/>
+      <c r="H244" s="228"/>
       <c r="I244" s="74" t="s">
         <v>42</v>
       </c>
@@ -23439,17 +23439,17 @@
       <c r="K244" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L244" s="224"/>
+      <c r="L244" s="221"/>
     </row>
     <row r="245" spans="2:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B245" s="192" t="s">
+      <c r="B245" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C245" s="193"/>
-      <c r="D245" s="193"/>
-      <c r="E245" s="193"/>
-      <c r="F245" s="193"/>
-      <c r="G245" s="194"/>
+      <c r="C245" s="199"/>
+      <c r="D245" s="199"/>
+      <c r="E245" s="199"/>
+      <c r="F245" s="199"/>
+      <c r="G245" s="200"/>
       <c r="H245" s="51">
         <f>H227</f>
         <v>164847.85999999999</v>
@@ -23779,14 +23779,14 @@
       </c>
     </row>
     <row r="256" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B256" s="211" t="s">
+      <c r="B256" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C256" s="212"/>
-      <c r="D256" s="212"/>
-      <c r="E256" s="212"/>
-      <c r="F256" s="212"/>
-      <c r="G256" s="213"/>
+      <c r="C256" s="216"/>
+      <c r="D256" s="216"/>
+      <c r="E256" s="216"/>
+      <c r="F256" s="216"/>
+      <c r="G256" s="217"/>
       <c r="H256" s="51">
         <f>SUM(H245:H255)</f>
         <v>189461.59</v>
@@ -23845,34 +23845,34 @@
       <c r="L259" s="89"/>
     </row>
     <row r="260" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="221" t="s">
+      <c r="B260" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C260" s="221"/>
-      <c r="D260" s="221"/>
-      <c r="E260" s="221"/>
-      <c r="F260" s="221"/>
-      <c r="G260" s="221"/>
-      <c r="H260" s="221"/>
-      <c r="I260" s="221"/>
-      <c r="J260" s="221"/>
-      <c r="K260" s="221"/>
-      <c r="L260" s="221"/>
+      <c r="C260" s="218"/>
+      <c r="D260" s="218"/>
+      <c r="E260" s="218"/>
+      <c r="F260" s="218"/>
+      <c r="G260" s="218"/>
+      <c r="H260" s="218"/>
+      <c r="I260" s="218"/>
+      <c r="J260" s="218"/>
+      <c r="K260" s="218"/>
+      <c r="L260" s="218"/>
     </row>
     <row r="261" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B261" s="222" t="s">
+      <c r="B261" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C261" s="222"/>
-      <c r="D261" s="222"/>
-      <c r="E261" s="222"/>
-      <c r="F261" s="222"/>
-      <c r="G261" s="222"/>
-      <c r="H261" s="222"/>
-      <c r="I261" s="222"/>
-      <c r="J261" s="222"/>
-      <c r="K261" s="222"/>
-      <c r="L261" s="222"/>
+      <c r="C261" s="219"/>
+      <c r="D261" s="219"/>
+      <c r="E261" s="219"/>
+      <c r="F261" s="219"/>
+      <c r="G261" s="219"/>
+      <c r="H261" s="219"/>
+      <c r="I261" s="219"/>
+      <c r="J261" s="219"/>
+      <c r="K261" s="219"/>
+      <c r="L261" s="219"/>
     </row>
     <row r="262" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B262" s="17"/>
@@ -23888,19 +23888,19 @@
       <c r="L262" s="19"/>
     </row>
     <row r="263" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B263" s="208" t="s">
+      <c r="B263" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C263" s="208"/>
-      <c r="D263" s="208"/>
-      <c r="E263" s="208"/>
-      <c r="F263" s="208"/>
-      <c r="G263" s="208"/>
-      <c r="H263" s="208"/>
-      <c r="I263" s="208"/>
-      <c r="J263" s="208"/>
-      <c r="K263" s="208"/>
-      <c r="L263" s="208"/>
+      <c r="C263" s="195"/>
+      <c r="D263" s="195"/>
+      <c r="E263" s="195"/>
+      <c r="F263" s="195"/>
+      <c r="G263" s="195"/>
+      <c r="H263" s="195"/>
+      <c r="I263" s="195"/>
+      <c r="J263" s="195"/>
+      <c r="K263" s="195"/>
+      <c r="L263" s="195"/>
     </row>
     <row r="264" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B264" s="17"/>
@@ -23942,29 +23942,29 @@
       <c r="D266" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E266" s="209" t="s">
+      <c r="E266" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F266" s="210"/>
-      <c r="G266" s="210"/>
-      <c r="H266" s="210"/>
-      <c r="I266" s="210"/>
-      <c r="J266" s="210"/>
-      <c r="K266" s="210"/>
-      <c r="L266" s="210"/>
+      <c r="F266" s="197"/>
+      <c r="G266" s="197"/>
+      <c r="H266" s="197"/>
+      <c r="I266" s="197"/>
+      <c r="J266" s="197"/>
+      <c r="K266" s="197"/>
+      <c r="L266" s="197"/>
     </row>
     <row r="267" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="5"/>
       <c r="C267" s="6"/>
       <c r="D267" s="37"/>
-      <c r="E267" s="210"/>
-      <c r="F267" s="210"/>
-      <c r="G267" s="210"/>
-      <c r="H267" s="210"/>
-      <c r="I267" s="210"/>
-      <c r="J267" s="210"/>
-      <c r="K267" s="210"/>
-      <c r="L267" s="210"/>
+      <c r="E267" s="197"/>
+      <c r="F267" s="197"/>
+      <c r="G267" s="197"/>
+      <c r="H267" s="197"/>
+      <c r="I267" s="197"/>
+      <c r="J267" s="197"/>
+      <c r="K267" s="197"/>
+      <c r="L267" s="197"/>
     </row>
     <row r="268" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="5" t="s">
@@ -23974,29 +23974,29 @@
       <c r="D268" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E268" s="209" t="s">
+      <c r="E268" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F268" s="210"/>
-      <c r="G268" s="210"/>
-      <c r="H268" s="210"/>
-      <c r="I268" s="210"/>
-      <c r="J268" s="210"/>
-      <c r="K268" s="210"/>
-      <c r="L268" s="210"/>
+      <c r="F268" s="197"/>
+      <c r="G268" s="197"/>
+      <c r="H268" s="197"/>
+      <c r="I268" s="197"/>
+      <c r="J268" s="197"/>
+      <c r="K268" s="197"/>
+      <c r="L268" s="197"/>
     </row>
     <row r="269" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B269" s="5"/>
       <c r="C269" s="7"/>
       <c r="D269" s="38"/>
-      <c r="E269" s="210"/>
-      <c r="F269" s="210"/>
-      <c r="G269" s="210"/>
-      <c r="H269" s="210"/>
-      <c r="I269" s="210"/>
-      <c r="J269" s="210"/>
-      <c r="K269" s="210"/>
-      <c r="L269" s="210"/>
+      <c r="E269" s="197"/>
+      <c r="F269" s="197"/>
+      <c r="G269" s="197"/>
+      <c r="H269" s="197"/>
+      <c r="I269" s="197"/>
+      <c r="J269" s="197"/>
+      <c r="K269" s="197"/>
+      <c r="L269" s="197"/>
     </row>
     <row r="270" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B270" s="3" t="s">
@@ -24018,11 +24018,11 @@
       <c r="L270" s="24"/>
     </row>
     <row r="271" spans="2:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="205" t="s">
+      <c r="B271" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C271" s="205"/>
-      <c r="D271" s="205"/>
+      <c r="C271" s="192"/>
+      <c r="D271" s="192"/>
       <c r="E271" s="76" t="s">
         <v>496</v>
       </c>
@@ -24050,34 +24050,34 @@
       </c>
     </row>
     <row r="273" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B273" s="223" t="s">
+      <c r="B273" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C273" s="225" t="s">
+      <c r="C273" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D273" s="226"/>
-      <c r="E273" s="227"/>
-      <c r="F273" s="228" t="s">
+      <c r="D273" s="223"/>
+      <c r="E273" s="224"/>
+      <c r="F273" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G273" s="228" t="s">
+      <c r="G273" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H273" s="230" t="s">
+      <c r="H273" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I273" s="232" t="s">
+      <c r="I273" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J273" s="233"/>
-      <c r="K273" s="233"/>
-      <c r="L273" s="223" t="s">
+      <c r="J273" s="230"/>
+      <c r="K273" s="230"/>
+      <c r="L273" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="274" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="224"/>
+      <c r="B274" s="221"/>
       <c r="C274" s="75" t="s">
         <v>12</v>
       </c>
@@ -24087,9 +24087,9 @@
       <c r="E274" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F274" s="229"/>
-      <c r="G274" s="229"/>
-      <c r="H274" s="231"/>
+      <c r="F274" s="226"/>
+      <c r="G274" s="226"/>
+      <c r="H274" s="228"/>
       <c r="I274" s="74" t="s">
         <v>42</v>
       </c>
@@ -24099,17 +24099,17 @@
       <c r="K274" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L274" s="224"/>
+      <c r="L274" s="221"/>
     </row>
     <row r="275" spans="2:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B275" s="192" t="s">
+      <c r="B275" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C275" s="193"/>
-      <c r="D275" s="193"/>
-      <c r="E275" s="193"/>
-      <c r="F275" s="193"/>
-      <c r="G275" s="194"/>
+      <c r="C275" s="199"/>
+      <c r="D275" s="199"/>
+      <c r="E275" s="199"/>
+      <c r="F275" s="199"/>
+      <c r="G275" s="200"/>
       <c r="H275" s="51">
         <f>H256</f>
         <v>189461.59</v>
@@ -24377,14 +24377,14 @@
       </c>
     </row>
     <row r="284" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B284" s="211" t="s">
+      <c r="B284" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C284" s="212"/>
-      <c r="D284" s="212"/>
-      <c r="E284" s="212"/>
-      <c r="F284" s="212"/>
-      <c r="G284" s="213"/>
+      <c r="C284" s="216"/>
+      <c r="D284" s="216"/>
+      <c r="E284" s="216"/>
+      <c r="F284" s="216"/>
+      <c r="G284" s="217"/>
       <c r="H284" s="51">
         <f>SUM(H275:H283)</f>
         <v>239060.85</v>
@@ -24443,34 +24443,34 @@
       <c r="L287" s="89"/>
     </row>
     <row r="288" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="221" t="s">
+      <c r="B288" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C288" s="221"/>
-      <c r="D288" s="221"/>
-      <c r="E288" s="221"/>
-      <c r="F288" s="221"/>
-      <c r="G288" s="221"/>
-      <c r="H288" s="221"/>
-      <c r="I288" s="221"/>
-      <c r="J288" s="221"/>
-      <c r="K288" s="221"/>
-      <c r="L288" s="221"/>
+      <c r="C288" s="218"/>
+      <c r="D288" s="218"/>
+      <c r="E288" s="218"/>
+      <c r="F288" s="218"/>
+      <c r="G288" s="218"/>
+      <c r="H288" s="218"/>
+      <c r="I288" s="218"/>
+      <c r="J288" s="218"/>
+      <c r="K288" s="218"/>
+      <c r="L288" s="218"/>
     </row>
     <row r="289" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B289" s="222" t="s">
+      <c r="B289" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C289" s="222"/>
-      <c r="D289" s="222"/>
-      <c r="E289" s="222"/>
-      <c r="F289" s="222"/>
-      <c r="G289" s="222"/>
-      <c r="H289" s="222"/>
-      <c r="I289" s="222"/>
-      <c r="J289" s="222"/>
-      <c r="K289" s="222"/>
-      <c r="L289" s="222"/>
+      <c r="C289" s="219"/>
+      <c r="D289" s="219"/>
+      <c r="E289" s="219"/>
+      <c r="F289" s="219"/>
+      <c r="G289" s="219"/>
+      <c r="H289" s="219"/>
+      <c r="I289" s="219"/>
+      <c r="J289" s="219"/>
+      <c r="K289" s="219"/>
+      <c r="L289" s="219"/>
     </row>
     <row r="290" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B290" s="17"/>
@@ -24486,19 +24486,19 @@
       <c r="L290" s="19"/>
     </row>
     <row r="291" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B291" s="208" t="s">
+      <c r="B291" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C291" s="208"/>
-      <c r="D291" s="208"/>
-      <c r="E291" s="208"/>
-      <c r="F291" s="208"/>
-      <c r="G291" s="208"/>
-      <c r="H291" s="208"/>
-      <c r="I291" s="208"/>
-      <c r="J291" s="208"/>
-      <c r="K291" s="208"/>
-      <c r="L291" s="208"/>
+      <c r="C291" s="195"/>
+      <c r="D291" s="195"/>
+      <c r="E291" s="195"/>
+      <c r="F291" s="195"/>
+      <c r="G291" s="195"/>
+      <c r="H291" s="195"/>
+      <c r="I291" s="195"/>
+      <c r="J291" s="195"/>
+      <c r="K291" s="195"/>
+      <c r="L291" s="195"/>
     </row>
     <row r="292" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B292" s="17"/>
@@ -24540,29 +24540,29 @@
       <c r="D294" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E294" s="209" t="s">
+      <c r="E294" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F294" s="210"/>
-      <c r="G294" s="210"/>
-      <c r="H294" s="210"/>
-      <c r="I294" s="210"/>
-      <c r="J294" s="210"/>
-      <c r="K294" s="210"/>
-      <c r="L294" s="210"/>
+      <c r="F294" s="197"/>
+      <c r="G294" s="197"/>
+      <c r="H294" s="197"/>
+      <c r="I294" s="197"/>
+      <c r="J294" s="197"/>
+      <c r="K294" s="197"/>
+      <c r="L294" s="197"/>
     </row>
     <row r="295" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="5"/>
       <c r="C295" s="6"/>
       <c r="D295" s="37"/>
-      <c r="E295" s="210"/>
-      <c r="F295" s="210"/>
-      <c r="G295" s="210"/>
-      <c r="H295" s="210"/>
-      <c r="I295" s="210"/>
-      <c r="J295" s="210"/>
-      <c r="K295" s="210"/>
-      <c r="L295" s="210"/>
+      <c r="E295" s="197"/>
+      <c r="F295" s="197"/>
+      <c r="G295" s="197"/>
+      <c r="H295" s="197"/>
+      <c r="I295" s="197"/>
+      <c r="J295" s="197"/>
+      <c r="K295" s="197"/>
+      <c r="L295" s="197"/>
     </row>
     <row r="296" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="5" t="s">
@@ -24572,29 +24572,29 @@
       <c r="D296" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E296" s="209" t="s">
+      <c r="E296" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F296" s="210"/>
-      <c r="G296" s="210"/>
-      <c r="H296" s="210"/>
-      <c r="I296" s="210"/>
-      <c r="J296" s="210"/>
-      <c r="K296" s="210"/>
-      <c r="L296" s="210"/>
+      <c r="F296" s="197"/>
+      <c r="G296" s="197"/>
+      <c r="H296" s="197"/>
+      <c r="I296" s="197"/>
+      <c r="J296" s="197"/>
+      <c r="K296" s="197"/>
+      <c r="L296" s="197"/>
     </row>
     <row r="297" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B297" s="5"/>
       <c r="C297" s="7"/>
       <c r="D297" s="38"/>
-      <c r="E297" s="210"/>
-      <c r="F297" s="210"/>
-      <c r="G297" s="210"/>
-      <c r="H297" s="210"/>
-      <c r="I297" s="210"/>
-      <c r="J297" s="210"/>
-      <c r="K297" s="210"/>
-      <c r="L297" s="210"/>
+      <c r="E297" s="197"/>
+      <c r="F297" s="197"/>
+      <c r="G297" s="197"/>
+      <c r="H297" s="197"/>
+      <c r="I297" s="197"/>
+      <c r="J297" s="197"/>
+      <c r="K297" s="197"/>
+      <c r="L297" s="197"/>
     </row>
     <row r="298" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B298" s="3" t="s">
@@ -24616,11 +24616,11 @@
       <c r="L298" s="24"/>
     </row>
     <row r="299" spans="2:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B299" s="205" t="s">
+      <c r="B299" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C299" s="205"/>
-      <c r="D299" s="205"/>
+      <c r="C299" s="192"/>
+      <c r="D299" s="192"/>
       <c r="E299" s="76" t="s">
         <v>496</v>
       </c>
@@ -24648,34 +24648,34 @@
       </c>
     </row>
     <row r="301" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B301" s="223" t="s">
+      <c r="B301" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C301" s="225" t="s">
+      <c r="C301" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D301" s="226"/>
-      <c r="E301" s="227"/>
-      <c r="F301" s="228" t="s">
+      <c r="D301" s="223"/>
+      <c r="E301" s="224"/>
+      <c r="F301" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G301" s="228" t="s">
+      <c r="G301" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H301" s="230" t="s">
+      <c r="H301" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I301" s="232" t="s">
+      <c r="I301" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J301" s="233"/>
-      <c r="K301" s="233"/>
-      <c r="L301" s="223" t="s">
+      <c r="J301" s="230"/>
+      <c r="K301" s="230"/>
+      <c r="L301" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="302" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B302" s="224"/>
+      <c r="B302" s="221"/>
       <c r="C302" s="75" t="s">
         <v>12</v>
       </c>
@@ -24685,9 +24685,9 @@
       <c r="E302" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F302" s="229"/>
-      <c r="G302" s="229"/>
-      <c r="H302" s="231"/>
+      <c r="F302" s="226"/>
+      <c r="G302" s="226"/>
+      <c r="H302" s="228"/>
       <c r="I302" s="74" t="s">
         <v>42</v>
       </c>
@@ -24697,17 +24697,17 @@
       <c r="K302" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L302" s="224"/>
+      <c r="L302" s="221"/>
     </row>
     <row r="303" spans="2:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B303" s="192" t="s">
+      <c r="B303" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C303" s="193"/>
-      <c r="D303" s="193"/>
-      <c r="E303" s="193"/>
-      <c r="F303" s="193"/>
-      <c r="G303" s="194"/>
+      <c r="C303" s="199"/>
+      <c r="D303" s="199"/>
+      <c r="E303" s="199"/>
+      <c r="F303" s="199"/>
+      <c r="G303" s="200"/>
       <c r="H303" s="51">
         <f>H284</f>
         <v>239060.85</v>
@@ -25037,14 +25037,14 @@
       </c>
     </row>
     <row r="314" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B314" s="211" t="s">
+      <c r="B314" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C314" s="212"/>
-      <c r="D314" s="212"/>
-      <c r="E314" s="212"/>
-      <c r="F314" s="212"/>
-      <c r="G314" s="213"/>
+      <c r="C314" s="216"/>
+      <c r="D314" s="216"/>
+      <c r="E314" s="216"/>
+      <c r="F314" s="216"/>
+      <c r="G314" s="217"/>
       <c r="H314" s="51">
         <f>SUM(H303:H313)</f>
         <v>313626.3299999999</v>
@@ -25090,34 +25090,34 @@
       <c r="L316" s="90"/>
     </row>
     <row r="317" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B317" s="221" t="s">
+      <c r="B317" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C317" s="221"/>
-      <c r="D317" s="221"/>
-      <c r="E317" s="221"/>
-      <c r="F317" s="221"/>
-      <c r="G317" s="221"/>
-      <c r="H317" s="221"/>
-      <c r="I317" s="221"/>
-      <c r="J317" s="221"/>
-      <c r="K317" s="221"/>
-      <c r="L317" s="221"/>
+      <c r="C317" s="218"/>
+      <c r="D317" s="218"/>
+      <c r="E317" s="218"/>
+      <c r="F317" s="218"/>
+      <c r="G317" s="218"/>
+      <c r="H317" s="218"/>
+      <c r="I317" s="218"/>
+      <c r="J317" s="218"/>
+      <c r="K317" s="218"/>
+      <c r="L317" s="218"/>
     </row>
     <row r="318" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B318" s="222" t="s">
+      <c r="B318" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C318" s="222"/>
-      <c r="D318" s="222"/>
-      <c r="E318" s="222"/>
-      <c r="F318" s="222"/>
-      <c r="G318" s="222"/>
-      <c r="H318" s="222"/>
-      <c r="I318" s="222"/>
-      <c r="J318" s="222"/>
-      <c r="K318" s="222"/>
-      <c r="L318" s="222"/>
+      <c r="C318" s="219"/>
+      <c r="D318" s="219"/>
+      <c r="E318" s="219"/>
+      <c r="F318" s="219"/>
+      <c r="G318" s="219"/>
+      <c r="H318" s="219"/>
+      <c r="I318" s="219"/>
+      <c r="J318" s="219"/>
+      <c r="K318" s="219"/>
+      <c r="L318" s="219"/>
     </row>
     <row r="319" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B319" s="17"/>
@@ -25133,19 +25133,19 @@
       <c r="L319" s="19"/>
     </row>
     <row r="320" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B320" s="208" t="s">
+      <c r="B320" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C320" s="208"/>
-      <c r="D320" s="208"/>
-      <c r="E320" s="208"/>
-      <c r="F320" s="208"/>
-      <c r="G320" s="208"/>
-      <c r="H320" s="208"/>
-      <c r="I320" s="208"/>
-      <c r="J320" s="208"/>
-      <c r="K320" s="208"/>
-      <c r="L320" s="208"/>
+      <c r="C320" s="195"/>
+      <c r="D320" s="195"/>
+      <c r="E320" s="195"/>
+      <c r="F320" s="195"/>
+      <c r="G320" s="195"/>
+      <c r="H320" s="195"/>
+      <c r="I320" s="195"/>
+      <c r="J320" s="195"/>
+      <c r="K320" s="195"/>
+      <c r="L320" s="195"/>
     </row>
     <row r="321" spans="1:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B321" s="17"/>
@@ -25187,29 +25187,29 @@
       <c r="D323" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E323" s="209" t="s">
+      <c r="E323" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F323" s="210"/>
-      <c r="G323" s="210"/>
-      <c r="H323" s="210"/>
-      <c r="I323" s="210"/>
-      <c r="J323" s="210"/>
-      <c r="K323" s="210"/>
-      <c r="L323" s="210"/>
+      <c r="F323" s="197"/>
+      <c r="G323" s="197"/>
+      <c r="H323" s="197"/>
+      <c r="I323" s="197"/>
+      <c r="J323" s="197"/>
+      <c r="K323" s="197"/>
+      <c r="L323" s="197"/>
     </row>
     <row r="324" spans="1:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="5"/>
       <c r="C324" s="6"/>
       <c r="D324" s="37"/>
-      <c r="E324" s="210"/>
-      <c r="F324" s="210"/>
-      <c r="G324" s="210"/>
-      <c r="H324" s="210"/>
-      <c r="I324" s="210"/>
-      <c r="J324" s="210"/>
-      <c r="K324" s="210"/>
-      <c r="L324" s="210"/>
+      <c r="E324" s="197"/>
+      <c r="F324" s="197"/>
+      <c r="G324" s="197"/>
+      <c r="H324" s="197"/>
+      <c r="I324" s="197"/>
+      <c r="J324" s="197"/>
+      <c r="K324" s="197"/>
+      <c r="L324" s="197"/>
     </row>
     <row r="325" spans="1:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="5" t="s">
@@ -25219,29 +25219,29 @@
       <c r="D325" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E325" s="209" t="s">
+      <c r="E325" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F325" s="210"/>
-      <c r="G325" s="210"/>
-      <c r="H325" s="210"/>
-      <c r="I325" s="210"/>
-      <c r="J325" s="210"/>
-      <c r="K325" s="210"/>
-      <c r="L325" s="210"/>
+      <c r="F325" s="197"/>
+      <c r="G325" s="197"/>
+      <c r="H325" s="197"/>
+      <c r="I325" s="197"/>
+      <c r="J325" s="197"/>
+      <c r="K325" s="197"/>
+      <c r="L325" s="197"/>
     </row>
     <row r="326" spans="1:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B326" s="5"/>
       <c r="C326" s="7"/>
       <c r="D326" s="38"/>
-      <c r="E326" s="210"/>
-      <c r="F326" s="210"/>
-      <c r="G326" s="210"/>
-      <c r="H326" s="210"/>
-      <c r="I326" s="210"/>
-      <c r="J326" s="210"/>
-      <c r="K326" s="210"/>
-      <c r="L326" s="210"/>
+      <c r="E326" s="197"/>
+      <c r="F326" s="197"/>
+      <c r="G326" s="197"/>
+      <c r="H326" s="197"/>
+      <c r="I326" s="197"/>
+      <c r="J326" s="197"/>
+      <c r="K326" s="197"/>
+      <c r="L326" s="197"/>
     </row>
     <row r="327" spans="1:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B327" s="3" t="s">
@@ -25263,11 +25263,11 @@
       <c r="L327" s="24"/>
     </row>
     <row r="328" spans="1:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B328" s="205" t="s">
+      <c r="B328" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C328" s="205"/>
-      <c r="D328" s="205"/>
+      <c r="C328" s="192"/>
+      <c r="D328" s="192"/>
       <c r="E328" s="76" t="s">
         <v>496</v>
       </c>
@@ -25295,34 +25295,34 @@
       </c>
     </row>
     <row r="330" spans="1:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B330" s="223" t="s">
+      <c r="B330" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C330" s="225" t="s">
+      <c r="C330" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D330" s="226"/>
-      <c r="E330" s="227"/>
-      <c r="F330" s="228" t="s">
+      <c r="D330" s="223"/>
+      <c r="E330" s="224"/>
+      <c r="F330" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G330" s="228" t="s">
+      <c r="G330" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H330" s="230" t="s">
+      <c r="H330" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I330" s="232" t="s">
+      <c r="I330" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J330" s="233"/>
-      <c r="K330" s="233"/>
-      <c r="L330" s="223" t="s">
+      <c r="J330" s="230"/>
+      <c r="K330" s="230"/>
+      <c r="L330" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="331" spans="1:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B331" s="224"/>
+      <c r="B331" s="221"/>
       <c r="C331" s="75" t="s">
         <v>12</v>
       </c>
@@ -25332,9 +25332,9 @@
       <c r="E331" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F331" s="229"/>
-      <c r="G331" s="229"/>
-      <c r="H331" s="231"/>
+      <c r="F331" s="226"/>
+      <c r="G331" s="226"/>
+      <c r="H331" s="228"/>
       <c r="I331" s="74" t="s">
         <v>42</v>
       </c>
@@ -25344,17 +25344,17 @@
       <c r="K331" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L331" s="224"/>
+      <c r="L331" s="221"/>
     </row>
     <row r="332" spans="1:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B332" s="192" t="s">
+      <c r="B332" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C332" s="193"/>
-      <c r="D332" s="193"/>
-      <c r="E332" s="193"/>
-      <c r="F332" s="193"/>
-      <c r="G332" s="194"/>
+      <c r="C332" s="199"/>
+      <c r="D332" s="199"/>
+      <c r="E332" s="199"/>
+      <c r="F332" s="199"/>
+      <c r="G332" s="200"/>
       <c r="H332" s="51">
         <f>H314</f>
         <v>313626.3299999999</v>
@@ -25687,14 +25687,14 @@
       </c>
     </row>
     <row r="343" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B343" s="211" t="s">
+      <c r="B343" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C343" s="212"/>
-      <c r="D343" s="212"/>
-      <c r="E343" s="212"/>
-      <c r="F343" s="212"/>
-      <c r="G343" s="213"/>
+      <c r="C343" s="216"/>
+      <c r="D343" s="216"/>
+      <c r="E343" s="216"/>
+      <c r="F343" s="216"/>
+      <c r="G343" s="217"/>
       <c r="H343" s="51">
         <f>SUM(H332:H342)</f>
         <v>418136.8299999999</v>
@@ -25753,34 +25753,34 @@
       <c r="L346" s="89"/>
     </row>
     <row r="347" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B347" s="221" t="s">
+      <c r="B347" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C347" s="221"/>
-      <c r="D347" s="221"/>
-      <c r="E347" s="221"/>
-      <c r="F347" s="221"/>
-      <c r="G347" s="221"/>
-      <c r="H347" s="221"/>
-      <c r="I347" s="221"/>
-      <c r="J347" s="221"/>
-      <c r="K347" s="221"/>
-      <c r="L347" s="221"/>
+      <c r="C347" s="218"/>
+      <c r="D347" s="218"/>
+      <c r="E347" s="218"/>
+      <c r="F347" s="218"/>
+      <c r="G347" s="218"/>
+      <c r="H347" s="218"/>
+      <c r="I347" s="218"/>
+      <c r="J347" s="218"/>
+      <c r="K347" s="218"/>
+      <c r="L347" s="218"/>
     </row>
     <row r="348" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B348" s="222" t="s">
+      <c r="B348" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C348" s="222"/>
-      <c r="D348" s="222"/>
-      <c r="E348" s="222"/>
-      <c r="F348" s="222"/>
-      <c r="G348" s="222"/>
-      <c r="H348" s="222"/>
-      <c r="I348" s="222"/>
-      <c r="J348" s="222"/>
-      <c r="K348" s="222"/>
-      <c r="L348" s="222"/>
+      <c r="C348" s="219"/>
+      <c r="D348" s="219"/>
+      <c r="E348" s="219"/>
+      <c r="F348" s="219"/>
+      <c r="G348" s="219"/>
+      <c r="H348" s="219"/>
+      <c r="I348" s="219"/>
+      <c r="J348" s="219"/>
+      <c r="K348" s="219"/>
+      <c r="L348" s="219"/>
     </row>
     <row r="349" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B349" s="17"/>
@@ -25796,19 +25796,19 @@
       <c r="L349" s="19"/>
     </row>
     <row r="350" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B350" s="208" t="s">
+      <c r="B350" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C350" s="208"/>
-      <c r="D350" s="208"/>
-      <c r="E350" s="208"/>
-      <c r="F350" s="208"/>
-      <c r="G350" s="208"/>
-      <c r="H350" s="208"/>
-      <c r="I350" s="208"/>
-      <c r="J350" s="208"/>
-      <c r="K350" s="208"/>
-      <c r="L350" s="208"/>
+      <c r="C350" s="195"/>
+      <c r="D350" s="195"/>
+      <c r="E350" s="195"/>
+      <c r="F350" s="195"/>
+      <c r="G350" s="195"/>
+      <c r="H350" s="195"/>
+      <c r="I350" s="195"/>
+      <c r="J350" s="195"/>
+      <c r="K350" s="195"/>
+      <c r="L350" s="195"/>
     </row>
     <row r="351" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B351" s="17"/>
@@ -25850,29 +25850,29 @@
       <c r="D353" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E353" s="209" t="s">
+      <c r="E353" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F353" s="210"/>
-      <c r="G353" s="210"/>
-      <c r="H353" s="210"/>
-      <c r="I353" s="210"/>
-      <c r="J353" s="210"/>
-      <c r="K353" s="210"/>
-      <c r="L353" s="210"/>
+      <c r="F353" s="197"/>
+      <c r="G353" s="197"/>
+      <c r="H353" s="197"/>
+      <c r="I353" s="197"/>
+      <c r="J353" s="197"/>
+      <c r="K353" s="197"/>
+      <c r="L353" s="197"/>
     </row>
     <row r="354" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B354" s="5"/>
       <c r="C354" s="6"/>
       <c r="D354" s="37"/>
-      <c r="E354" s="210"/>
-      <c r="F354" s="210"/>
-      <c r="G354" s="210"/>
-      <c r="H354" s="210"/>
-      <c r="I354" s="210"/>
-      <c r="J354" s="210"/>
-      <c r="K354" s="210"/>
-      <c r="L354" s="210"/>
+      <c r="E354" s="197"/>
+      <c r="F354" s="197"/>
+      <c r="G354" s="197"/>
+      <c r="H354" s="197"/>
+      <c r="I354" s="197"/>
+      <c r="J354" s="197"/>
+      <c r="K354" s="197"/>
+      <c r="L354" s="197"/>
     </row>
     <row r="355" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B355" s="5" t="s">
@@ -25882,29 +25882,29 @@
       <c r="D355" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E355" s="209" t="s">
+      <c r="E355" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F355" s="210"/>
-      <c r="G355" s="210"/>
-      <c r="H355" s="210"/>
-      <c r="I355" s="210"/>
-      <c r="J355" s="210"/>
-      <c r="K355" s="210"/>
-      <c r="L355" s="210"/>
+      <c r="F355" s="197"/>
+      <c r="G355" s="197"/>
+      <c r="H355" s="197"/>
+      <c r="I355" s="197"/>
+      <c r="J355" s="197"/>
+      <c r="K355" s="197"/>
+      <c r="L355" s="197"/>
     </row>
     <row r="356" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B356" s="5"/>
       <c r="C356" s="7"/>
       <c r="D356" s="38"/>
-      <c r="E356" s="210"/>
-      <c r="F356" s="210"/>
-      <c r="G356" s="210"/>
-      <c r="H356" s="210"/>
-      <c r="I356" s="210"/>
-      <c r="J356" s="210"/>
-      <c r="K356" s="210"/>
-      <c r="L356" s="210"/>
+      <c r="E356" s="197"/>
+      <c r="F356" s="197"/>
+      <c r="G356" s="197"/>
+      <c r="H356" s="197"/>
+      <c r="I356" s="197"/>
+      <c r="J356" s="197"/>
+      <c r="K356" s="197"/>
+      <c r="L356" s="197"/>
     </row>
     <row r="357" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B357" s="3" t="s">
@@ -25926,11 +25926,11 @@
       <c r="L357" s="24"/>
     </row>
     <row r="358" spans="2:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B358" s="205" t="s">
+      <c r="B358" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C358" s="205"/>
-      <c r="D358" s="205"/>
+      <c r="C358" s="192"/>
+      <c r="D358" s="192"/>
       <c r="E358" s="76" t="s">
         <v>496</v>
       </c>
@@ -25958,34 +25958,34 @@
       </c>
     </row>
     <row r="360" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B360" s="223" t="s">
+      <c r="B360" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C360" s="225" t="s">
+      <c r="C360" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D360" s="226"/>
-      <c r="E360" s="227"/>
-      <c r="F360" s="228" t="s">
+      <c r="D360" s="223"/>
+      <c r="E360" s="224"/>
+      <c r="F360" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G360" s="228" t="s">
+      <c r="G360" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H360" s="230" t="s">
+      <c r="H360" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I360" s="232" t="s">
+      <c r="I360" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J360" s="233"/>
-      <c r="K360" s="233"/>
-      <c r="L360" s="223" t="s">
+      <c r="J360" s="230"/>
+      <c r="K360" s="230"/>
+      <c r="L360" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="361" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B361" s="224"/>
+      <c r="B361" s="221"/>
       <c r="C361" s="75" t="s">
         <v>12</v>
       </c>
@@ -25995,9 +25995,9 @@
       <c r="E361" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F361" s="229"/>
-      <c r="G361" s="229"/>
-      <c r="H361" s="231"/>
+      <c r="F361" s="226"/>
+      <c r="G361" s="226"/>
+      <c r="H361" s="228"/>
       <c r="I361" s="74" t="s">
         <v>42</v>
       </c>
@@ -26007,17 +26007,17 @@
       <c r="K361" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L361" s="224"/>
+      <c r="L361" s="221"/>
     </row>
     <row r="362" spans="2:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B362" s="192" t="s">
+      <c r="B362" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C362" s="193"/>
-      <c r="D362" s="193"/>
-      <c r="E362" s="193"/>
-      <c r="F362" s="193"/>
-      <c r="G362" s="194"/>
+      <c r="C362" s="199"/>
+      <c r="D362" s="199"/>
+      <c r="E362" s="199"/>
+      <c r="F362" s="199"/>
+      <c r="G362" s="200"/>
       <c r="H362" s="51">
         <f>H343</f>
         <v>418136.8299999999</v>
@@ -26316,14 +26316,14 @@
       </c>
     </row>
     <row r="372" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B372" s="211" t="s">
+      <c r="B372" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C372" s="212"/>
-      <c r="D372" s="212"/>
-      <c r="E372" s="212"/>
-      <c r="F372" s="212"/>
-      <c r="G372" s="213"/>
+      <c r="C372" s="216"/>
+      <c r="D372" s="216"/>
+      <c r="E372" s="216"/>
+      <c r="F372" s="216"/>
+      <c r="G372" s="217"/>
       <c r="H372" s="51">
         <f>SUM(H362:H371)</f>
         <v>421870.3299999999</v>
@@ -26382,34 +26382,34 @@
       <c r="L375" s="89"/>
     </row>
     <row r="376" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B376" s="221" t="s">
+      <c r="B376" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C376" s="221"/>
-      <c r="D376" s="221"/>
-      <c r="E376" s="221"/>
-      <c r="F376" s="221"/>
-      <c r="G376" s="221"/>
-      <c r="H376" s="221"/>
-      <c r="I376" s="221"/>
-      <c r="J376" s="221"/>
-      <c r="K376" s="221"/>
-      <c r="L376" s="221"/>
+      <c r="C376" s="218"/>
+      <c r="D376" s="218"/>
+      <c r="E376" s="218"/>
+      <c r="F376" s="218"/>
+      <c r="G376" s="218"/>
+      <c r="H376" s="218"/>
+      <c r="I376" s="218"/>
+      <c r="J376" s="218"/>
+      <c r="K376" s="218"/>
+      <c r="L376" s="218"/>
     </row>
     <row r="377" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B377" s="222" t="s">
+      <c r="B377" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C377" s="222"/>
-      <c r="D377" s="222"/>
-      <c r="E377" s="222"/>
-      <c r="F377" s="222"/>
-      <c r="G377" s="222"/>
-      <c r="H377" s="222"/>
-      <c r="I377" s="222"/>
-      <c r="J377" s="222"/>
-      <c r="K377" s="222"/>
-      <c r="L377" s="222"/>
+      <c r="C377" s="219"/>
+      <c r="D377" s="219"/>
+      <c r="E377" s="219"/>
+      <c r="F377" s="219"/>
+      <c r="G377" s="219"/>
+      <c r="H377" s="219"/>
+      <c r="I377" s="219"/>
+      <c r="J377" s="219"/>
+      <c r="K377" s="219"/>
+      <c r="L377" s="219"/>
     </row>
     <row r="378" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B378" s="17"/>
@@ -26425,19 +26425,19 @@
       <c r="L378" s="19"/>
     </row>
     <row r="379" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B379" s="208" t="s">
+      <c r="B379" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C379" s="208"/>
-      <c r="D379" s="208"/>
-      <c r="E379" s="208"/>
-      <c r="F379" s="208"/>
-      <c r="G379" s="208"/>
-      <c r="H379" s="208"/>
-      <c r="I379" s="208"/>
-      <c r="J379" s="208"/>
-      <c r="K379" s="208"/>
-      <c r="L379" s="208"/>
+      <c r="C379" s="195"/>
+      <c r="D379" s="195"/>
+      <c r="E379" s="195"/>
+      <c r="F379" s="195"/>
+      <c r="G379" s="195"/>
+      <c r="H379" s="195"/>
+      <c r="I379" s="195"/>
+      <c r="J379" s="195"/>
+      <c r="K379" s="195"/>
+      <c r="L379" s="195"/>
     </row>
     <row r="380" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B380" s="17"/>
@@ -26479,29 +26479,29 @@
       <c r="D382" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E382" s="209" t="s">
+      <c r="E382" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F382" s="210"/>
-      <c r="G382" s="210"/>
-      <c r="H382" s="210"/>
-      <c r="I382" s="210"/>
-      <c r="J382" s="210"/>
-      <c r="K382" s="210"/>
-      <c r="L382" s="210"/>
+      <c r="F382" s="197"/>
+      <c r="G382" s="197"/>
+      <c r="H382" s="197"/>
+      <c r="I382" s="197"/>
+      <c r="J382" s="197"/>
+      <c r="K382" s="197"/>
+      <c r="L382" s="197"/>
     </row>
     <row r="383" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B383" s="5"/>
       <c r="C383" s="6"/>
       <c r="D383" s="37"/>
-      <c r="E383" s="210"/>
-      <c r="F383" s="210"/>
-      <c r="G383" s="210"/>
-      <c r="H383" s="210"/>
-      <c r="I383" s="210"/>
-      <c r="J383" s="210"/>
-      <c r="K383" s="210"/>
-      <c r="L383" s="210"/>
+      <c r="E383" s="197"/>
+      <c r="F383" s="197"/>
+      <c r="G383" s="197"/>
+      <c r="H383" s="197"/>
+      <c r="I383" s="197"/>
+      <c r="J383" s="197"/>
+      <c r="K383" s="197"/>
+      <c r="L383" s="197"/>
     </row>
     <row r="384" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B384" s="5" t="s">
@@ -26511,29 +26511,29 @@
       <c r="D384" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E384" s="209" t="s">
+      <c r="E384" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F384" s="210"/>
-      <c r="G384" s="210"/>
-      <c r="H384" s="210"/>
-      <c r="I384" s="210"/>
-      <c r="J384" s="210"/>
-      <c r="K384" s="210"/>
-      <c r="L384" s="210"/>
+      <c r="F384" s="197"/>
+      <c r="G384" s="197"/>
+      <c r="H384" s="197"/>
+      <c r="I384" s="197"/>
+      <c r="J384" s="197"/>
+      <c r="K384" s="197"/>
+      <c r="L384" s="197"/>
     </row>
     <row r="385" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B385" s="5"/>
       <c r="C385" s="7"/>
       <c r="D385" s="38"/>
-      <c r="E385" s="210"/>
-      <c r="F385" s="210"/>
-      <c r="G385" s="210"/>
-      <c r="H385" s="210"/>
-      <c r="I385" s="210"/>
-      <c r="J385" s="210"/>
-      <c r="K385" s="210"/>
-      <c r="L385" s="210"/>
+      <c r="E385" s="197"/>
+      <c r="F385" s="197"/>
+      <c r="G385" s="197"/>
+      <c r="H385" s="197"/>
+      <c r="I385" s="197"/>
+      <c r="J385" s="197"/>
+      <c r="K385" s="197"/>
+      <c r="L385" s="197"/>
     </row>
     <row r="386" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B386" s="3" t="s">
@@ -26555,11 +26555,11 @@
       <c r="L386" s="24"/>
     </row>
     <row r="387" spans="2:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B387" s="205" t="s">
+      <c r="B387" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C387" s="205"/>
-      <c r="D387" s="205"/>
+      <c r="C387" s="192"/>
+      <c r="D387" s="192"/>
       <c r="E387" s="76" t="s">
         <v>496</v>
       </c>
@@ -26587,34 +26587,34 @@
       </c>
     </row>
     <row r="389" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B389" s="223" t="s">
+      <c r="B389" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C389" s="225" t="s">
+      <c r="C389" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D389" s="226"/>
-      <c r="E389" s="227"/>
-      <c r="F389" s="228" t="s">
+      <c r="D389" s="223"/>
+      <c r="E389" s="224"/>
+      <c r="F389" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G389" s="228" t="s">
+      <c r="G389" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H389" s="230" t="s">
+      <c r="H389" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I389" s="232" t="s">
+      <c r="I389" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J389" s="233"/>
-      <c r="K389" s="233"/>
-      <c r="L389" s="223" t="s">
+      <c r="J389" s="230"/>
+      <c r="K389" s="230"/>
+      <c r="L389" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="390" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B390" s="224"/>
+      <c r="B390" s="221"/>
       <c r="C390" s="75" t="s">
         <v>12</v>
       </c>
@@ -26624,9 +26624,9 @@
       <c r="E390" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F390" s="229"/>
-      <c r="G390" s="229"/>
-      <c r="H390" s="231"/>
+      <c r="F390" s="226"/>
+      <c r="G390" s="226"/>
+      <c r="H390" s="228"/>
       <c r="I390" s="74" t="s">
         <v>42</v>
       </c>
@@ -26636,17 +26636,17 @@
       <c r="K390" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L390" s="224"/>
+      <c r="L390" s="221"/>
     </row>
     <row r="391" spans="2:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B391" s="192" t="s">
+      <c r="B391" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C391" s="193"/>
-      <c r="D391" s="193"/>
-      <c r="E391" s="193"/>
-      <c r="F391" s="193"/>
-      <c r="G391" s="194"/>
+      <c r="C391" s="199"/>
+      <c r="D391" s="199"/>
+      <c r="E391" s="199"/>
+      <c r="F391" s="199"/>
+      <c r="G391" s="200"/>
       <c r="H391" s="51">
         <f>H372</f>
         <v>421870.3299999999</v>
@@ -26976,14 +26976,14 @@
       </c>
     </row>
     <row r="402" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B402" s="211" t="s">
+      <c r="B402" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C402" s="212"/>
-      <c r="D402" s="212"/>
-      <c r="E402" s="212"/>
-      <c r="F402" s="212"/>
-      <c r="G402" s="213"/>
+      <c r="C402" s="216"/>
+      <c r="D402" s="216"/>
+      <c r="E402" s="216"/>
+      <c r="F402" s="216"/>
+      <c r="G402" s="217"/>
       <c r="H402" s="51">
         <f>SUM(H391:H401)</f>
         <v>422866.3299999999</v>
@@ -27029,34 +27029,34 @@
       <c r="L404" s="89"/>
     </row>
     <row r="405" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B405" s="221" t="s">
+      <c r="B405" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C405" s="221"/>
-      <c r="D405" s="221"/>
-      <c r="E405" s="221"/>
-      <c r="F405" s="221"/>
-      <c r="G405" s="221"/>
-      <c r="H405" s="221"/>
-      <c r="I405" s="221"/>
-      <c r="J405" s="221"/>
-      <c r="K405" s="221"/>
-      <c r="L405" s="221"/>
+      <c r="C405" s="218"/>
+      <c r="D405" s="218"/>
+      <c r="E405" s="218"/>
+      <c r="F405" s="218"/>
+      <c r="G405" s="218"/>
+      <c r="H405" s="218"/>
+      <c r="I405" s="218"/>
+      <c r="J405" s="218"/>
+      <c r="K405" s="218"/>
+      <c r="L405" s="218"/>
     </row>
     <row r="406" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B406" s="222" t="s">
+      <c r="B406" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C406" s="222"/>
-      <c r="D406" s="222"/>
-      <c r="E406" s="222"/>
-      <c r="F406" s="222"/>
-      <c r="G406" s="222"/>
-      <c r="H406" s="222"/>
-      <c r="I406" s="222"/>
-      <c r="J406" s="222"/>
-      <c r="K406" s="222"/>
-      <c r="L406" s="222"/>
+      <c r="C406" s="219"/>
+      <c r="D406" s="219"/>
+      <c r="E406" s="219"/>
+      <c r="F406" s="219"/>
+      <c r="G406" s="219"/>
+      <c r="H406" s="219"/>
+      <c r="I406" s="219"/>
+      <c r="J406" s="219"/>
+      <c r="K406" s="219"/>
+      <c r="L406" s="219"/>
     </row>
     <row r="407" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B407" s="17"/>
@@ -27072,19 +27072,19 @@
       <c r="L407" s="19"/>
     </row>
     <row r="408" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B408" s="208" t="s">
+      <c r="B408" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C408" s="208"/>
-      <c r="D408" s="208"/>
-      <c r="E408" s="208"/>
-      <c r="F408" s="208"/>
-      <c r="G408" s="208"/>
-      <c r="H408" s="208"/>
-      <c r="I408" s="208"/>
-      <c r="J408" s="208"/>
-      <c r="K408" s="208"/>
-      <c r="L408" s="208"/>
+      <c r="C408" s="195"/>
+      <c r="D408" s="195"/>
+      <c r="E408" s="195"/>
+      <c r="F408" s="195"/>
+      <c r="G408" s="195"/>
+      <c r="H408" s="195"/>
+      <c r="I408" s="195"/>
+      <c r="J408" s="195"/>
+      <c r="K408" s="195"/>
+      <c r="L408" s="195"/>
     </row>
     <row r="409" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B409" s="17"/>
@@ -27126,29 +27126,29 @@
       <c r="D411" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E411" s="209" t="s">
+      <c r="E411" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F411" s="210"/>
-      <c r="G411" s="210"/>
-      <c r="H411" s="210"/>
-      <c r="I411" s="210"/>
-      <c r="J411" s="210"/>
-      <c r="K411" s="210"/>
-      <c r="L411" s="210"/>
+      <c r="F411" s="197"/>
+      <c r="G411" s="197"/>
+      <c r="H411" s="197"/>
+      <c r="I411" s="197"/>
+      <c r="J411" s="197"/>
+      <c r="K411" s="197"/>
+      <c r="L411" s="197"/>
     </row>
     <row r="412" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B412" s="5"/>
       <c r="C412" s="6"/>
       <c r="D412" s="37"/>
-      <c r="E412" s="210"/>
-      <c r="F412" s="210"/>
-      <c r="G412" s="210"/>
-      <c r="H412" s="210"/>
-      <c r="I412" s="210"/>
-      <c r="J412" s="210"/>
-      <c r="K412" s="210"/>
-      <c r="L412" s="210"/>
+      <c r="E412" s="197"/>
+      <c r="F412" s="197"/>
+      <c r="G412" s="197"/>
+      <c r="H412" s="197"/>
+      <c r="I412" s="197"/>
+      <c r="J412" s="197"/>
+      <c r="K412" s="197"/>
+      <c r="L412" s="197"/>
     </row>
     <row r="413" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B413" s="5" t="s">
@@ -27158,29 +27158,29 @@
       <c r="D413" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E413" s="209" t="s">
+      <c r="E413" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F413" s="210"/>
-      <c r="G413" s="210"/>
-      <c r="H413" s="210"/>
-      <c r="I413" s="210"/>
-      <c r="J413" s="210"/>
-      <c r="K413" s="210"/>
-      <c r="L413" s="210"/>
+      <c r="F413" s="197"/>
+      <c r="G413" s="197"/>
+      <c r="H413" s="197"/>
+      <c r="I413" s="197"/>
+      <c r="J413" s="197"/>
+      <c r="K413" s="197"/>
+      <c r="L413" s="197"/>
     </row>
     <row r="414" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B414" s="5"/>
       <c r="C414" s="7"/>
       <c r="D414" s="38"/>
-      <c r="E414" s="210"/>
-      <c r="F414" s="210"/>
-      <c r="G414" s="210"/>
-      <c r="H414" s="210"/>
-      <c r="I414" s="210"/>
-      <c r="J414" s="210"/>
-      <c r="K414" s="210"/>
-      <c r="L414" s="210"/>
+      <c r="E414" s="197"/>
+      <c r="F414" s="197"/>
+      <c r="G414" s="197"/>
+      <c r="H414" s="197"/>
+      <c r="I414" s="197"/>
+      <c r="J414" s="197"/>
+      <c r="K414" s="197"/>
+      <c r="L414" s="197"/>
     </row>
     <row r="415" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B415" s="3" t="s">
@@ -27202,11 +27202,11 @@
       <c r="L415" s="24"/>
     </row>
     <row r="416" spans="2:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B416" s="205" t="s">
+      <c r="B416" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C416" s="205"/>
-      <c r="D416" s="205"/>
+      <c r="C416" s="192"/>
+      <c r="D416" s="192"/>
       <c r="E416" s="76" t="s">
         <v>496</v>
       </c>
@@ -27234,34 +27234,34 @@
       </c>
     </row>
     <row r="418" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B418" s="223" t="s">
+      <c r="B418" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C418" s="225" t="s">
+      <c r="C418" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D418" s="226"/>
-      <c r="E418" s="227"/>
-      <c r="F418" s="228" t="s">
+      <c r="D418" s="223"/>
+      <c r="E418" s="224"/>
+      <c r="F418" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G418" s="228" t="s">
+      <c r="G418" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H418" s="230" t="s">
+      <c r="H418" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I418" s="232" t="s">
+      <c r="I418" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J418" s="233"/>
-      <c r="K418" s="233"/>
-      <c r="L418" s="223" t="s">
+      <c r="J418" s="230"/>
+      <c r="K418" s="230"/>
+      <c r="L418" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="419" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B419" s="224"/>
+      <c r="B419" s="221"/>
       <c r="C419" s="75" t="s">
         <v>12</v>
       </c>
@@ -27271,9 +27271,9 @@
       <c r="E419" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F419" s="229"/>
-      <c r="G419" s="229"/>
-      <c r="H419" s="231"/>
+      <c r="F419" s="226"/>
+      <c r="G419" s="226"/>
+      <c r="H419" s="228"/>
       <c r="I419" s="74" t="s">
         <v>42</v>
       </c>
@@ -27283,17 +27283,17 @@
       <c r="K419" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L419" s="224"/>
+      <c r="L419" s="221"/>
     </row>
     <row r="420" spans="2:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B420" s="192" t="s">
+      <c r="B420" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C420" s="193"/>
-      <c r="D420" s="193"/>
-      <c r="E420" s="193"/>
-      <c r="F420" s="193"/>
-      <c r="G420" s="194"/>
+      <c r="C420" s="199"/>
+      <c r="D420" s="199"/>
+      <c r="E420" s="199"/>
+      <c r="F420" s="199"/>
+      <c r="G420" s="200"/>
       <c r="H420" s="51">
         <f>H402</f>
         <v>422866.3299999999</v>
@@ -27623,14 +27623,14 @@
       </c>
     </row>
     <row r="431" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B431" s="211" t="s">
+      <c r="B431" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C431" s="212"/>
-      <c r="D431" s="212"/>
-      <c r="E431" s="212"/>
-      <c r="F431" s="212"/>
-      <c r="G431" s="213"/>
+      <c r="C431" s="216"/>
+      <c r="D431" s="216"/>
+      <c r="E431" s="216"/>
+      <c r="F431" s="216"/>
+      <c r="G431" s="217"/>
       <c r="H431" s="51">
         <f>SUM(H420:H430)</f>
         <v>435343.68999999983</v>
@@ -27676,34 +27676,34 @@
       <c r="L433" s="90"/>
     </row>
     <row r="434" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B434" s="221" t="s">
+      <c r="B434" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C434" s="221"/>
-      <c r="D434" s="221"/>
-      <c r="E434" s="221"/>
-      <c r="F434" s="221"/>
-      <c r="G434" s="221"/>
-      <c r="H434" s="221"/>
-      <c r="I434" s="221"/>
-      <c r="J434" s="221"/>
-      <c r="K434" s="221"/>
-      <c r="L434" s="221"/>
+      <c r="C434" s="218"/>
+      <c r="D434" s="218"/>
+      <c r="E434" s="218"/>
+      <c r="F434" s="218"/>
+      <c r="G434" s="218"/>
+      <c r="H434" s="218"/>
+      <c r="I434" s="218"/>
+      <c r="J434" s="218"/>
+      <c r="K434" s="218"/>
+      <c r="L434" s="218"/>
     </row>
     <row r="435" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B435" s="222" t="s">
+      <c r="B435" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C435" s="222"/>
-      <c r="D435" s="222"/>
-      <c r="E435" s="222"/>
-      <c r="F435" s="222"/>
-      <c r="G435" s="222"/>
-      <c r="H435" s="222"/>
-      <c r="I435" s="222"/>
-      <c r="J435" s="222"/>
-      <c r="K435" s="222"/>
-      <c r="L435" s="222"/>
+      <c r="C435" s="219"/>
+      <c r="D435" s="219"/>
+      <c r="E435" s="219"/>
+      <c r="F435" s="219"/>
+      <c r="G435" s="219"/>
+      <c r="H435" s="219"/>
+      <c r="I435" s="219"/>
+      <c r="J435" s="219"/>
+      <c r="K435" s="219"/>
+      <c r="L435" s="219"/>
     </row>
     <row r="436" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B436" s="17"/>
@@ -27719,19 +27719,19 @@
       <c r="L436" s="19"/>
     </row>
     <row r="437" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B437" s="208" t="s">
+      <c r="B437" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C437" s="208"/>
-      <c r="D437" s="208"/>
-      <c r="E437" s="208"/>
-      <c r="F437" s="208"/>
-      <c r="G437" s="208"/>
-      <c r="H437" s="208"/>
-      <c r="I437" s="208"/>
-      <c r="J437" s="208"/>
-      <c r="K437" s="208"/>
-      <c r="L437" s="208"/>
+      <c r="C437" s="195"/>
+      <c r="D437" s="195"/>
+      <c r="E437" s="195"/>
+      <c r="F437" s="195"/>
+      <c r="G437" s="195"/>
+      <c r="H437" s="195"/>
+      <c r="I437" s="195"/>
+      <c r="J437" s="195"/>
+      <c r="K437" s="195"/>
+      <c r="L437" s="195"/>
     </row>
     <row r="438" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B438" s="17"/>
@@ -27773,29 +27773,29 @@
       <c r="D440" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E440" s="209" t="s">
+      <c r="E440" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F440" s="210"/>
-      <c r="G440" s="210"/>
-      <c r="H440" s="210"/>
-      <c r="I440" s="210"/>
-      <c r="J440" s="210"/>
-      <c r="K440" s="210"/>
-      <c r="L440" s="210"/>
+      <c r="F440" s="197"/>
+      <c r="G440" s="197"/>
+      <c r="H440" s="197"/>
+      <c r="I440" s="197"/>
+      <c r="J440" s="197"/>
+      <c r="K440" s="197"/>
+      <c r="L440" s="197"/>
     </row>
     <row r="441" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B441" s="5"/>
       <c r="C441" s="6"/>
       <c r="D441" s="37"/>
-      <c r="E441" s="210"/>
-      <c r="F441" s="210"/>
-      <c r="G441" s="210"/>
-      <c r="H441" s="210"/>
-      <c r="I441" s="210"/>
-      <c r="J441" s="210"/>
-      <c r="K441" s="210"/>
-      <c r="L441" s="210"/>
+      <c r="E441" s="197"/>
+      <c r="F441" s="197"/>
+      <c r="G441" s="197"/>
+      <c r="H441" s="197"/>
+      <c r="I441" s="197"/>
+      <c r="J441" s="197"/>
+      <c r="K441" s="197"/>
+      <c r="L441" s="197"/>
     </row>
     <row r="442" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B442" s="5" t="s">
@@ -27805,29 +27805,29 @@
       <c r="D442" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E442" s="209" t="s">
+      <c r="E442" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F442" s="210"/>
-      <c r="G442" s="210"/>
-      <c r="H442" s="210"/>
-      <c r="I442" s="210"/>
-      <c r="J442" s="210"/>
-      <c r="K442" s="210"/>
-      <c r="L442" s="210"/>
+      <c r="F442" s="197"/>
+      <c r="G442" s="197"/>
+      <c r="H442" s="197"/>
+      <c r="I442" s="197"/>
+      <c r="J442" s="197"/>
+      <c r="K442" s="197"/>
+      <c r="L442" s="197"/>
     </row>
     <row r="443" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B443" s="5"/>
       <c r="C443" s="7"/>
       <c r="D443" s="38"/>
-      <c r="E443" s="210"/>
-      <c r="F443" s="210"/>
-      <c r="G443" s="210"/>
-      <c r="H443" s="210"/>
-      <c r="I443" s="210"/>
-      <c r="J443" s="210"/>
-      <c r="K443" s="210"/>
-      <c r="L443" s="210"/>
+      <c r="E443" s="197"/>
+      <c r="F443" s="197"/>
+      <c r="G443" s="197"/>
+      <c r="H443" s="197"/>
+      <c r="I443" s="197"/>
+      <c r="J443" s="197"/>
+      <c r="K443" s="197"/>
+      <c r="L443" s="197"/>
     </row>
     <row r="444" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B444" s="3" t="s">
@@ -27849,11 +27849,11 @@
       <c r="L444" s="24"/>
     </row>
     <row r="445" spans="2:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B445" s="205" t="s">
+      <c r="B445" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C445" s="205"/>
-      <c r="D445" s="205"/>
+      <c r="C445" s="192"/>
+      <c r="D445" s="192"/>
       <c r="E445" s="76" t="s">
         <v>496</v>
       </c>
@@ -27881,34 +27881,34 @@
       </c>
     </row>
     <row r="447" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B447" s="223" t="s">
+      <c r="B447" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C447" s="225" t="s">
+      <c r="C447" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D447" s="226"/>
-      <c r="E447" s="227"/>
-      <c r="F447" s="228" t="s">
+      <c r="D447" s="223"/>
+      <c r="E447" s="224"/>
+      <c r="F447" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G447" s="228" t="s">
+      <c r="G447" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H447" s="230" t="s">
+      <c r="H447" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I447" s="232" t="s">
+      <c r="I447" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J447" s="233"/>
-      <c r="K447" s="233"/>
-      <c r="L447" s="223" t="s">
+      <c r="J447" s="230"/>
+      <c r="K447" s="230"/>
+      <c r="L447" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="448" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B448" s="224"/>
+      <c r="B448" s="221"/>
       <c r="C448" s="75" t="s">
         <v>12</v>
       </c>
@@ -27918,9 +27918,9 @@
       <c r="E448" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F448" s="229"/>
-      <c r="G448" s="229"/>
-      <c r="H448" s="231"/>
+      <c r="F448" s="226"/>
+      <c r="G448" s="226"/>
+      <c r="H448" s="228"/>
       <c r="I448" s="74" t="s">
         <v>42</v>
       </c>
@@ -27930,17 +27930,17 @@
       <c r="K448" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L448" s="224"/>
+      <c r="L448" s="221"/>
     </row>
     <row r="449" spans="1:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B449" s="192" t="s">
+      <c r="B449" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C449" s="193"/>
-      <c r="D449" s="193"/>
-      <c r="E449" s="193"/>
-      <c r="F449" s="193"/>
-      <c r="G449" s="194"/>
+      <c r="C449" s="199"/>
+      <c r="D449" s="199"/>
+      <c r="E449" s="199"/>
+      <c r="F449" s="199"/>
+      <c r="G449" s="200"/>
       <c r="H449" s="51">
         <f>H431</f>
         <v>435343.68999999983</v>
@@ -28280,14 +28280,14 @@
       </c>
     </row>
     <row r="460" spans="1:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B460" s="211" t="s">
+      <c r="B460" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C460" s="212"/>
-      <c r="D460" s="212"/>
-      <c r="E460" s="212"/>
-      <c r="F460" s="212"/>
-      <c r="G460" s="213"/>
+      <c r="C460" s="216"/>
+      <c r="D460" s="216"/>
+      <c r="E460" s="216"/>
+      <c r="F460" s="216"/>
+      <c r="G460" s="217"/>
       <c r="H460" s="51">
         <f>SUM(H449:H459)</f>
         <v>470574.09999999986</v>
@@ -28346,34 +28346,34 @@
       <c r="L463" s="89"/>
     </row>
     <row r="464" spans="1:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B464" s="221" t="s">
+      <c r="B464" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C464" s="221"/>
-      <c r="D464" s="221"/>
-      <c r="E464" s="221"/>
-      <c r="F464" s="221"/>
-      <c r="G464" s="221"/>
-      <c r="H464" s="221"/>
-      <c r="I464" s="221"/>
-      <c r="J464" s="221"/>
-      <c r="K464" s="221"/>
-      <c r="L464" s="221"/>
+      <c r="C464" s="218"/>
+      <c r="D464" s="218"/>
+      <c r="E464" s="218"/>
+      <c r="F464" s="218"/>
+      <c r="G464" s="218"/>
+      <c r="H464" s="218"/>
+      <c r="I464" s="218"/>
+      <c r="J464" s="218"/>
+      <c r="K464" s="218"/>
+      <c r="L464" s="218"/>
     </row>
     <row r="465" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B465" s="222" t="s">
+      <c r="B465" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C465" s="222"/>
-      <c r="D465" s="222"/>
-      <c r="E465" s="222"/>
-      <c r="F465" s="222"/>
-      <c r="G465" s="222"/>
-      <c r="H465" s="222"/>
-      <c r="I465" s="222"/>
-      <c r="J465" s="222"/>
-      <c r="K465" s="222"/>
-      <c r="L465" s="222"/>
+      <c r="C465" s="219"/>
+      <c r="D465" s="219"/>
+      <c r="E465" s="219"/>
+      <c r="F465" s="219"/>
+      <c r="G465" s="219"/>
+      <c r="H465" s="219"/>
+      <c r="I465" s="219"/>
+      <c r="J465" s="219"/>
+      <c r="K465" s="219"/>
+      <c r="L465" s="219"/>
     </row>
     <row r="466" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B466" s="17"/>
@@ -28389,19 +28389,19 @@
       <c r="L466" s="19"/>
     </row>
     <row r="467" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B467" s="208" t="s">
+      <c r="B467" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C467" s="208"/>
-      <c r="D467" s="208"/>
-      <c r="E467" s="208"/>
-      <c r="F467" s="208"/>
-      <c r="G467" s="208"/>
-      <c r="H467" s="208"/>
-      <c r="I467" s="208"/>
-      <c r="J467" s="208"/>
-      <c r="K467" s="208"/>
-      <c r="L467" s="208"/>
+      <c r="C467" s="195"/>
+      <c r="D467" s="195"/>
+      <c r="E467" s="195"/>
+      <c r="F467" s="195"/>
+      <c r="G467" s="195"/>
+      <c r="H467" s="195"/>
+      <c r="I467" s="195"/>
+      <c r="J467" s="195"/>
+      <c r="K467" s="195"/>
+      <c r="L467" s="195"/>
     </row>
     <row r="468" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B468" s="17"/>
@@ -28443,29 +28443,29 @@
       <c r="D470" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E470" s="209" t="s">
+      <c r="E470" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F470" s="210"/>
-      <c r="G470" s="210"/>
-      <c r="H470" s="210"/>
-      <c r="I470" s="210"/>
-      <c r="J470" s="210"/>
-      <c r="K470" s="210"/>
-      <c r="L470" s="210"/>
+      <c r="F470" s="197"/>
+      <c r="G470" s="197"/>
+      <c r="H470" s="197"/>
+      <c r="I470" s="197"/>
+      <c r="J470" s="197"/>
+      <c r="K470" s="197"/>
+      <c r="L470" s="197"/>
     </row>
     <row r="471" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B471" s="5"/>
       <c r="C471" s="6"/>
       <c r="D471" s="37"/>
-      <c r="E471" s="210"/>
-      <c r="F471" s="210"/>
-      <c r="G471" s="210"/>
-      <c r="H471" s="210"/>
-      <c r="I471" s="210"/>
-      <c r="J471" s="210"/>
-      <c r="K471" s="210"/>
-      <c r="L471" s="210"/>
+      <c r="E471" s="197"/>
+      <c r="F471" s="197"/>
+      <c r="G471" s="197"/>
+      <c r="H471" s="197"/>
+      <c r="I471" s="197"/>
+      <c r="J471" s="197"/>
+      <c r="K471" s="197"/>
+      <c r="L471" s="197"/>
     </row>
     <row r="472" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B472" s="5" t="s">
@@ -28475,29 +28475,29 @@
       <c r="D472" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E472" s="209" t="s">
+      <c r="E472" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F472" s="210"/>
-      <c r="G472" s="210"/>
-      <c r="H472" s="210"/>
-      <c r="I472" s="210"/>
-      <c r="J472" s="210"/>
-      <c r="K472" s="210"/>
-      <c r="L472" s="210"/>
+      <c r="F472" s="197"/>
+      <c r="G472" s="197"/>
+      <c r="H472" s="197"/>
+      <c r="I472" s="197"/>
+      <c r="J472" s="197"/>
+      <c r="K472" s="197"/>
+      <c r="L472" s="197"/>
     </row>
     <row r="473" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B473" s="5"/>
       <c r="C473" s="7"/>
       <c r="D473" s="38"/>
-      <c r="E473" s="210"/>
-      <c r="F473" s="210"/>
-      <c r="G473" s="210"/>
-      <c r="H473" s="210"/>
-      <c r="I473" s="210"/>
-      <c r="J473" s="210"/>
-      <c r="K473" s="210"/>
-      <c r="L473" s="210"/>
+      <c r="E473" s="197"/>
+      <c r="F473" s="197"/>
+      <c r="G473" s="197"/>
+      <c r="H473" s="197"/>
+      <c r="I473" s="197"/>
+      <c r="J473" s="197"/>
+      <c r="K473" s="197"/>
+      <c r="L473" s="197"/>
     </row>
     <row r="474" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B474" s="3" t="s">
@@ -28519,11 +28519,11 @@
       <c r="L474" s="24"/>
     </row>
     <row r="475" spans="2:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B475" s="205" t="s">
+      <c r="B475" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C475" s="205"/>
-      <c r="D475" s="205"/>
+      <c r="C475" s="192"/>
+      <c r="D475" s="192"/>
       <c r="E475" s="76" t="s">
         <v>496</v>
       </c>
@@ -28551,34 +28551,34 @@
       </c>
     </row>
     <row r="477" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B477" s="223" t="s">
+      <c r="B477" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C477" s="225" t="s">
+      <c r="C477" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D477" s="226"/>
-      <c r="E477" s="227"/>
-      <c r="F477" s="228" t="s">
+      <c r="D477" s="223"/>
+      <c r="E477" s="224"/>
+      <c r="F477" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G477" s="228" t="s">
+      <c r="G477" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H477" s="230" t="s">
+      <c r="H477" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I477" s="232" t="s">
+      <c r="I477" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J477" s="233"/>
-      <c r="K477" s="233"/>
-      <c r="L477" s="223" t="s">
+      <c r="J477" s="230"/>
+      <c r="K477" s="230"/>
+      <c r="L477" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="478" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B478" s="224"/>
+      <c r="B478" s="221"/>
       <c r="C478" s="75" t="s">
         <v>12</v>
       </c>
@@ -28588,9 +28588,9 @@
       <c r="E478" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F478" s="229"/>
-      <c r="G478" s="229"/>
-      <c r="H478" s="231"/>
+      <c r="F478" s="226"/>
+      <c r="G478" s="226"/>
+      <c r="H478" s="228"/>
       <c r="I478" s="74" t="s">
         <v>42</v>
       </c>
@@ -28600,17 +28600,17 @@
       <c r="K478" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L478" s="224"/>
+      <c r="L478" s="221"/>
     </row>
     <row r="479" spans="2:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B479" s="192" t="s">
+      <c r="B479" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C479" s="193"/>
-      <c r="D479" s="193"/>
-      <c r="E479" s="193"/>
-      <c r="F479" s="193"/>
-      <c r="G479" s="194"/>
+      <c r="C479" s="199"/>
+      <c r="D479" s="199"/>
+      <c r="E479" s="199"/>
+      <c r="F479" s="199"/>
+      <c r="G479" s="200"/>
       <c r="H479" s="51">
         <f>H460</f>
         <v>470574.09999999986</v>
@@ -28940,14 +28940,14 @@
       </c>
     </row>
     <row r="490" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B490" s="211" t="s">
+      <c r="B490" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C490" s="212"/>
-      <c r="D490" s="212"/>
-      <c r="E490" s="212"/>
-      <c r="F490" s="212"/>
-      <c r="G490" s="213"/>
+      <c r="C490" s="216"/>
+      <c r="D490" s="216"/>
+      <c r="E490" s="216"/>
+      <c r="F490" s="216"/>
+      <c r="G490" s="217"/>
       <c r="H490" s="51">
         <f>SUM(H479:H489)</f>
         <v>471084.6999999999</v>
@@ -28993,34 +28993,34 @@
       <c r="L492" s="89"/>
     </row>
     <row r="493" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B493" s="221" t="s">
+      <c r="B493" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C493" s="221"/>
-      <c r="D493" s="221"/>
-      <c r="E493" s="221"/>
-      <c r="F493" s="221"/>
-      <c r="G493" s="221"/>
-      <c r="H493" s="221"/>
-      <c r="I493" s="221"/>
-      <c r="J493" s="221"/>
-      <c r="K493" s="221"/>
-      <c r="L493" s="221"/>
+      <c r="C493" s="218"/>
+      <c r="D493" s="218"/>
+      <c r="E493" s="218"/>
+      <c r="F493" s="218"/>
+      <c r="G493" s="218"/>
+      <c r="H493" s="218"/>
+      <c r="I493" s="218"/>
+      <c r="J493" s="218"/>
+      <c r="K493" s="218"/>
+      <c r="L493" s="218"/>
     </row>
     <row r="494" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B494" s="222" t="s">
+      <c r="B494" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C494" s="222"/>
-      <c r="D494" s="222"/>
-      <c r="E494" s="222"/>
-      <c r="F494" s="222"/>
-      <c r="G494" s="222"/>
-      <c r="H494" s="222"/>
-      <c r="I494" s="222"/>
-      <c r="J494" s="222"/>
-      <c r="K494" s="222"/>
-      <c r="L494" s="222"/>
+      <c r="C494" s="219"/>
+      <c r="D494" s="219"/>
+      <c r="E494" s="219"/>
+      <c r="F494" s="219"/>
+      <c r="G494" s="219"/>
+      <c r="H494" s="219"/>
+      <c r="I494" s="219"/>
+      <c r="J494" s="219"/>
+      <c r="K494" s="219"/>
+      <c r="L494" s="219"/>
     </row>
     <row r="495" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B495" s="17"/>
@@ -29036,19 +29036,19 @@
       <c r="L495" s="19"/>
     </row>
     <row r="496" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B496" s="208" t="s">
+      <c r="B496" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C496" s="208"/>
-      <c r="D496" s="208"/>
-      <c r="E496" s="208"/>
-      <c r="F496" s="208"/>
-      <c r="G496" s="208"/>
-      <c r="H496" s="208"/>
-      <c r="I496" s="208"/>
-      <c r="J496" s="208"/>
-      <c r="K496" s="208"/>
-      <c r="L496" s="208"/>
+      <c r="C496" s="195"/>
+      <c r="D496" s="195"/>
+      <c r="E496" s="195"/>
+      <c r="F496" s="195"/>
+      <c r="G496" s="195"/>
+      <c r="H496" s="195"/>
+      <c r="I496" s="195"/>
+      <c r="J496" s="195"/>
+      <c r="K496" s="195"/>
+      <c r="L496" s="195"/>
     </row>
     <row r="497" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B497" s="17"/>
@@ -29090,29 +29090,29 @@
       <c r="D499" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E499" s="209" t="s">
+      <c r="E499" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F499" s="210"/>
-      <c r="G499" s="210"/>
-      <c r="H499" s="210"/>
-      <c r="I499" s="210"/>
-      <c r="J499" s="210"/>
-      <c r="K499" s="210"/>
-      <c r="L499" s="210"/>
+      <c r="F499" s="197"/>
+      <c r="G499" s="197"/>
+      <c r="H499" s="197"/>
+      <c r="I499" s="197"/>
+      <c r="J499" s="197"/>
+      <c r="K499" s="197"/>
+      <c r="L499" s="197"/>
     </row>
     <row r="500" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B500" s="5"/>
       <c r="C500" s="6"/>
       <c r="D500" s="37"/>
-      <c r="E500" s="210"/>
-      <c r="F500" s="210"/>
-      <c r="G500" s="210"/>
-      <c r="H500" s="210"/>
-      <c r="I500" s="210"/>
-      <c r="J500" s="210"/>
-      <c r="K500" s="210"/>
-      <c r="L500" s="210"/>
+      <c r="E500" s="197"/>
+      <c r="F500" s="197"/>
+      <c r="G500" s="197"/>
+      <c r="H500" s="197"/>
+      <c r="I500" s="197"/>
+      <c r="J500" s="197"/>
+      <c r="K500" s="197"/>
+      <c r="L500" s="197"/>
     </row>
     <row r="501" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B501" s="5" t="s">
@@ -29122,29 +29122,29 @@
       <c r="D501" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E501" s="209" t="s">
+      <c r="E501" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F501" s="210"/>
-      <c r="G501" s="210"/>
-      <c r="H501" s="210"/>
-      <c r="I501" s="210"/>
-      <c r="J501" s="210"/>
-      <c r="K501" s="210"/>
-      <c r="L501" s="210"/>
+      <c r="F501" s="197"/>
+      <c r="G501" s="197"/>
+      <c r="H501" s="197"/>
+      <c r="I501" s="197"/>
+      <c r="J501" s="197"/>
+      <c r="K501" s="197"/>
+      <c r="L501" s="197"/>
     </row>
     <row r="502" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B502" s="5"/>
       <c r="C502" s="7"/>
       <c r="D502" s="38"/>
-      <c r="E502" s="210"/>
-      <c r="F502" s="210"/>
-      <c r="G502" s="210"/>
-      <c r="H502" s="210"/>
-      <c r="I502" s="210"/>
-      <c r="J502" s="210"/>
-      <c r="K502" s="210"/>
-      <c r="L502" s="210"/>
+      <c r="E502" s="197"/>
+      <c r="F502" s="197"/>
+      <c r="G502" s="197"/>
+      <c r="H502" s="197"/>
+      <c r="I502" s="197"/>
+      <c r="J502" s="197"/>
+      <c r="K502" s="197"/>
+      <c r="L502" s="197"/>
     </row>
     <row r="503" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B503" s="3" t="s">
@@ -29166,11 +29166,11 @@
       <c r="L503" s="24"/>
     </row>
     <row r="504" spans="2:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B504" s="205" t="s">
+      <c r="B504" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C504" s="205"/>
-      <c r="D504" s="205"/>
+      <c r="C504" s="192"/>
+      <c r="D504" s="192"/>
       <c r="E504" s="76" t="s">
         <v>496</v>
       </c>
@@ -29198,34 +29198,34 @@
       </c>
     </row>
     <row r="506" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B506" s="223" t="s">
+      <c r="B506" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C506" s="225" t="s">
+      <c r="C506" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D506" s="226"/>
-      <c r="E506" s="227"/>
-      <c r="F506" s="228" t="s">
+      <c r="D506" s="223"/>
+      <c r="E506" s="224"/>
+      <c r="F506" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G506" s="228" t="s">
+      <c r="G506" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H506" s="230" t="s">
+      <c r="H506" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I506" s="232" t="s">
+      <c r="I506" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J506" s="233"/>
-      <c r="K506" s="233"/>
-      <c r="L506" s="223" t="s">
+      <c r="J506" s="230"/>
+      <c r="K506" s="230"/>
+      <c r="L506" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="507" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B507" s="224"/>
+      <c r="B507" s="221"/>
       <c r="C507" s="75" t="s">
         <v>12</v>
       </c>
@@ -29235,9 +29235,9 @@
       <c r="E507" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F507" s="229"/>
-      <c r="G507" s="229"/>
-      <c r="H507" s="231"/>
+      <c r="F507" s="226"/>
+      <c r="G507" s="226"/>
+      <c r="H507" s="228"/>
       <c r="I507" s="74" t="s">
         <v>42</v>
       </c>
@@ -29247,17 +29247,17 @@
       <c r="K507" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L507" s="224"/>
+      <c r="L507" s="221"/>
     </row>
     <row r="508" spans="2:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B508" s="192" t="s">
+      <c r="B508" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C508" s="193"/>
-      <c r="D508" s="193"/>
-      <c r="E508" s="193"/>
-      <c r="F508" s="193"/>
-      <c r="G508" s="194"/>
+      <c r="C508" s="199"/>
+      <c r="D508" s="199"/>
+      <c r="E508" s="199"/>
+      <c r="F508" s="199"/>
+      <c r="G508" s="200"/>
       <c r="H508" s="51">
         <f>H490</f>
         <v>471084.6999999999</v>
@@ -29587,14 +29587,14 @@
       </c>
     </row>
     <row r="519" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B519" s="211" t="s">
+      <c r="B519" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C519" s="212"/>
-      <c r="D519" s="212"/>
-      <c r="E519" s="212"/>
-      <c r="F519" s="212"/>
-      <c r="G519" s="213"/>
+      <c r="C519" s="216"/>
+      <c r="D519" s="216"/>
+      <c r="E519" s="216"/>
+      <c r="F519" s="216"/>
+      <c r="G519" s="217"/>
       <c r="H519" s="51">
         <f>SUM(H508:H518)</f>
         <v>472999.09999999992</v>
@@ -29640,34 +29640,34 @@
       <c r="L521" s="89"/>
     </row>
     <row r="522" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B522" s="221" t="s">
+      <c r="B522" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C522" s="221"/>
-      <c r="D522" s="221"/>
-      <c r="E522" s="221"/>
-      <c r="F522" s="221"/>
-      <c r="G522" s="221"/>
-      <c r="H522" s="221"/>
-      <c r="I522" s="221"/>
-      <c r="J522" s="221"/>
-      <c r="K522" s="221"/>
-      <c r="L522" s="221"/>
+      <c r="C522" s="218"/>
+      <c r="D522" s="218"/>
+      <c r="E522" s="218"/>
+      <c r="F522" s="218"/>
+      <c r="G522" s="218"/>
+      <c r="H522" s="218"/>
+      <c r="I522" s="218"/>
+      <c r="J522" s="218"/>
+      <c r="K522" s="218"/>
+      <c r="L522" s="218"/>
     </row>
     <row r="523" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B523" s="222" t="s">
+      <c r="B523" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C523" s="222"/>
-      <c r="D523" s="222"/>
-      <c r="E523" s="222"/>
-      <c r="F523" s="222"/>
-      <c r="G523" s="222"/>
-      <c r="H523" s="222"/>
-      <c r="I523" s="222"/>
-      <c r="J523" s="222"/>
-      <c r="K523" s="222"/>
-      <c r="L523" s="222"/>
+      <c r="C523" s="219"/>
+      <c r="D523" s="219"/>
+      <c r="E523" s="219"/>
+      <c r="F523" s="219"/>
+      <c r="G523" s="219"/>
+      <c r="H523" s="219"/>
+      <c r="I523" s="219"/>
+      <c r="J523" s="219"/>
+      <c r="K523" s="219"/>
+      <c r="L523" s="219"/>
     </row>
     <row r="524" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B524" s="17"/>
@@ -29683,19 +29683,19 @@
       <c r="L524" s="19"/>
     </row>
     <row r="525" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B525" s="208" t="s">
+      <c r="B525" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C525" s="208"/>
-      <c r="D525" s="208"/>
-      <c r="E525" s="208"/>
-      <c r="F525" s="208"/>
-      <c r="G525" s="208"/>
-      <c r="H525" s="208"/>
-      <c r="I525" s="208"/>
-      <c r="J525" s="208"/>
-      <c r="K525" s="208"/>
-      <c r="L525" s="208"/>
+      <c r="C525" s="195"/>
+      <c r="D525" s="195"/>
+      <c r="E525" s="195"/>
+      <c r="F525" s="195"/>
+      <c r="G525" s="195"/>
+      <c r="H525" s="195"/>
+      <c r="I525" s="195"/>
+      <c r="J525" s="195"/>
+      <c r="K525" s="195"/>
+      <c r="L525" s="195"/>
     </row>
     <row r="526" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B526" s="17"/>
@@ -29737,29 +29737,29 @@
       <c r="D528" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E528" s="209" t="s">
+      <c r="E528" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F528" s="210"/>
-      <c r="G528" s="210"/>
-      <c r="H528" s="210"/>
-      <c r="I528" s="210"/>
-      <c r="J528" s="210"/>
-      <c r="K528" s="210"/>
-      <c r="L528" s="210"/>
+      <c r="F528" s="197"/>
+      <c r="G528" s="197"/>
+      <c r="H528" s="197"/>
+      <c r="I528" s="197"/>
+      <c r="J528" s="197"/>
+      <c r="K528" s="197"/>
+      <c r="L528" s="197"/>
     </row>
     <row r="529" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B529" s="5"/>
       <c r="C529" s="6"/>
       <c r="D529" s="37"/>
-      <c r="E529" s="210"/>
-      <c r="F529" s="210"/>
-      <c r="G529" s="210"/>
-      <c r="H529" s="210"/>
-      <c r="I529" s="210"/>
-      <c r="J529" s="210"/>
-      <c r="K529" s="210"/>
-      <c r="L529" s="210"/>
+      <c r="E529" s="197"/>
+      <c r="F529" s="197"/>
+      <c r="G529" s="197"/>
+      <c r="H529" s="197"/>
+      <c r="I529" s="197"/>
+      <c r="J529" s="197"/>
+      <c r="K529" s="197"/>
+      <c r="L529" s="197"/>
     </row>
     <row r="530" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B530" s="5" t="s">
@@ -29769,29 +29769,29 @@
       <c r="D530" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E530" s="209" t="s">
+      <c r="E530" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F530" s="210"/>
-      <c r="G530" s="210"/>
-      <c r="H530" s="210"/>
-      <c r="I530" s="210"/>
-      <c r="J530" s="210"/>
-      <c r="K530" s="210"/>
-      <c r="L530" s="210"/>
+      <c r="F530" s="197"/>
+      <c r="G530" s="197"/>
+      <c r="H530" s="197"/>
+      <c r="I530" s="197"/>
+      <c r="J530" s="197"/>
+      <c r="K530" s="197"/>
+      <c r="L530" s="197"/>
     </row>
     <row r="531" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B531" s="5"/>
       <c r="C531" s="7"/>
       <c r="D531" s="38"/>
-      <c r="E531" s="210"/>
-      <c r="F531" s="210"/>
-      <c r="G531" s="210"/>
-      <c r="H531" s="210"/>
-      <c r="I531" s="210"/>
-      <c r="J531" s="210"/>
-      <c r="K531" s="210"/>
-      <c r="L531" s="210"/>
+      <c r="E531" s="197"/>
+      <c r="F531" s="197"/>
+      <c r="G531" s="197"/>
+      <c r="H531" s="197"/>
+      <c r="I531" s="197"/>
+      <c r="J531" s="197"/>
+      <c r="K531" s="197"/>
+      <c r="L531" s="197"/>
     </row>
     <row r="532" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B532" s="3" t="s">
@@ -29813,11 +29813,11 @@
       <c r="L532" s="24"/>
     </row>
     <row r="533" spans="2:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B533" s="205" t="s">
+      <c r="B533" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C533" s="205"/>
-      <c r="D533" s="205"/>
+      <c r="C533" s="192"/>
+      <c r="D533" s="192"/>
       <c r="E533" s="76" t="s">
         <v>496</v>
       </c>
@@ -29845,34 +29845,34 @@
       </c>
     </row>
     <row r="535" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B535" s="223" t="s">
+      <c r="B535" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C535" s="225" t="s">
+      <c r="C535" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D535" s="226"/>
-      <c r="E535" s="227"/>
-      <c r="F535" s="228" t="s">
+      <c r="D535" s="223"/>
+      <c r="E535" s="224"/>
+      <c r="F535" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G535" s="228" t="s">
+      <c r="G535" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H535" s="230" t="s">
+      <c r="H535" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I535" s="232" t="s">
+      <c r="I535" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J535" s="233"/>
-      <c r="K535" s="233"/>
-      <c r="L535" s="223" t="s">
+      <c r="J535" s="230"/>
+      <c r="K535" s="230"/>
+      <c r="L535" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="536" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B536" s="224"/>
+      <c r="B536" s="221"/>
       <c r="C536" s="75" t="s">
         <v>12</v>
       </c>
@@ -29882,9 +29882,9 @@
       <c r="E536" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F536" s="229"/>
-      <c r="G536" s="229"/>
-      <c r="H536" s="231"/>
+      <c r="F536" s="226"/>
+      <c r="G536" s="226"/>
+      <c r="H536" s="228"/>
       <c r="I536" s="74" t="s">
         <v>42</v>
       </c>
@@ -29894,17 +29894,17 @@
       <c r="K536" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L536" s="224"/>
+      <c r="L536" s="221"/>
     </row>
     <row r="537" spans="2:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B537" s="192" t="s">
+      <c r="B537" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C537" s="193"/>
-      <c r="D537" s="193"/>
-      <c r="E537" s="193"/>
-      <c r="F537" s="193"/>
-      <c r="G537" s="194"/>
+      <c r="C537" s="199"/>
+      <c r="D537" s="199"/>
+      <c r="E537" s="199"/>
+      <c r="F537" s="199"/>
+      <c r="G537" s="200"/>
       <c r="H537" s="51">
         <f>H519</f>
         <v>472999.09999999992</v>
@@ -30234,14 +30234,14 @@
       </c>
     </row>
     <row r="548" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B548" s="211" t="s">
+      <c r="B548" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C548" s="212"/>
-      <c r="D548" s="212"/>
-      <c r="E548" s="212"/>
-      <c r="F548" s="212"/>
-      <c r="G548" s="213"/>
+      <c r="C548" s="216"/>
+      <c r="D548" s="216"/>
+      <c r="E548" s="216"/>
+      <c r="F548" s="216"/>
+      <c r="G548" s="217"/>
       <c r="H548" s="51">
         <f>SUM(H537:H547)</f>
         <v>476453.69999999995</v>
@@ -30300,34 +30300,34 @@
       <c r="L551" s="90"/>
     </row>
     <row r="552" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B552" s="221" t="s">
+      <c r="B552" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C552" s="221"/>
-      <c r="D552" s="221"/>
-      <c r="E552" s="221"/>
-      <c r="F552" s="221"/>
-      <c r="G552" s="221"/>
-      <c r="H552" s="221"/>
-      <c r="I552" s="221"/>
-      <c r="J552" s="221"/>
-      <c r="K552" s="221"/>
-      <c r="L552" s="221"/>
+      <c r="C552" s="218"/>
+      <c r="D552" s="218"/>
+      <c r="E552" s="218"/>
+      <c r="F552" s="218"/>
+      <c r="G552" s="218"/>
+      <c r="H552" s="218"/>
+      <c r="I552" s="218"/>
+      <c r="J552" s="218"/>
+      <c r="K552" s="218"/>
+      <c r="L552" s="218"/>
     </row>
     <row r="553" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B553" s="222" t="s">
+      <c r="B553" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C553" s="222"/>
-      <c r="D553" s="222"/>
-      <c r="E553" s="222"/>
-      <c r="F553" s="222"/>
-      <c r="G553" s="222"/>
-      <c r="H553" s="222"/>
-      <c r="I553" s="222"/>
-      <c r="J553" s="222"/>
-      <c r="K553" s="222"/>
-      <c r="L553" s="222"/>
+      <c r="C553" s="219"/>
+      <c r="D553" s="219"/>
+      <c r="E553" s="219"/>
+      <c r="F553" s="219"/>
+      <c r="G553" s="219"/>
+      <c r="H553" s="219"/>
+      <c r="I553" s="219"/>
+      <c r="J553" s="219"/>
+      <c r="K553" s="219"/>
+      <c r="L553" s="219"/>
     </row>
     <row r="554" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B554" s="17"/>
@@ -30343,19 +30343,19 @@
       <c r="L554" s="19"/>
     </row>
     <row r="555" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B555" s="208" t="s">
+      <c r="B555" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C555" s="208"/>
-      <c r="D555" s="208"/>
-      <c r="E555" s="208"/>
-      <c r="F555" s="208"/>
-      <c r="G555" s="208"/>
-      <c r="H555" s="208"/>
-      <c r="I555" s="208"/>
-      <c r="J555" s="208"/>
-      <c r="K555" s="208"/>
-      <c r="L555" s="208"/>
+      <c r="C555" s="195"/>
+      <c r="D555" s="195"/>
+      <c r="E555" s="195"/>
+      <c r="F555" s="195"/>
+      <c r="G555" s="195"/>
+      <c r="H555" s="195"/>
+      <c r="I555" s="195"/>
+      <c r="J555" s="195"/>
+      <c r="K555" s="195"/>
+      <c r="L555" s="195"/>
     </row>
     <row r="556" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B556" s="17"/>
@@ -30397,29 +30397,29 @@
       <c r="D558" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E558" s="209" t="s">
+      <c r="E558" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F558" s="210"/>
-      <c r="G558" s="210"/>
-      <c r="H558" s="210"/>
-      <c r="I558" s="210"/>
-      <c r="J558" s="210"/>
-      <c r="K558" s="210"/>
-      <c r="L558" s="210"/>
+      <c r="F558" s="197"/>
+      <c r="G558" s="197"/>
+      <c r="H558" s="197"/>
+      <c r="I558" s="197"/>
+      <c r="J558" s="197"/>
+      <c r="K558" s="197"/>
+      <c r="L558" s="197"/>
     </row>
     <row r="559" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B559" s="5"/>
       <c r="C559" s="6"/>
       <c r="D559" s="37"/>
-      <c r="E559" s="210"/>
-      <c r="F559" s="210"/>
-      <c r="G559" s="210"/>
-      <c r="H559" s="210"/>
-      <c r="I559" s="210"/>
-      <c r="J559" s="210"/>
-      <c r="K559" s="210"/>
-      <c r="L559" s="210"/>
+      <c r="E559" s="197"/>
+      <c r="F559" s="197"/>
+      <c r="G559" s="197"/>
+      <c r="H559" s="197"/>
+      <c r="I559" s="197"/>
+      <c r="J559" s="197"/>
+      <c r="K559" s="197"/>
+      <c r="L559" s="197"/>
     </row>
     <row r="560" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B560" s="5" t="s">
@@ -30429,29 +30429,29 @@
       <c r="D560" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E560" s="209" t="s">
+      <c r="E560" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F560" s="210"/>
-      <c r="G560" s="210"/>
-      <c r="H560" s="210"/>
-      <c r="I560" s="210"/>
-      <c r="J560" s="210"/>
-      <c r="K560" s="210"/>
-      <c r="L560" s="210"/>
+      <c r="F560" s="197"/>
+      <c r="G560" s="197"/>
+      <c r="H560" s="197"/>
+      <c r="I560" s="197"/>
+      <c r="J560" s="197"/>
+      <c r="K560" s="197"/>
+      <c r="L560" s="197"/>
     </row>
     <row r="561" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B561" s="5"/>
       <c r="C561" s="7"/>
       <c r="D561" s="38"/>
-      <c r="E561" s="210"/>
-      <c r="F561" s="210"/>
-      <c r="G561" s="210"/>
-      <c r="H561" s="210"/>
-      <c r="I561" s="210"/>
-      <c r="J561" s="210"/>
-      <c r="K561" s="210"/>
-      <c r="L561" s="210"/>
+      <c r="E561" s="197"/>
+      <c r="F561" s="197"/>
+      <c r="G561" s="197"/>
+      <c r="H561" s="197"/>
+      <c r="I561" s="197"/>
+      <c r="J561" s="197"/>
+      <c r="K561" s="197"/>
+      <c r="L561" s="197"/>
     </row>
     <row r="562" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B562" s="3" t="s">
@@ -30473,11 +30473,11 @@
       <c r="L562" s="24"/>
     </row>
     <row r="563" spans="2:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B563" s="205" t="s">
+      <c r="B563" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C563" s="205"/>
-      <c r="D563" s="205"/>
+      <c r="C563" s="192"/>
+      <c r="D563" s="192"/>
       <c r="E563" s="76" t="s">
         <v>496</v>
       </c>
@@ -30505,34 +30505,34 @@
       </c>
     </row>
     <row r="565" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B565" s="223" t="s">
+      <c r="B565" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C565" s="225" t="s">
+      <c r="C565" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D565" s="226"/>
-      <c r="E565" s="227"/>
-      <c r="F565" s="228" t="s">
+      <c r="D565" s="223"/>
+      <c r="E565" s="224"/>
+      <c r="F565" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G565" s="228" t="s">
+      <c r="G565" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H565" s="230" t="s">
+      <c r="H565" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I565" s="232" t="s">
+      <c r="I565" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J565" s="233"/>
-      <c r="K565" s="233"/>
-      <c r="L565" s="223" t="s">
+      <c r="J565" s="230"/>
+      <c r="K565" s="230"/>
+      <c r="L565" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="566" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B566" s="224"/>
+      <c r="B566" s="221"/>
       <c r="C566" s="75" t="s">
         <v>12</v>
       </c>
@@ -30542,9 +30542,9 @@
       <c r="E566" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F566" s="229"/>
-      <c r="G566" s="229"/>
-      <c r="H566" s="231"/>
+      <c r="F566" s="226"/>
+      <c r="G566" s="226"/>
+      <c r="H566" s="228"/>
       <c r="I566" s="74" t="s">
         <v>42</v>
       </c>
@@ -30554,17 +30554,17 @@
       <c r="K566" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L566" s="224"/>
+      <c r="L566" s="221"/>
     </row>
     <row r="567" spans="2:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B567" s="192" t="s">
+      <c r="B567" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C567" s="193"/>
-      <c r="D567" s="193"/>
-      <c r="E567" s="193"/>
-      <c r="F567" s="193"/>
-      <c r="G567" s="194"/>
+      <c r="C567" s="199"/>
+      <c r="D567" s="199"/>
+      <c r="E567" s="199"/>
+      <c r="F567" s="199"/>
+      <c r="G567" s="200"/>
       <c r="H567" s="51">
         <f>H548</f>
         <v>476453.69999999995</v>
@@ -30894,14 +30894,14 @@
       </c>
     </row>
     <row r="578" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B578" s="211" t="s">
+      <c r="B578" s="215" t="s">
         <v>38</v>
       </c>
-      <c r="C578" s="212"/>
-      <c r="D578" s="212"/>
-      <c r="E578" s="212"/>
-      <c r="F578" s="212"/>
-      <c r="G578" s="213"/>
+      <c r="C578" s="216"/>
+      <c r="D578" s="216"/>
+      <c r="E578" s="216"/>
+      <c r="F578" s="216"/>
+      <c r="G578" s="217"/>
       <c r="H578" s="51">
         <f>SUM(H567:H577)</f>
         <v>478504.5</v>
@@ -30960,34 +30960,34 @@
       <c r="L581" s="89"/>
     </row>
     <row r="582" spans="2:12" s="15" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B582" s="221" t="s">
+      <c r="B582" s="218" t="s">
         <v>0</v>
       </c>
-      <c r="C582" s="221"/>
-      <c r="D582" s="221"/>
-      <c r="E582" s="221"/>
-      <c r="F582" s="221"/>
-      <c r="G582" s="221"/>
-      <c r="H582" s="221"/>
-      <c r="I582" s="221"/>
-      <c r="J582" s="221"/>
-      <c r="K582" s="221"/>
-      <c r="L582" s="221"/>
+      <c r="C582" s="218"/>
+      <c r="D582" s="218"/>
+      <c r="E582" s="218"/>
+      <c r="F582" s="218"/>
+      <c r="G582" s="218"/>
+      <c r="H582" s="218"/>
+      <c r="I582" s="218"/>
+      <c r="J582" s="218"/>
+      <c r="K582" s="218"/>
+      <c r="L582" s="218"/>
     </row>
     <row r="583" spans="2:12" s="15" customFormat="1" ht="27" x14ac:dyDescent="0.25">
-      <c r="B583" s="222" t="s">
+      <c r="B583" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="C583" s="222"/>
-      <c r="D583" s="222"/>
-      <c r="E583" s="222"/>
-      <c r="F583" s="222"/>
-      <c r="G583" s="222"/>
-      <c r="H583" s="222"/>
-      <c r="I583" s="222"/>
-      <c r="J583" s="222"/>
-      <c r="K583" s="222"/>
-      <c r="L583" s="222"/>
+      <c r="C583" s="219"/>
+      <c r="D583" s="219"/>
+      <c r="E583" s="219"/>
+      <c r="F583" s="219"/>
+      <c r="G583" s="219"/>
+      <c r="H583" s="219"/>
+      <c r="I583" s="219"/>
+      <c r="J583" s="219"/>
+      <c r="K583" s="219"/>
+      <c r="L583" s="219"/>
     </row>
     <row r="584" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B584" s="17"/>
@@ -31003,19 +31003,19 @@
       <c r="L584" s="19"/>
     </row>
     <row r="585" spans="2:12" s="15" customFormat="1" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="B585" s="208" t="s">
+      <c r="B585" s="195" t="s">
         <v>17</v>
       </c>
-      <c r="C585" s="208"/>
-      <c r="D585" s="208"/>
-      <c r="E585" s="208"/>
-      <c r="F585" s="208"/>
-      <c r="G585" s="208"/>
-      <c r="H585" s="208"/>
-      <c r="I585" s="208"/>
-      <c r="J585" s="208"/>
-      <c r="K585" s="208"/>
-      <c r="L585" s="208"/>
+      <c r="C585" s="195"/>
+      <c r="D585" s="195"/>
+      <c r="E585" s="195"/>
+      <c r="F585" s="195"/>
+      <c r="G585" s="195"/>
+      <c r="H585" s="195"/>
+      <c r="I585" s="195"/>
+      <c r="J585" s="195"/>
+      <c r="K585" s="195"/>
+      <c r="L585" s="195"/>
     </row>
     <row r="586" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B586" s="17"/>
@@ -31057,29 +31057,29 @@
       <c r="D588" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E588" s="209" t="s">
+      <c r="E588" s="196" t="s">
         <v>494</v>
       </c>
-      <c r="F588" s="210"/>
-      <c r="G588" s="210"/>
-      <c r="H588" s="210"/>
-      <c r="I588" s="210"/>
-      <c r="J588" s="210"/>
-      <c r="K588" s="210"/>
-      <c r="L588" s="210"/>
+      <c r="F588" s="197"/>
+      <c r="G588" s="197"/>
+      <c r="H588" s="197"/>
+      <c r="I588" s="197"/>
+      <c r="J588" s="197"/>
+      <c r="K588" s="197"/>
+      <c r="L588" s="197"/>
     </row>
     <row r="589" spans="2:12" s="15" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B589" s="5"/>
       <c r="C589" s="6"/>
       <c r="D589" s="37"/>
-      <c r="E589" s="210"/>
-      <c r="F589" s="210"/>
-      <c r="G589" s="210"/>
-      <c r="H589" s="210"/>
-      <c r="I589" s="210"/>
-      <c r="J589" s="210"/>
-      <c r="K589" s="210"/>
-      <c r="L589" s="210"/>
+      <c r="E589" s="197"/>
+      <c r="F589" s="197"/>
+      <c r="G589" s="197"/>
+      <c r="H589" s="197"/>
+      <c r="I589" s="197"/>
+      <c r="J589" s="197"/>
+      <c r="K589" s="197"/>
+      <c r="L589" s="197"/>
     </row>
     <row r="590" spans="2:12" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B590" s="5" t="s">
@@ -31089,29 +31089,29 @@
       <c r="D590" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E590" s="209" t="s">
+      <c r="E590" s="196" t="s">
         <v>495</v>
       </c>
-      <c r="F590" s="210"/>
-      <c r="G590" s="210"/>
-      <c r="H590" s="210"/>
-      <c r="I590" s="210"/>
-      <c r="J590" s="210"/>
-      <c r="K590" s="210"/>
-      <c r="L590" s="210"/>
+      <c r="F590" s="197"/>
+      <c r="G590" s="197"/>
+      <c r="H590" s="197"/>
+      <c r="I590" s="197"/>
+      <c r="J590" s="197"/>
+      <c r="K590" s="197"/>
+      <c r="L590" s="197"/>
     </row>
     <row r="591" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B591" s="5"/>
       <c r="C591" s="7"/>
       <c r="D591" s="38"/>
-      <c r="E591" s="210"/>
-      <c r="F591" s="210"/>
-      <c r="G591" s="210"/>
-      <c r="H591" s="210"/>
-      <c r="I591" s="210"/>
-      <c r="J591" s="210"/>
-      <c r="K591" s="210"/>
-      <c r="L591" s="210"/>
+      <c r="E591" s="197"/>
+      <c r="F591" s="197"/>
+      <c r="G591" s="197"/>
+      <c r="H591" s="197"/>
+      <c r="I591" s="197"/>
+      <c r="J591" s="197"/>
+      <c r="K591" s="197"/>
+      <c r="L591" s="197"/>
     </row>
     <row r="592" spans="2:12" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B592" s="3" t="s">
@@ -31133,11 +31133,11 @@
       <c r="L592" s="24"/>
     </row>
     <row r="593" spans="2:12" s="16" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B593" s="205" t="s">
+      <c r="B593" s="192" t="s">
         <v>30</v>
       </c>
-      <c r="C593" s="205"/>
-      <c r="D593" s="205"/>
+      <c r="C593" s="192"/>
+      <c r="D593" s="192"/>
       <c r="E593" s="76" t="s">
         <v>496</v>
       </c>
@@ -31165,34 +31165,34 @@
       </c>
     </row>
     <row r="595" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B595" s="223" t="s">
+      <c r="B595" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="C595" s="225" t="s">
+      <c r="C595" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="D595" s="226"/>
-      <c r="E595" s="227"/>
-      <c r="F595" s="228" t="s">
+      <c r="D595" s="223"/>
+      <c r="E595" s="224"/>
+      <c r="F595" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="G595" s="228" t="s">
+      <c r="G595" s="225" t="s">
         <v>9</v>
       </c>
-      <c r="H595" s="230" t="s">
+      <c r="H595" s="227" t="s">
         <v>10</v>
       </c>
-      <c r="I595" s="232" t="s">
+      <c r="I595" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="J595" s="233"/>
-      <c r="K595" s="233"/>
-      <c r="L595" s="223" t="s">
+      <c r="J595" s="230"/>
+      <c r="K595" s="230"/>
+      <c r="L595" s="220" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="596" spans="2:12" s="16" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B596" s="224"/>
+      <c r="B596" s="221"/>
       <c r="C596" s="75" t="s">
         <v>12</v>
       </c>
@@ -31202,9 +31202,9 @@
       <c r="E596" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F596" s="229"/>
-      <c r="G596" s="229"/>
-      <c r="H596" s="231"/>
+      <c r="F596" s="226"/>
+      <c r="G596" s="226"/>
+      <c r="H596" s="228"/>
       <c r="I596" s="74" t="s">
         <v>42</v>
       </c>
@@ -31214,17 +31214,17 @@
       <c r="K596" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="L596" s="224"/>
+      <c r="L596" s="221"/>
     </row>
     <row r="597" spans="2:12" s="15" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B597" s="192" t="s">
+      <c r="B597" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="C597" s="193"/>
-      <c r="D597" s="193"/>
-      <c r="E597" s="193"/>
-      <c r="F597" s="193"/>
-      <c r="G597" s="194"/>
+      <c r="C597" s="199"/>
+      <c r="D597" s="199"/>
+      <c r="E597" s="199"/>
+      <c r="F597" s="199"/>
+      <c r="G597" s="200"/>
       <c r="H597" s="51">
         <f>H578</f>
         <v>478504.5</v>
@@ -31554,14 +31554,14 @@
       </c>
     </row>
     <row r="608" spans="2:12" s="15" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B608" s="211" t="s">
+      <c r="B608" s="215" t="s">
         <v>498</v>
       </c>
-      <c r="C608" s="212"/>
-      <c r="D608" s="212"/>
-      <c r="E608" s="212"/>
-      <c r="F608" s="212"/>
-      <c r="G608" s="213"/>
+      <c r="C608" s="216"/>
+      <c r="D608" s="216"/>
+      <c r="E608" s="216"/>
+      <c r="F608" s="216"/>
+      <c r="G608" s="217"/>
       <c r="H608" s="51">
         <f>SUM(H597:H607)</f>
         <v>480692.8</v>
@@ -31627,296 +31627,6 @@
   </sheetData>
   <autoFilter ref="C15:C607"/>
   <mergeCells count="314">
-    <mergeCell ref="B597:G597"/>
-    <mergeCell ref="B567:G567"/>
-    <mergeCell ref="B578:G578"/>
-    <mergeCell ref="B582:L582"/>
-    <mergeCell ref="B583:L583"/>
-    <mergeCell ref="B585:L585"/>
-    <mergeCell ref="E588:L589"/>
-    <mergeCell ref="E590:L591"/>
-    <mergeCell ref="B593:D593"/>
-    <mergeCell ref="B595:B596"/>
-    <mergeCell ref="C595:E595"/>
-    <mergeCell ref="F595:F596"/>
-    <mergeCell ref="G595:G596"/>
-    <mergeCell ref="H595:H596"/>
-    <mergeCell ref="I595:K595"/>
-    <mergeCell ref="L595:L596"/>
-    <mergeCell ref="B537:G537"/>
-    <mergeCell ref="B548:G548"/>
-    <mergeCell ref="B552:L552"/>
-    <mergeCell ref="B553:L553"/>
-    <mergeCell ref="B555:L555"/>
-    <mergeCell ref="E558:L559"/>
-    <mergeCell ref="E560:L561"/>
-    <mergeCell ref="B563:D563"/>
-    <mergeCell ref="B565:B566"/>
-    <mergeCell ref="C565:E565"/>
-    <mergeCell ref="F565:F566"/>
-    <mergeCell ref="G565:G566"/>
-    <mergeCell ref="H565:H566"/>
-    <mergeCell ref="I565:K565"/>
-    <mergeCell ref="L565:L566"/>
-    <mergeCell ref="B508:G508"/>
-    <mergeCell ref="B519:G519"/>
-    <mergeCell ref="B522:L522"/>
-    <mergeCell ref="B523:L523"/>
-    <mergeCell ref="B525:L525"/>
-    <mergeCell ref="E528:L529"/>
-    <mergeCell ref="E530:L531"/>
-    <mergeCell ref="B533:D533"/>
-    <mergeCell ref="B535:B536"/>
-    <mergeCell ref="C535:E535"/>
-    <mergeCell ref="F535:F536"/>
-    <mergeCell ref="G535:G536"/>
-    <mergeCell ref="H535:H536"/>
-    <mergeCell ref="I535:K535"/>
-    <mergeCell ref="L535:L536"/>
-    <mergeCell ref="B479:G479"/>
-    <mergeCell ref="B490:G490"/>
-    <mergeCell ref="B493:L493"/>
-    <mergeCell ref="B494:L494"/>
-    <mergeCell ref="B496:L496"/>
-    <mergeCell ref="E499:L500"/>
-    <mergeCell ref="E501:L502"/>
-    <mergeCell ref="B504:D504"/>
-    <mergeCell ref="B506:B507"/>
-    <mergeCell ref="C506:E506"/>
-    <mergeCell ref="F506:F507"/>
-    <mergeCell ref="G506:G507"/>
-    <mergeCell ref="H506:H507"/>
-    <mergeCell ref="I506:K506"/>
-    <mergeCell ref="L506:L507"/>
-    <mergeCell ref="B449:G449"/>
-    <mergeCell ref="B460:G460"/>
-    <mergeCell ref="B464:L464"/>
-    <mergeCell ref="B465:L465"/>
-    <mergeCell ref="B467:L467"/>
-    <mergeCell ref="E470:L471"/>
-    <mergeCell ref="E472:L473"/>
-    <mergeCell ref="B475:D475"/>
-    <mergeCell ref="B477:B478"/>
-    <mergeCell ref="C477:E477"/>
-    <mergeCell ref="F477:F478"/>
-    <mergeCell ref="G477:G478"/>
-    <mergeCell ref="H477:H478"/>
-    <mergeCell ref="I477:K477"/>
-    <mergeCell ref="L477:L478"/>
-    <mergeCell ref="B420:G420"/>
-    <mergeCell ref="B431:G431"/>
-    <mergeCell ref="B434:L434"/>
-    <mergeCell ref="B435:L435"/>
-    <mergeCell ref="B437:L437"/>
-    <mergeCell ref="E440:L441"/>
-    <mergeCell ref="E442:L443"/>
-    <mergeCell ref="B445:D445"/>
-    <mergeCell ref="B447:B448"/>
-    <mergeCell ref="C447:E447"/>
-    <mergeCell ref="F447:F448"/>
-    <mergeCell ref="G447:G448"/>
-    <mergeCell ref="H447:H448"/>
-    <mergeCell ref="I447:K447"/>
-    <mergeCell ref="L447:L448"/>
-    <mergeCell ref="B402:G402"/>
-    <mergeCell ref="B405:L405"/>
-    <mergeCell ref="B406:L406"/>
-    <mergeCell ref="B408:L408"/>
-    <mergeCell ref="E411:L412"/>
-    <mergeCell ref="E413:L414"/>
-    <mergeCell ref="B416:D416"/>
-    <mergeCell ref="B418:B419"/>
-    <mergeCell ref="C418:E418"/>
-    <mergeCell ref="F418:F419"/>
-    <mergeCell ref="G418:G419"/>
-    <mergeCell ref="H418:H419"/>
-    <mergeCell ref="I418:K418"/>
-    <mergeCell ref="L418:L419"/>
-    <mergeCell ref="B391:G391"/>
-    <mergeCell ref="B376:L376"/>
-    <mergeCell ref="B377:L377"/>
-    <mergeCell ref="B379:L379"/>
-    <mergeCell ref="E382:L383"/>
-    <mergeCell ref="E384:L385"/>
-    <mergeCell ref="B387:D387"/>
-    <mergeCell ref="B389:B390"/>
-    <mergeCell ref="C389:E389"/>
-    <mergeCell ref="F389:F390"/>
-    <mergeCell ref="G389:G390"/>
-    <mergeCell ref="H389:H390"/>
-    <mergeCell ref="I389:K389"/>
-    <mergeCell ref="L389:L390"/>
-    <mergeCell ref="B362:G362"/>
-    <mergeCell ref="B372:G372"/>
-    <mergeCell ref="B332:G332"/>
-    <mergeCell ref="B343:G343"/>
-    <mergeCell ref="B347:L347"/>
-    <mergeCell ref="B348:L348"/>
-    <mergeCell ref="B350:L350"/>
-    <mergeCell ref="E353:L354"/>
-    <mergeCell ref="E355:L356"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="B360:B361"/>
-    <mergeCell ref="C360:E360"/>
-    <mergeCell ref="F360:F361"/>
-    <mergeCell ref="G360:G361"/>
-    <mergeCell ref="H360:H361"/>
-    <mergeCell ref="I360:K360"/>
-    <mergeCell ref="L360:L361"/>
-    <mergeCell ref="B303:G303"/>
-    <mergeCell ref="B314:G314"/>
-    <mergeCell ref="B317:L317"/>
-    <mergeCell ref="B318:L318"/>
-    <mergeCell ref="B320:L320"/>
-    <mergeCell ref="E323:L324"/>
-    <mergeCell ref="E325:L326"/>
-    <mergeCell ref="B328:D328"/>
-    <mergeCell ref="B330:B331"/>
-    <mergeCell ref="C330:E330"/>
-    <mergeCell ref="F330:F331"/>
-    <mergeCell ref="G330:G331"/>
-    <mergeCell ref="H330:H331"/>
-    <mergeCell ref="I330:K330"/>
-    <mergeCell ref="L330:L331"/>
-    <mergeCell ref="B288:L288"/>
-    <mergeCell ref="B289:L289"/>
-    <mergeCell ref="B291:L291"/>
-    <mergeCell ref="E294:L295"/>
-    <mergeCell ref="E296:L297"/>
-    <mergeCell ref="B299:D299"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="C301:E301"/>
-    <mergeCell ref="F301:F302"/>
-    <mergeCell ref="G301:G302"/>
-    <mergeCell ref="H301:H302"/>
-    <mergeCell ref="I301:K301"/>
-    <mergeCell ref="L301:L302"/>
-    <mergeCell ref="B275:G275"/>
-    <mergeCell ref="B284:G284"/>
-    <mergeCell ref="B260:L260"/>
-    <mergeCell ref="B261:L261"/>
-    <mergeCell ref="B263:L263"/>
-    <mergeCell ref="E266:L267"/>
-    <mergeCell ref="E268:L269"/>
-    <mergeCell ref="B271:D271"/>
-    <mergeCell ref="B273:B274"/>
-    <mergeCell ref="C273:E273"/>
-    <mergeCell ref="F273:F274"/>
-    <mergeCell ref="G273:G274"/>
-    <mergeCell ref="H273:H274"/>
-    <mergeCell ref="I273:K273"/>
-    <mergeCell ref="L273:L274"/>
-    <mergeCell ref="B245:G245"/>
-    <mergeCell ref="B256:G256"/>
-    <mergeCell ref="B215:G215"/>
-    <mergeCell ref="B227:G227"/>
-    <mergeCell ref="B230:L230"/>
-    <mergeCell ref="B231:L231"/>
-    <mergeCell ref="B233:L233"/>
-    <mergeCell ref="E236:L237"/>
-    <mergeCell ref="E238:L239"/>
-    <mergeCell ref="B241:D241"/>
-    <mergeCell ref="B243:B244"/>
-    <mergeCell ref="C243:E243"/>
-    <mergeCell ref="F243:F244"/>
-    <mergeCell ref="G243:G244"/>
-    <mergeCell ref="H243:H244"/>
-    <mergeCell ref="I243:K243"/>
-    <mergeCell ref="L243:L244"/>
-    <mergeCell ref="B186:G186"/>
-    <mergeCell ref="B197:G197"/>
-    <mergeCell ref="B200:L200"/>
-    <mergeCell ref="B201:L201"/>
-    <mergeCell ref="B203:L203"/>
-    <mergeCell ref="E206:L207"/>
-    <mergeCell ref="E208:L209"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B213:B214"/>
-    <mergeCell ref="C213:E213"/>
-    <mergeCell ref="F213:F214"/>
-    <mergeCell ref="G213:G214"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="I213:K213"/>
-    <mergeCell ref="L213:L214"/>
-    <mergeCell ref="B157:G157"/>
-    <mergeCell ref="B168:G168"/>
-    <mergeCell ref="B171:L171"/>
-    <mergeCell ref="B172:L172"/>
-    <mergeCell ref="B174:L174"/>
-    <mergeCell ref="E177:L178"/>
-    <mergeCell ref="E179:L180"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C184:E184"/>
-    <mergeCell ref="F184:F185"/>
-    <mergeCell ref="G184:G185"/>
-    <mergeCell ref="H184:H185"/>
-    <mergeCell ref="I184:K184"/>
-    <mergeCell ref="L184:L185"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B139:G139"/>
-    <mergeCell ref="B142:L142"/>
-    <mergeCell ref="B143:L143"/>
-    <mergeCell ref="B145:L145"/>
-    <mergeCell ref="E148:L149"/>
-    <mergeCell ref="E150:L151"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="F155:F156"/>
-    <mergeCell ref="G155:G156"/>
-    <mergeCell ref="H155:H156"/>
-    <mergeCell ref="I155:K155"/>
-    <mergeCell ref="L155:L156"/>
-    <mergeCell ref="B111:G111"/>
-    <mergeCell ref="B114:L114"/>
-    <mergeCell ref="B115:L115"/>
-    <mergeCell ref="B117:L117"/>
-    <mergeCell ref="E120:L121"/>
-    <mergeCell ref="E122:L123"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B127:B128"/>
-    <mergeCell ref="C127:E127"/>
-    <mergeCell ref="F127:F128"/>
-    <mergeCell ref="G127:G128"/>
-    <mergeCell ref="H127:H128"/>
-    <mergeCell ref="I127:K127"/>
-    <mergeCell ref="L127:L128"/>
-    <mergeCell ref="B86:L86"/>
-    <mergeCell ref="B87:L87"/>
-    <mergeCell ref="B89:L89"/>
-    <mergeCell ref="E92:L93"/>
-    <mergeCell ref="E94:L95"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="H99:H100"/>
-    <mergeCell ref="I99:K99"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="L69:L70"/>
-    <mergeCell ref="B71:G71"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="E7:L8"/>
-    <mergeCell ref="E9:L10"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
     <mergeCell ref="B608:G608"/>
     <mergeCell ref="B24:G24"/>
     <mergeCell ref="B27:L27"/>
@@ -31941,6 +31651,296 @@
     <mergeCell ref="B59:L59"/>
     <mergeCell ref="E62:L63"/>
     <mergeCell ref="E64:L65"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="E7:L8"/>
+    <mergeCell ref="E9:L10"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="L69:L70"/>
+    <mergeCell ref="B71:G71"/>
+    <mergeCell ref="B86:L86"/>
+    <mergeCell ref="B87:L87"/>
+    <mergeCell ref="B89:L89"/>
+    <mergeCell ref="E92:L93"/>
+    <mergeCell ref="E94:L95"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="H99:H100"/>
+    <mergeCell ref="I99:K99"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="B111:G111"/>
+    <mergeCell ref="B114:L114"/>
+    <mergeCell ref="B115:L115"/>
+    <mergeCell ref="B117:L117"/>
+    <mergeCell ref="E120:L121"/>
+    <mergeCell ref="E122:L123"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B127:B128"/>
+    <mergeCell ref="C127:E127"/>
+    <mergeCell ref="F127:F128"/>
+    <mergeCell ref="G127:G128"/>
+    <mergeCell ref="H127:H128"/>
+    <mergeCell ref="I127:K127"/>
+    <mergeCell ref="L127:L128"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B139:G139"/>
+    <mergeCell ref="B142:L142"/>
+    <mergeCell ref="B143:L143"/>
+    <mergeCell ref="B145:L145"/>
+    <mergeCell ref="E148:L149"/>
+    <mergeCell ref="E150:L151"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="F155:F156"/>
+    <mergeCell ref="G155:G156"/>
+    <mergeCell ref="H155:H156"/>
+    <mergeCell ref="I155:K155"/>
+    <mergeCell ref="L155:L156"/>
+    <mergeCell ref="B157:G157"/>
+    <mergeCell ref="B168:G168"/>
+    <mergeCell ref="B171:L171"/>
+    <mergeCell ref="B172:L172"/>
+    <mergeCell ref="B174:L174"/>
+    <mergeCell ref="E177:L178"/>
+    <mergeCell ref="E179:L180"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:E184"/>
+    <mergeCell ref="F184:F185"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="H184:H185"/>
+    <mergeCell ref="I184:K184"/>
+    <mergeCell ref="L184:L185"/>
+    <mergeCell ref="B186:G186"/>
+    <mergeCell ref="B197:G197"/>
+    <mergeCell ref="B200:L200"/>
+    <mergeCell ref="B201:L201"/>
+    <mergeCell ref="B203:L203"/>
+    <mergeCell ref="E206:L207"/>
+    <mergeCell ref="E208:L209"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:E213"/>
+    <mergeCell ref="F213:F214"/>
+    <mergeCell ref="G213:G214"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="I213:K213"/>
+    <mergeCell ref="L213:L214"/>
+    <mergeCell ref="B245:G245"/>
+    <mergeCell ref="B256:G256"/>
+    <mergeCell ref="B215:G215"/>
+    <mergeCell ref="B227:G227"/>
+    <mergeCell ref="B230:L230"/>
+    <mergeCell ref="B231:L231"/>
+    <mergeCell ref="B233:L233"/>
+    <mergeCell ref="E236:L237"/>
+    <mergeCell ref="E238:L239"/>
+    <mergeCell ref="B241:D241"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="C243:E243"/>
+    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="G243:G244"/>
+    <mergeCell ref="H243:H244"/>
+    <mergeCell ref="I243:K243"/>
+    <mergeCell ref="L243:L244"/>
+    <mergeCell ref="B275:G275"/>
+    <mergeCell ref="B284:G284"/>
+    <mergeCell ref="B260:L260"/>
+    <mergeCell ref="B261:L261"/>
+    <mergeCell ref="B263:L263"/>
+    <mergeCell ref="E266:L267"/>
+    <mergeCell ref="E268:L269"/>
+    <mergeCell ref="B271:D271"/>
+    <mergeCell ref="B273:B274"/>
+    <mergeCell ref="C273:E273"/>
+    <mergeCell ref="F273:F274"/>
+    <mergeCell ref="G273:G274"/>
+    <mergeCell ref="H273:H274"/>
+    <mergeCell ref="I273:K273"/>
+    <mergeCell ref="L273:L274"/>
+    <mergeCell ref="B288:L288"/>
+    <mergeCell ref="B289:L289"/>
+    <mergeCell ref="B291:L291"/>
+    <mergeCell ref="E294:L295"/>
+    <mergeCell ref="E296:L297"/>
+    <mergeCell ref="B299:D299"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="C301:E301"/>
+    <mergeCell ref="F301:F302"/>
+    <mergeCell ref="G301:G302"/>
+    <mergeCell ref="H301:H302"/>
+    <mergeCell ref="I301:K301"/>
+    <mergeCell ref="L301:L302"/>
+    <mergeCell ref="B303:G303"/>
+    <mergeCell ref="B314:G314"/>
+    <mergeCell ref="B317:L317"/>
+    <mergeCell ref="B318:L318"/>
+    <mergeCell ref="B320:L320"/>
+    <mergeCell ref="E323:L324"/>
+    <mergeCell ref="E325:L326"/>
+    <mergeCell ref="B328:D328"/>
+    <mergeCell ref="B330:B331"/>
+    <mergeCell ref="C330:E330"/>
+    <mergeCell ref="F330:F331"/>
+    <mergeCell ref="G330:G331"/>
+    <mergeCell ref="H330:H331"/>
+    <mergeCell ref="I330:K330"/>
+    <mergeCell ref="L330:L331"/>
+    <mergeCell ref="B362:G362"/>
+    <mergeCell ref="B372:G372"/>
+    <mergeCell ref="B332:G332"/>
+    <mergeCell ref="B343:G343"/>
+    <mergeCell ref="B347:L347"/>
+    <mergeCell ref="B348:L348"/>
+    <mergeCell ref="B350:L350"/>
+    <mergeCell ref="E353:L354"/>
+    <mergeCell ref="E355:L356"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="B360:B361"/>
+    <mergeCell ref="C360:E360"/>
+    <mergeCell ref="F360:F361"/>
+    <mergeCell ref="G360:G361"/>
+    <mergeCell ref="H360:H361"/>
+    <mergeCell ref="I360:K360"/>
+    <mergeCell ref="L360:L361"/>
+    <mergeCell ref="B391:G391"/>
+    <mergeCell ref="B376:L376"/>
+    <mergeCell ref="B377:L377"/>
+    <mergeCell ref="B379:L379"/>
+    <mergeCell ref="E382:L383"/>
+    <mergeCell ref="E384:L385"/>
+    <mergeCell ref="B387:D387"/>
+    <mergeCell ref="B389:B390"/>
+    <mergeCell ref="C389:E389"/>
+    <mergeCell ref="F389:F390"/>
+    <mergeCell ref="G389:G390"/>
+    <mergeCell ref="H389:H390"/>
+    <mergeCell ref="I389:K389"/>
+    <mergeCell ref="L389:L390"/>
+    <mergeCell ref="B402:G402"/>
+    <mergeCell ref="B405:L405"/>
+    <mergeCell ref="B406:L406"/>
+    <mergeCell ref="B408:L408"/>
+    <mergeCell ref="E411:L412"/>
+    <mergeCell ref="E413:L414"/>
+    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="B418:B419"/>
+    <mergeCell ref="C418:E418"/>
+    <mergeCell ref="F418:F419"/>
+    <mergeCell ref="G418:G419"/>
+    <mergeCell ref="H418:H419"/>
+    <mergeCell ref="I418:K418"/>
+    <mergeCell ref="L418:L419"/>
+    <mergeCell ref="B420:G420"/>
+    <mergeCell ref="B431:G431"/>
+    <mergeCell ref="B434:L434"/>
+    <mergeCell ref="B435:L435"/>
+    <mergeCell ref="B437:L437"/>
+    <mergeCell ref="E440:L441"/>
+    <mergeCell ref="E442:L443"/>
+    <mergeCell ref="B445:D445"/>
+    <mergeCell ref="B447:B448"/>
+    <mergeCell ref="C447:E447"/>
+    <mergeCell ref="F447:F448"/>
+    <mergeCell ref="G447:G448"/>
+    <mergeCell ref="H447:H448"/>
+    <mergeCell ref="I447:K447"/>
+    <mergeCell ref="L447:L448"/>
+    <mergeCell ref="B449:G449"/>
+    <mergeCell ref="B460:G460"/>
+    <mergeCell ref="B464:L464"/>
+    <mergeCell ref="B465:L465"/>
+    <mergeCell ref="B467:L467"/>
+    <mergeCell ref="E470:L471"/>
+    <mergeCell ref="E472:L473"/>
+    <mergeCell ref="B475:D475"/>
+    <mergeCell ref="B477:B478"/>
+    <mergeCell ref="C477:E477"/>
+    <mergeCell ref="F477:F478"/>
+    <mergeCell ref="G477:G478"/>
+    <mergeCell ref="H477:H478"/>
+    <mergeCell ref="I477:K477"/>
+    <mergeCell ref="L477:L478"/>
+    <mergeCell ref="B479:G479"/>
+    <mergeCell ref="B490:G490"/>
+    <mergeCell ref="B493:L493"/>
+    <mergeCell ref="B494:L494"/>
+    <mergeCell ref="B496:L496"/>
+    <mergeCell ref="E499:L500"/>
+    <mergeCell ref="E501:L502"/>
+    <mergeCell ref="B504:D504"/>
+    <mergeCell ref="B506:B507"/>
+    <mergeCell ref="C506:E506"/>
+    <mergeCell ref="F506:F507"/>
+    <mergeCell ref="G506:G507"/>
+    <mergeCell ref="H506:H507"/>
+    <mergeCell ref="I506:K506"/>
+    <mergeCell ref="L506:L507"/>
+    <mergeCell ref="B508:G508"/>
+    <mergeCell ref="B519:G519"/>
+    <mergeCell ref="B522:L522"/>
+    <mergeCell ref="B523:L523"/>
+    <mergeCell ref="B525:L525"/>
+    <mergeCell ref="E528:L529"/>
+    <mergeCell ref="E530:L531"/>
+    <mergeCell ref="B533:D533"/>
+    <mergeCell ref="B535:B536"/>
+    <mergeCell ref="C535:E535"/>
+    <mergeCell ref="F535:F536"/>
+    <mergeCell ref="G535:G536"/>
+    <mergeCell ref="H535:H536"/>
+    <mergeCell ref="I535:K535"/>
+    <mergeCell ref="L535:L536"/>
+    <mergeCell ref="B537:G537"/>
+    <mergeCell ref="B548:G548"/>
+    <mergeCell ref="B552:L552"/>
+    <mergeCell ref="B553:L553"/>
+    <mergeCell ref="B555:L555"/>
+    <mergeCell ref="E558:L559"/>
+    <mergeCell ref="E560:L561"/>
+    <mergeCell ref="B563:D563"/>
+    <mergeCell ref="B565:B566"/>
+    <mergeCell ref="C565:E565"/>
+    <mergeCell ref="F565:F566"/>
+    <mergeCell ref="G565:G566"/>
+    <mergeCell ref="H565:H566"/>
+    <mergeCell ref="I565:K565"/>
+    <mergeCell ref="L565:L566"/>
+    <mergeCell ref="B597:G597"/>
+    <mergeCell ref="B567:G567"/>
+    <mergeCell ref="B578:G578"/>
+    <mergeCell ref="B582:L582"/>
+    <mergeCell ref="B583:L583"/>
+    <mergeCell ref="B585:L585"/>
+    <mergeCell ref="E588:L589"/>
+    <mergeCell ref="E590:L591"/>
+    <mergeCell ref="B593:D593"/>
+    <mergeCell ref="B595:B596"/>
+    <mergeCell ref="C595:E595"/>
+    <mergeCell ref="F595:F596"/>
+    <mergeCell ref="G595:G596"/>
+    <mergeCell ref="H595:H596"/>
+    <mergeCell ref="I595:K595"/>
+    <mergeCell ref="L595:L596"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
